--- a/AAII_Financials/Quarterly/BFNH_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/BFNH_QTR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Quarterly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="92">
   <si>
     <t>BFNH</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:P102"/>
+  <dimension ref="A5:R102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,74 +665,81 @@
     <col min="1" max="1" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E7" s="2">
+        <v>43830</v>
+      </c>
+      <c r="F7" s="2">
         <v>43738</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>43646</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>43555</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>43465</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43373</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43281</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43190</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43100</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43008</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>42916</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>39629</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>39538</v>
       </c>
-      <c r="P7" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="R7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
@@ -767,24 +774,30 @@
         <v>0</v>
       </c>
       <c r="N8" s="3">
+        <v>0</v>
+      </c>
+      <c r="O8" s="3">
+        <v>0</v>
+      </c>
+      <c r="P8" s="3">
         <v>200</v>
       </c>
-      <c r="O8" s="3">
+      <c r="Q8" s="3">
         <v>400</v>
       </c>
-      <c r="P8" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="R8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D9" s="3">
-        <v>0</v>
-      </c>
-      <c r="E9" s="3">
-        <v>0</v>
+      <c r="D9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="F9" s="3">
         <v>0</v>
@@ -798,8 +811,8 @@
       <c r="I9" s="3">
         <v>0</v>
       </c>
-      <c r="J9" s="3" t="s">
-        <v>3</v>
+      <c r="J9" s="3">
+        <v>0</v>
       </c>
       <c r="K9" s="3">
         <v>0</v>
@@ -807,28 +820,34 @@
       <c r="L9" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M9" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N9" s="3">
+      <c r="M9" s="3">
+        <v>0</v>
+      </c>
+      <c r="N9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P9" s="3">
         <v>200</v>
       </c>
-      <c r="O9" s="3">
+      <c r="Q9" s="3">
         <v>200</v>
       </c>
-      <c r="P9" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="R9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E10" s="3">
-        <v>0</v>
+      <c r="E10" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="F10" s="3">
         <v>0</v>
@@ -842,8 +861,8 @@
       <c r="I10" s="3">
         <v>0</v>
       </c>
-      <c r="J10" s="3" t="s">
-        <v>3</v>
+      <c r="J10" s="3">
+        <v>0</v>
       </c>
       <c r="K10" s="3">
         <v>0</v>
@@ -851,20 +870,26 @@
       <c r="L10" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M10" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N10" s="3">
-        <v>0</v>
-      </c>
-      <c r="O10" s="3">
+      <c r="M10" s="3">
+        <v>0</v>
+      </c>
+      <c r="N10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P10" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="3">
         <v>200</v>
       </c>
-      <c r="P10" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="R10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -881,8 +906,10 @@
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q11" s="3"/>
+      <c r="R11" s="3"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -916,17 +943,23 @@
       <c r="M12" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N12" s="3">
+      <c r="N12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P12" s="3">
         <v>300</v>
       </c>
-      <c r="O12" s="3">
+      <c r="Q12" s="3">
         <v>300</v>
       </c>
-      <c r="P12" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="R12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -969,8 +1002,14 @@
       <c r="P13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q13" s="3">
+        <v>0</v>
+      </c>
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1013,8 +1052,14 @@
       <c r="P14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q14" s="3">
+        <v>0</v>
+      </c>
+      <c r="R14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1057,8 +1102,14 @@
       <c r="P15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q15" s="3">
+        <v>0</v>
+      </c>
+      <c r="R15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1072,13 +1123,15 @@
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
-    </row>
-    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q16" s="3"/>
+      <c r="R16" s="3"/>
+    </row>
+    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>0</v>
+        <v>158000</v>
       </c>
       <c r="E17" s="3">
         <v>0</v>
@@ -1108,16 +1161,22 @@
         <v>0</v>
       </c>
       <c r="N17" s="3">
+        <v>0</v>
+      </c>
+      <c r="O17" s="3">
+        <v>0</v>
+      </c>
+      <c r="P17" s="3">
         <v>1100</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>1100</v>
       </c>
-      <c r="P17" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="R17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1152,16 +1211,22 @@
         <v>0</v>
       </c>
       <c r="N18" s="3">
+        <v>0</v>
+      </c>
+      <c r="O18" s="3">
+        <v>0</v>
+      </c>
+      <c r="P18" s="3">
         <v>-900</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>-700</v>
       </c>
-      <c r="P18" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="R18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1178,8 +1243,10 @@
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
-    </row>
-    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q19" s="3"/>
+      <c r="R19" s="3"/>
+    </row>
+    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1219,11 +1286,17 @@
       <c r="O20" s="3">
         <v>0</v>
       </c>
-      <c r="P20" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="P20" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q20" s="3">
+        <v>0</v>
+      </c>
+      <c r="R20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1257,40 +1330,46 @@
       <c r="M21" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N21" s="3">
+      <c r="N21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P21" s="3">
         <v>-800</v>
       </c>
-      <c r="O21" s="3">
+      <c r="Q21" s="3">
         <v>-700</v>
       </c>
-      <c r="P21" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="R21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D22" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E22" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F22" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G22" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H22" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I22" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J22" s="3" t="s">
-        <v>3</v>
+      <c r="D22" s="3">
+        <v>0</v>
+      </c>
+      <c r="E22" s="3">
+        <v>0</v>
+      </c>
+      <c r="F22" s="3">
+        <v>0</v>
+      </c>
+      <c r="G22" s="3">
+        <v>0</v>
+      </c>
+      <c r="H22" s="3">
+        <v>0</v>
+      </c>
+      <c r="I22" s="3">
+        <v>0</v>
+      </c>
+      <c r="J22" s="3">
+        <v>0</v>
       </c>
       <c r="K22" s="3" t="s">
         <v>3</v>
@@ -1301,22 +1380,28 @@
       <c r="M22" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N22" s="3">
+      <c r="N22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P22" s="3">
         <v>100</v>
       </c>
-      <c r="O22" s="3">
-        <v>0</v>
-      </c>
-      <c r="P22" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q22" s="3">
+        <v>0</v>
+      </c>
+      <c r="R22" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>0</v>
+        <v>-158000</v>
       </c>
       <c r="E23" s="3">
         <v>0</v>
@@ -1346,16 +1431,22 @@
         <v>0</v>
       </c>
       <c r="N23" s="3">
+        <v>0</v>
+      </c>
+      <c r="O23" s="3">
+        <v>0</v>
+      </c>
+      <c r="P23" s="3">
         <v>-900</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>-700</v>
       </c>
-      <c r="P23" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="R23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1398,8 +1489,14 @@
       <c r="P24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q24" s="3">
+        <v>0</v>
+      </c>
+      <c r="R24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1442,13 +1539,19 @@
       <c r="P25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q25" s="3">
+        <v>0</v>
+      </c>
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>0</v>
+        <v>-158000</v>
       </c>
       <c r="E26" s="3">
         <v>0</v>
@@ -1478,21 +1581,27 @@
         <v>0</v>
       </c>
       <c r="N26" s="3">
+        <v>0</v>
+      </c>
+      <c r="O26" s="3">
+        <v>0</v>
+      </c>
+      <c r="P26" s="3">
         <v>-900</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>-700</v>
       </c>
-      <c r="P26" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="R26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>0</v>
+        <v>-158000</v>
       </c>
       <c r="E27" s="3">
         <v>0</v>
@@ -1522,16 +1631,22 @@
         <v>0</v>
       </c>
       <c r="N27" s="3">
+        <v>0</v>
+      </c>
+      <c r="O27" s="3">
+        <v>0</v>
+      </c>
+      <c r="P27" s="3">
         <v>-900</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>-800</v>
       </c>
-      <c r="P27" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="R27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1574,8 +1689,14 @@
       <c r="P28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q28" s="3">
+        <v>0</v>
+      </c>
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1618,8 +1739,14 @@
       <c r="P29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q29" s="3">
+        <v>0</v>
+      </c>
+      <c r="R29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1662,8 +1789,14 @@
       <c r="P30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q30" s="3">
+        <v>0</v>
+      </c>
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1706,8 +1839,14 @@
       <c r="P31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q31" s="3">
+        <v>0</v>
+      </c>
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1747,16 +1886,22 @@
       <c r="O32" s="3">
         <v>0</v>
       </c>
-      <c r="P32" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="P32" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q32" s="3">
+        <v>0</v>
+      </c>
+      <c r="R32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>0</v>
+        <v>-158000</v>
       </c>
       <c r="E33" s="3">
         <v>0</v>
@@ -1786,16 +1931,22 @@
         <v>0</v>
       </c>
       <c r="N33" s="3">
+        <v>0</v>
+      </c>
+      <c r="O33" s="3">
+        <v>0</v>
+      </c>
+      <c r="P33" s="3">
         <v>-900</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>-800</v>
       </c>
-      <c r="P33" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="R33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1838,13 +1989,19 @@
       <c r="P34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q34" s="3">
+        <v>0</v>
+      </c>
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>0</v>
+        <v>-158000</v>
       </c>
       <c r="E35" s="3">
         <v>0</v>
@@ -1874,65 +2031,77 @@
         <v>0</v>
       </c>
       <c r="N35" s="3">
+        <v>0</v>
+      </c>
+      <c r="O35" s="3">
+        <v>0</v>
+      </c>
+      <c r="P35" s="3">
         <v>-900</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>-800</v>
       </c>
-      <c r="P35" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="R35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E38" s="2">
+        <v>43830</v>
+      </c>
+      <c r="F38" s="2">
         <v>43738</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>43646</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>43555</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>43465</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43373</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43281</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43190</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43100</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43008</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>42916</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>39629</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>39538</v>
       </c>
-      <c r="P38" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="R38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1949,8 +2118,10 @@
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
-    </row>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q39" s="3"/>
+      <c r="R39" s="3"/>
+    </row>
+    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1967,8 +2138,10 @@
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
-    </row>
-    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q40" s="3"/>
+      <c r="R40" s="3"/>
+    </row>
+    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -1976,7 +2149,7 @@
         <v>0</v>
       </c>
       <c r="E41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F41" s="3">
         <v>0</v>
@@ -1993,11 +2166,11 @@
       <c r="J41" s="3">
         <v>0</v>
       </c>
-      <c r="K41" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L41" s="3" t="s">
-        <v>3</v>
+      <c r="K41" s="3">
+        <v>0</v>
+      </c>
+      <c r="L41" s="3">
+        <v>0</v>
       </c>
       <c r="M41" s="3" t="s">
         <v>3</v>
@@ -2011,8 +2184,14 @@
       <c r="P41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q41" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2055,13 +2234,19 @@
       <c r="P42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q42" s="3">
+        <v>0</v>
+      </c>
+      <c r="R42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D43" s="3">
-        <v>0</v>
+      <c r="D43" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E43" s="3">
         <v>0</v>
@@ -2081,11 +2266,11 @@
       <c r="J43" s="3">
         <v>0</v>
       </c>
-      <c r="K43" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L43" s="3" t="s">
-        <v>3</v>
+      <c r="K43" s="3">
+        <v>0</v>
+      </c>
+      <c r="L43" s="3">
+        <v>0</v>
       </c>
       <c r="M43" s="3" t="s">
         <v>3</v>
@@ -2099,8 +2284,14 @@
       <c r="P43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2134,34 +2325,40 @@
       <c r="M44" s="3">
         <v>0</v>
       </c>
-      <c r="N44" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O44" s="3" t="s">
-        <v>3</v>
+      <c r="N44" s="3">
+        <v>0</v>
+      </c>
+      <c r="O44" s="3">
+        <v>0</v>
       </c>
       <c r="P44" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q44" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R44" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D45" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E45" s="3" t="s">
-        <v>3</v>
+      <c r="D45" s="3">
+        <v>0</v>
+      </c>
+      <c r="E45" s="3">
+        <v>0</v>
       </c>
       <c r="F45" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G45" s="3">
-        <v>0</v>
-      </c>
-      <c r="H45" s="3">
-        <v>0</v>
+      <c r="G45" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H45" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="I45" s="3">
         <v>0</v>
@@ -2169,11 +2366,11 @@
       <c r="J45" s="3">
         <v>0</v>
       </c>
-      <c r="K45" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L45" s="3" t="s">
-        <v>3</v>
+      <c r="K45" s="3">
+        <v>0</v>
+      </c>
+      <c r="L45" s="3">
+        <v>0</v>
       </c>
       <c r="M45" s="3" t="s">
         <v>3</v>
@@ -2187,8 +2384,14 @@
       <c r="P45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q45" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2196,10 +2399,10 @@
         <v>100</v>
       </c>
       <c r="E46" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F46" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G46" s="3">
         <v>0</v>
@@ -2213,11 +2416,11 @@
       <c r="J46" s="3">
         <v>0</v>
       </c>
-      <c r="K46" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L46" s="3" t="s">
-        <v>3</v>
+      <c r="K46" s="3">
+        <v>0</v>
+      </c>
+      <c r="L46" s="3">
+        <v>0</v>
       </c>
       <c r="M46" s="3" t="s">
         <v>3</v>
@@ -2231,8 +2434,14 @@
       <c r="P46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q46" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2266,17 +2475,23 @@
       <c r="M47" s="3">
         <v>0</v>
       </c>
-      <c r="N47" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O47" s="3" t="s">
-        <v>3</v>
+      <c r="N47" s="3">
+        <v>0</v>
+      </c>
+      <c r="O47" s="3">
+        <v>0</v>
       </c>
       <c r="P47" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2310,17 +2525,23 @@
       <c r="M48" s="3">
         <v>0</v>
       </c>
-      <c r="N48" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O48" s="3" t="s">
-        <v>3</v>
+      <c r="N48" s="3">
+        <v>0</v>
+      </c>
+      <c r="O48" s="3">
+        <v>0</v>
       </c>
       <c r="P48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2354,17 +2575,23 @@
       <c r="M49" s="3">
         <v>0</v>
       </c>
-      <c r="N49" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O49" s="3" t="s">
-        <v>3</v>
+      <c r="N49" s="3">
+        <v>0</v>
+      </c>
+      <c r="O49" s="3">
+        <v>0</v>
       </c>
       <c r="P49" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q49" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R49" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2407,8 +2634,14 @@
       <c r="P50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q50" s="3">
+        <v>0</v>
+      </c>
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2451,8 +2684,14 @@
       <c r="P51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q51" s="3">
+        <v>0</v>
+      </c>
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2495,8 +2734,14 @@
       <c r="P52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q52" s="3">
+        <v>0</v>
+      </c>
+      <c r="R52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2539,8 +2784,14 @@
       <c r="P53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q53" s="3">
+        <v>0</v>
+      </c>
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
@@ -2548,10 +2799,10 @@
         <v>100</v>
       </c>
       <c r="E54" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F54" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G54" s="3">
         <v>0</v>
@@ -2565,11 +2816,11 @@
       <c r="J54" s="3">
         <v>0</v>
       </c>
-      <c r="K54" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L54" s="3" t="s">
-        <v>3</v>
+      <c r="K54" s="3">
+        <v>0</v>
+      </c>
+      <c r="L54" s="3">
+        <v>0</v>
       </c>
       <c r="M54" s="3" t="s">
         <v>3</v>
@@ -2583,8 +2834,14 @@
       <c r="P54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q54" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2601,8 +2858,10 @@
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
-    </row>
-    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q55" s="3"/>
+      <c r="R55" s="3"/>
+    </row>
+    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2619,8 +2878,10 @@
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
-    </row>
-    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q56" s="3"/>
+      <c r="R56" s="3"/>
+    </row>
+    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -2645,11 +2906,11 @@
       <c r="J57" s="3">
         <v>0</v>
       </c>
-      <c r="K57" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L57" s="3" t="s">
-        <v>3</v>
+      <c r="K57" s="3">
+        <v>0</v>
+      </c>
+      <c r="L57" s="3">
+        <v>0</v>
       </c>
       <c r="M57" s="3" t="s">
         <v>3</v>
@@ -2663,8 +2924,14 @@
       <c r="P57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2698,17 +2965,23 @@
       <c r="M58" s="3">
         <v>0</v>
       </c>
-      <c r="N58" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O58" s="3" t="s">
-        <v>3</v>
+      <c r="N58" s="3">
+        <v>0</v>
+      </c>
+      <c r="O58" s="3">
+        <v>0</v>
       </c>
       <c r="P58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -2718,20 +2991,20 @@
       <c r="E59" s="3">
         <v>0</v>
       </c>
-      <c r="F59" s="3">
-        <v>0</v>
-      </c>
-      <c r="G59" s="3">
-        <v>0</v>
-      </c>
-      <c r="H59" s="3">
-        <v>0</v>
-      </c>
-      <c r="I59" s="3">
-        <v>0</v>
-      </c>
-      <c r="J59" s="3">
-        <v>0</v>
+      <c r="F59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J59" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K59" s="3">
         <v>0</v>
@@ -2742,17 +3015,23 @@
       <c r="M59" s="3">
         <v>0</v>
       </c>
-      <c r="N59" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O59" s="3" t="s">
-        <v>3</v>
+      <c r="N59" s="3">
+        <v>0</v>
+      </c>
+      <c r="O59" s="3">
+        <v>0</v>
       </c>
       <c r="P59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -2777,11 +3056,11 @@
       <c r="J60" s="3">
         <v>0</v>
       </c>
-      <c r="K60" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L60" s="3" t="s">
-        <v>3</v>
+      <c r="K60" s="3">
+        <v>0</v>
+      </c>
+      <c r="L60" s="3">
+        <v>0</v>
       </c>
       <c r="M60" s="3" t="s">
         <v>3</v>
@@ -2795,8 +3074,14 @@
       <c r="P60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q60" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2839,8 +3124,14 @@
       <c r="P61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q61" s="3">
+        <v>0</v>
+      </c>
+      <c r="R61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -2883,8 +3174,14 @@
       <c r="P62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q62" s="3">
+        <v>0</v>
+      </c>
+      <c r="R62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2927,8 +3224,14 @@
       <c r="P63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q63" s="3">
+        <v>0</v>
+      </c>
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2971,8 +3274,14 @@
       <c r="P64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q64" s="3">
+        <v>0</v>
+      </c>
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3015,8 +3324,14 @@
       <c r="P65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q65" s="3">
+        <v>0</v>
+      </c>
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
@@ -3041,11 +3356,11 @@
       <c r="J66" s="3">
         <v>0</v>
       </c>
-      <c r="K66" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L66" s="3" t="s">
-        <v>3</v>
+      <c r="K66" s="3">
+        <v>0</v>
+      </c>
+      <c r="L66" s="3">
+        <v>0</v>
       </c>
       <c r="M66" s="3" t="s">
         <v>3</v>
@@ -3059,8 +3374,14 @@
       <c r="P66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q66" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3077,8 +3398,10 @@
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
-    </row>
-    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q67" s="3"/>
+      <c r="R67" s="3"/>
+    </row>
+    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3121,8 +3444,14 @@
       <c r="P68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q68" s="3">
+        <v>0</v>
+      </c>
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3165,8 +3494,14 @@
       <c r="P69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q69" s="3">
+        <v>0</v>
+      </c>
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3209,8 +3544,14 @@
       <c r="P70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q70" s="3">
+        <v>0</v>
+      </c>
+      <c r="R70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3253,16 +3594,22 @@
       <c r="P71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q71" s="3">
+        <v>0</v>
+      </c>
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-700</v>
+        <v>-158800</v>
       </c>
       <c r="E72" s="3">
-        <v>-700</v>
+        <v>-800</v>
       </c>
       <c r="F72" s="3">
         <v>-700</v>
@@ -3279,11 +3626,11 @@
       <c r="J72" s="3">
         <v>-700</v>
       </c>
-      <c r="K72" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L72" s="3" t="s">
-        <v>3</v>
+      <c r="K72" s="3">
+        <v>-700</v>
+      </c>
+      <c r="L72" s="3">
+        <v>-700</v>
       </c>
       <c r="M72" s="3" t="s">
         <v>3</v>
@@ -3297,8 +3644,14 @@
       <c r="P72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3341,8 +3694,14 @@
       <c r="P73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q73" s="3">
+        <v>0</v>
+      </c>
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3385,8 +3744,14 @@
       <c r="P74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q74" s="3">
+        <v>0</v>
+      </c>
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3429,8 +3794,14 @@
       <c r="P75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q75" s="3">
+        <v>0</v>
+      </c>
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
@@ -3455,11 +3826,11 @@
       <c r="J76" s="3">
         <v>0</v>
       </c>
-      <c r="K76" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L76" s="3" t="s">
-        <v>3</v>
+      <c r="K76" s="3">
+        <v>0</v>
+      </c>
+      <c r="L76" s="3">
+        <v>0</v>
       </c>
       <c r="M76" s="3" t="s">
         <v>3</v>
@@ -3473,8 +3844,14 @@
       <c r="P76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q76" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3517,62 +3894,74 @@
       <c r="P77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q77" s="3">
+        <v>0</v>
+      </c>
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E80" s="2">
+        <v>43830</v>
+      </c>
+      <c r="F80" s="2">
         <v>43738</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>43646</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>43555</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>43465</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43373</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43281</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43190</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43100</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43008</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>42916</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>39629</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>39538</v>
       </c>
-      <c r="P80" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="R80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>0</v>
+        <v>-158000</v>
       </c>
       <c r="E81" s="3">
         <v>0</v>
@@ -3602,16 +3991,22 @@
         <v>0</v>
       </c>
       <c r="N81" s="3">
+        <v>0</v>
+      </c>
+      <c r="O81" s="3">
+        <v>0</v>
+      </c>
+      <c r="P81" s="3">
         <v>-900</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>-800</v>
       </c>
-      <c r="P81" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="R81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3628,8 +4023,10 @@
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
-    </row>
-    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q82" s="3"/>
+      <c r="R82" s="3"/>
+    </row>
+    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3664,16 +4061,22 @@
         <v>0</v>
       </c>
       <c r="N83" s="3">
+        <v>0</v>
+      </c>
+      <c r="O83" s="3">
+        <v>0</v>
+      </c>
+      <c r="P83" s="3">
         <v>100</v>
       </c>
-      <c r="O83" s="3">
+      <c r="Q83" s="3">
         <v>100</v>
       </c>
-      <c r="P83" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="R83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3716,8 +4119,14 @@
       <c r="P84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q84" s="3">
+        <v>0</v>
+      </c>
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3760,8 +4169,14 @@
       <c r="P85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q85" s="3">
+        <v>0</v>
+      </c>
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3804,8 +4219,14 @@
       <c r="P86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q86" s="3">
+        <v>0</v>
+      </c>
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3848,8 +4269,14 @@
       <c r="P87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q87" s="3">
+        <v>0</v>
+      </c>
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3892,8 +4319,14 @@
       <c r="P88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q88" s="3">
+        <v>0</v>
+      </c>
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -3928,16 +4361,22 @@
         <v>0</v>
       </c>
       <c r="N89" s="3">
+        <v>0</v>
+      </c>
+      <c r="O89" s="3">
+        <v>0</v>
+      </c>
+      <c r="P89" s="3">
         <v>-100</v>
       </c>
-      <c r="O89" s="3">
+      <c r="Q89" s="3">
         <v>-200</v>
       </c>
-      <c r="P89" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="R89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3954,8 +4393,10 @@
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
-    </row>
-    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q90" s="3"/>
+      <c r="R90" s="3"/>
+    </row>
+    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -3993,13 +4434,19 @@
         <v>0</v>
       </c>
       <c r="O91" s="3">
+        <v>0</v>
+      </c>
+      <c r="P91" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q91" s="3">
         <v>-100</v>
       </c>
-      <c r="P91" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="R91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4042,8 +4489,14 @@
       <c r="P92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q92" s="3">
+        <v>0</v>
+      </c>
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4086,8 +4539,14 @@
       <c r="P93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q93" s="3">
+        <v>0</v>
+      </c>
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -4125,13 +4584,19 @@
         <v>0</v>
       </c>
       <c r="O94" s="3">
+        <v>0</v>
+      </c>
+      <c r="P94" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q94" s="3">
         <v>-100</v>
       </c>
-      <c r="P94" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="R94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4148,8 +4613,10 @@
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
-    </row>
-    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q95" s="3"/>
+      <c r="R95" s="3"/>
+    </row>
+    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4192,8 +4659,14 @@
       <c r="P96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+      <c r="R96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4236,8 +4709,14 @@
       <c r="P97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q97" s="3">
+        <v>0</v>
+      </c>
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4280,8 +4759,14 @@
       <c r="P98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q98" s="3">
+        <v>0</v>
+      </c>
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4324,8 +4809,14 @@
       <c r="P99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q99" s="3">
+        <v>0</v>
+      </c>
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -4360,16 +4851,22 @@
         <v>0</v>
       </c>
       <c r="N100" s="3">
+        <v>0</v>
+      </c>
+      <c r="O100" s="3">
+        <v>0</v>
+      </c>
+      <c r="P100" s="3">
         <v>100</v>
       </c>
-      <c r="O100" s="3">
+      <c r="Q100" s="3">
         <v>100</v>
       </c>
-      <c r="P100" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="R100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4412,8 +4909,14 @@
       <c r="P101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q101" s="3">
+        <v>0</v>
+      </c>
+      <c r="R101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -4451,9 +4954,15 @@
         <v>0</v>
       </c>
       <c r="O102" s="3">
+        <v>0</v>
+      </c>
+      <c r="P102" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q102" s="3">
         <v>-200</v>
       </c>
-      <c r="P102" s="3" t="s">
+      <c r="R102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/BFNH_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/BFNH_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="92">
   <si>
     <t>BFNH</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:R102"/>
+  <dimension ref="A5:S102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,81 +665,85 @@
     <col min="1" max="1" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E7" s="2">
         <v>43921</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43830</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43738</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43646</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43555</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43465</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43373</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43281</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43190</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43100</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43008</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>42916</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>39629</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>39538</v>
       </c>
-      <c r="R7" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
@@ -780,16 +784,19 @@
         <v>0</v>
       </c>
       <c r="P8" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="3">
         <v>200</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>400</v>
       </c>
-      <c r="R8" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -799,8 +806,8 @@
       <c r="E9" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F9" s="3">
-        <v>0</v>
+      <c r="F9" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="G9" s="3">
         <v>0</v>
@@ -817,29 +824,32 @@
       <c r="K9" s="3">
         <v>0</v>
       </c>
-      <c r="L9" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M9" s="3">
-        <v>0</v>
-      </c>
-      <c r="N9" s="3" t="s">
-        <v>3</v>
+      <c r="L9" s="3">
+        <v>0</v>
+      </c>
+      <c r="M9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N9" s="3">
+        <v>0</v>
       </c>
       <c r="O9" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="P9" s="3">
-        <v>200</v>
+      <c r="P9" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="Q9" s="3">
         <v>200</v>
       </c>
-      <c r="R9" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="R9" s="3">
+        <v>200</v>
+      </c>
+      <c r="S9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -849,8 +859,8 @@
       <c r="E10" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F10" s="3">
-        <v>0</v>
+      <c r="F10" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="G10" s="3">
         <v>0</v>
@@ -867,29 +877,32 @@
       <c r="K10" s="3">
         <v>0</v>
       </c>
-      <c r="L10" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M10" s="3">
-        <v>0</v>
-      </c>
-      <c r="N10" s="3" t="s">
-        <v>3</v>
+      <c r="L10" s="3">
+        <v>0</v>
+      </c>
+      <c r="M10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N10" s="3">
+        <v>0</v>
       </c>
       <c r="O10" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="P10" s="3">
-        <v>0</v>
+      <c r="P10" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="Q10" s="3">
+        <v>0</v>
+      </c>
+      <c r="R10" s="3">
         <v>200</v>
       </c>
-      <c r="R10" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -908,8 +921,9 @@
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S11" s="3"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -949,17 +963,20 @@
       <c r="O12" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="P12" s="3">
-        <v>300</v>
+      <c r="P12" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="Q12" s="3">
         <v>300</v>
       </c>
-      <c r="R12" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="R12" s="3">
+        <v>300</v>
+      </c>
+      <c r="S12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1008,8 +1025,11 @@
       <c r="R13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1058,8 +1078,11 @@
       <c r="R14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1108,8 +1131,11 @@
       <c r="R15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1125,17 +1151,18 @@
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
-    </row>
-    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S16" s="3"/>
+    </row>
+    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>100</v>
+      </c>
+      <c r="E17" s="3">
         <v>158000</v>
       </c>
-      <c r="E17" s="3">
-        <v>0</v>
-      </c>
       <c r="F17" s="3">
         <v>0</v>
       </c>
@@ -1167,16 +1194,19 @@
         <v>0</v>
       </c>
       <c r="P17" s="3">
-        <v>1100</v>
+        <v>0</v>
       </c>
       <c r="Q17" s="3">
         <v>1100</v>
       </c>
-      <c r="R17" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="R17" s="3">
+        <v>1100</v>
+      </c>
+      <c r="S17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1184,7 +1214,7 @@
         <v>3</v>
       </c>
       <c r="E18" s="3">
-        <v>0</v>
+        <v>-158000</v>
       </c>
       <c r="F18" s="3">
         <v>0</v>
@@ -1217,16 +1247,19 @@
         <v>0</v>
       </c>
       <c r="P18" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q18" s="3">
         <v>-900</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-700</v>
       </c>
-      <c r="R18" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1245,8 +1278,9 @@
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
-    </row>
-    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S19" s="3"/>
+    </row>
+    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1292,11 +1326,14 @@
       <c r="Q20" s="3">
         <v>0</v>
       </c>
-      <c r="R20" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="R20" s="3">
+        <v>0</v>
+      </c>
+      <c r="S20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1336,17 +1373,20 @@
       <c r="O21" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="P21" s="3">
+      <c r="P21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q21" s="3">
         <v>-800</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-700</v>
       </c>
-      <c r="R21" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1371,8 +1411,8 @@
       <c r="J22" s="3">
         <v>0</v>
       </c>
-      <c r="K22" s="3" t="s">
-        <v>3</v>
+      <c r="K22" s="3">
+        <v>0</v>
       </c>
       <c r="L22" s="3" t="s">
         <v>3</v>
@@ -1386,26 +1426,29 @@
       <c r="O22" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="P22" s="3">
+      <c r="P22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q22" s="3">
         <v>100</v>
       </c>
-      <c r="Q22" s="3">
-        <v>0</v>
-      </c>
-      <c r="R22" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="R22" s="3">
+        <v>0</v>
+      </c>
+      <c r="S22" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E23" s="3">
         <v>-158000</v>
       </c>
-      <c r="E23" s="3">
-        <v>0</v>
-      </c>
       <c r="F23" s="3">
         <v>0</v>
       </c>
@@ -1437,16 +1480,19 @@
         <v>0</v>
       </c>
       <c r="P23" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q23" s="3">
         <v>-900</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-700</v>
       </c>
-      <c r="R23" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1495,8 +1541,11 @@
       <c r="R24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1545,17 +1594,20 @@
       <c r="R25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E26" s="3">
         <v>-158000</v>
       </c>
-      <c r="E26" s="3">
-        <v>0</v>
-      </c>
       <c r="F26" s="3">
         <v>0</v>
       </c>
@@ -1587,25 +1639,28 @@
         <v>0</v>
       </c>
       <c r="P26" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q26" s="3">
         <v>-900</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-700</v>
       </c>
-      <c r="R26" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E27" s="3">
         <v>-158000</v>
       </c>
-      <c r="E27" s="3">
-        <v>0</v>
-      </c>
       <c r="F27" s="3">
         <v>0</v>
       </c>
@@ -1637,16 +1692,19 @@
         <v>0</v>
       </c>
       <c r="P27" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q27" s="3">
         <v>-900</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-800</v>
       </c>
-      <c r="R27" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1695,8 +1753,11 @@
       <c r="R28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1745,8 +1806,11 @@
       <c r="R29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1795,8 +1859,11 @@
       <c r="R30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1845,8 +1912,11 @@
       <c r="R31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1892,20 +1962,23 @@
       <c r="Q32" s="3">
         <v>0</v>
       </c>
-      <c r="R32" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="R32" s="3">
+        <v>0</v>
+      </c>
+      <c r="S32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E33" s="3">
         <v>-158000</v>
       </c>
-      <c r="E33" s="3">
-        <v>0</v>
-      </c>
       <c r="F33" s="3">
         <v>0</v>
       </c>
@@ -1937,16 +2010,19 @@
         <v>0</v>
       </c>
       <c r="P33" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q33" s="3">
         <v>-900</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-800</v>
       </c>
-      <c r="R33" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1995,17 +2071,20 @@
       <c r="R34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E35" s="3">
         <v>-158000</v>
       </c>
-      <c r="E35" s="3">
-        <v>0</v>
-      </c>
       <c r="F35" s="3">
         <v>0</v>
       </c>
@@ -2037,71 +2116,77 @@
         <v>0</v>
       </c>
       <c r="P35" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q35" s="3">
         <v>-900</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-800</v>
       </c>
-      <c r="R35" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E38" s="2">
         <v>43921</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43830</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43738</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43646</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43555</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43465</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43373</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43281</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43190</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43100</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43008</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>42916</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>39629</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>39538</v>
       </c>
-      <c r="R38" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2120,8 +2205,9 @@
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
-    </row>
-    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S39" s="3"/>
+    </row>
+    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2140,8 +2226,9 @@
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
-    </row>
-    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S40" s="3"/>
+    </row>
+    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -2149,11 +2236,11 @@
         <v>0</v>
       </c>
       <c r="E41" s="3">
+        <v>0</v>
+      </c>
+      <c r="F41" s="3">
         <v>100</v>
       </c>
-      <c r="F41" s="3">
-        <v>0</v>
-      </c>
       <c r="G41" s="3">
         <v>0</v>
       </c>
@@ -2172,8 +2259,8 @@
       <c r="L41" s="3">
         <v>0</v>
       </c>
-      <c r="M41" s="3" t="s">
-        <v>3</v>
+      <c r="M41" s="3">
+        <v>0</v>
       </c>
       <c r="N41" s="3" t="s">
         <v>3</v>
@@ -2190,8 +2277,11 @@
       <c r="R41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2240,16 +2330,19 @@
       <c r="R42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E43" s="3">
-        <v>0</v>
+      <c r="E43" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="F43" s="3">
         <v>0</v>
@@ -2272,8 +2365,8 @@
       <c r="L43" s="3">
         <v>0</v>
       </c>
-      <c r="M43" s="3" t="s">
-        <v>3</v>
+      <c r="M43" s="3">
+        <v>0</v>
       </c>
       <c r="N43" s="3" t="s">
         <v>3</v>
@@ -2290,8 +2383,11 @@
       <c r="R43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2331,8 +2427,8 @@
       <c r="O44" s="3">
         <v>0</v>
       </c>
-      <c r="P44" s="3" t="s">
-        <v>3</v>
+      <c r="P44" s="3">
+        <v>0</v>
       </c>
       <c r="Q44" s="3" t="s">
         <v>3</v>
@@ -2340,8 +2436,11 @@
       <c r="R44" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S44" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2351,8 +2450,8 @@
       <c r="E45" s="3">
         <v>0</v>
       </c>
-      <c r="F45" s="3" t="s">
-        <v>3</v>
+      <c r="F45" s="3">
+        <v>0</v>
       </c>
       <c r="G45" s="3" t="s">
         <v>3</v>
@@ -2360,8 +2459,8 @@
       <c r="H45" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="I45" s="3">
-        <v>0</v>
+      <c r="I45" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="J45" s="3">
         <v>0</v>
@@ -2372,8 +2471,8 @@
       <c r="L45" s="3">
         <v>0</v>
       </c>
-      <c r="M45" s="3" t="s">
-        <v>3</v>
+      <c r="M45" s="3">
+        <v>0</v>
       </c>
       <c r="N45" s="3" t="s">
         <v>3</v>
@@ -2390,13 +2489,16 @@
       <c r="R45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E46" s="3">
         <v>100</v>
@@ -2405,7 +2507,7 @@
         <v>100</v>
       </c>
       <c r="G46" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H46" s="3">
         <v>0</v>
@@ -2422,8 +2524,8 @@
       <c r="L46" s="3">
         <v>0</v>
       </c>
-      <c r="M46" s="3" t="s">
-        <v>3</v>
+      <c r="M46" s="3">
+        <v>0</v>
       </c>
       <c r="N46" s="3" t="s">
         <v>3</v>
@@ -2440,8 +2542,11 @@
       <c r="R46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2481,8 +2586,8 @@
       <c r="O47" s="3">
         <v>0</v>
       </c>
-      <c r="P47" s="3" t="s">
-        <v>3</v>
+      <c r="P47" s="3">
+        <v>0</v>
       </c>
       <c r="Q47" s="3" t="s">
         <v>3</v>
@@ -2490,8 +2595,11 @@
       <c r="R47" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2531,8 +2639,8 @@
       <c r="O48" s="3">
         <v>0</v>
       </c>
-      <c r="P48" s="3" t="s">
-        <v>3</v>
+      <c r="P48" s="3">
+        <v>0</v>
       </c>
       <c r="Q48" s="3" t="s">
         <v>3</v>
@@ -2540,8 +2648,11 @@
       <c r="R48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2581,8 +2692,8 @@
       <c r="O49" s="3">
         <v>0</v>
       </c>
-      <c r="P49" s="3" t="s">
-        <v>3</v>
+      <c r="P49" s="3">
+        <v>0</v>
       </c>
       <c r="Q49" s="3" t="s">
         <v>3</v>
@@ -2590,8 +2701,11 @@
       <c r="R49" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S49" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2640,8 +2754,11 @@
       <c r="R50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2690,8 +2807,11 @@
       <c r="R51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2740,8 +2860,11 @@
       <c r="R52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2790,13 +2913,16 @@
       <c r="R53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E54" s="3">
         <v>100</v>
@@ -2805,7 +2931,7 @@
         <v>100</v>
       </c>
       <c r="G54" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H54" s="3">
         <v>0</v>
@@ -2822,8 +2948,8 @@
       <c r="L54" s="3">
         <v>0</v>
       </c>
-      <c r="M54" s="3" t="s">
-        <v>3</v>
+      <c r="M54" s="3">
+        <v>0</v>
       </c>
       <c r="N54" s="3" t="s">
         <v>3</v>
@@ -2840,8 +2966,11 @@
       <c r="R54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2860,8 +2989,9 @@
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
-    </row>
-    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S55" s="3"/>
+    </row>
+    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2880,8 +3010,9 @@
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
-    </row>
-    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S56" s="3"/>
+    </row>
+    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -2912,8 +3043,8 @@
       <c r="L57" s="3">
         <v>0</v>
       </c>
-      <c r="M57" s="3" t="s">
-        <v>3</v>
+      <c r="M57" s="3">
+        <v>0</v>
       </c>
       <c r="N57" s="3" t="s">
         <v>3</v>
@@ -2930,8 +3061,11 @@
       <c r="R57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2971,8 +3105,8 @@
       <c r="O58" s="3">
         <v>0</v>
       </c>
-      <c r="P58" s="3" t="s">
-        <v>3</v>
+      <c r="P58" s="3">
+        <v>0</v>
       </c>
       <c r="Q58" s="3" t="s">
         <v>3</v>
@@ -2980,19 +3114,22 @@
       <c r="R58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="E59" s="3">
         <v>0</v>
       </c>
-      <c r="F59" s="3" t="s">
-        <v>3</v>
+      <c r="F59" s="3">
+        <v>0</v>
       </c>
       <c r="G59" s="3" t="s">
         <v>3</v>
@@ -3006,8 +3143,8 @@
       <c r="J59" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K59" s="3">
-        <v>0</v>
+      <c r="K59" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="L59" s="3">
         <v>0</v>
@@ -3021,8 +3158,8 @@
       <c r="O59" s="3">
         <v>0</v>
       </c>
-      <c r="P59" s="3" t="s">
-        <v>3</v>
+      <c r="P59" s="3">
+        <v>0</v>
       </c>
       <c r="Q59" s="3" t="s">
         <v>3</v>
@@ -3030,13 +3167,16 @@
       <c r="R59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="E60" s="3">
         <v>0</v>
@@ -3062,8 +3202,8 @@
       <c r="L60" s="3">
         <v>0</v>
       </c>
-      <c r="M60" s="3" t="s">
-        <v>3</v>
+      <c r="M60" s="3">
+        <v>0</v>
       </c>
       <c r="N60" s="3" t="s">
         <v>3</v>
@@ -3080,8 +3220,11 @@
       <c r="R60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3130,8 +3273,11 @@
       <c r="R61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3180,8 +3326,11 @@
       <c r="R62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3230,8 +3379,11 @@
       <c r="R63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3280,8 +3432,11 @@
       <c r="R64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3330,13 +3485,16 @@
       <c r="R65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="E66" s="3">
         <v>0</v>
@@ -3362,8 +3520,8 @@
       <c r="L66" s="3">
         <v>0</v>
       </c>
-      <c r="M66" s="3" t="s">
-        <v>3</v>
+      <c r="M66" s="3">
+        <v>0</v>
       </c>
       <c r="N66" s="3" t="s">
         <v>3</v>
@@ -3380,8 +3538,11 @@
       <c r="R66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3400,8 +3561,9 @@
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
-    </row>
-    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S67" s="3"/>
+    </row>
+    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3450,8 +3612,11 @@
       <c r="R68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3500,8 +3665,11 @@
       <c r="R69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3550,8 +3718,11 @@
       <c r="R70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3600,19 +3771,22 @@
       <c r="R71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-158900</v>
+      </c>
+      <c r="E72" s="3">
         <v>-158800</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-800</v>
-      </c>
-      <c r="F72" s="3">
-        <v>-700</v>
       </c>
       <c r="G72" s="3">
         <v>-700</v>
@@ -3632,8 +3806,8 @@
       <c r="L72" s="3">
         <v>-700</v>
       </c>
-      <c r="M72" s="3" t="s">
-        <v>3</v>
+      <c r="M72" s="3">
+        <v>-700</v>
       </c>
       <c r="N72" s="3" t="s">
         <v>3</v>
@@ -3650,8 +3824,11 @@
       <c r="R72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3700,8 +3877,11 @@
       <c r="R73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3750,8 +3930,11 @@
       <c r="R74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3800,13 +3983,16 @@
       <c r="R75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E76" s="3">
         <v>0</v>
@@ -3832,8 +4018,8 @@
       <c r="L76" s="3">
         <v>0</v>
       </c>
-      <c r="M76" s="3" t="s">
-        <v>3</v>
+      <c r="M76" s="3">
+        <v>0</v>
       </c>
       <c r="N76" s="3" t="s">
         <v>3</v>
@@ -3850,8 +4036,11 @@
       <c r="R76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3900,72 +4089,78 @@
       <c r="R77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E80" s="2">
         <v>43921</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43830</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43738</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43646</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43555</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43465</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43373</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43281</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43190</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43100</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43008</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>42916</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>39629</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>39538</v>
       </c>
-      <c r="R80" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E81" s="3">
         <v>-158000</v>
       </c>
-      <c r="E81" s="3">
-        <v>0</v>
-      </c>
       <c r="F81" s="3">
         <v>0</v>
       </c>
@@ -3997,16 +4192,19 @@
         <v>0</v>
       </c>
       <c r="P81" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q81" s="3">
         <v>-900</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-800</v>
       </c>
-      <c r="R81" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4025,8 +4223,9 @@
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
-    </row>
-    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S82" s="3"/>
+    </row>
+    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4067,16 +4266,19 @@
         <v>0</v>
       </c>
       <c r="P83" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q83" s="3">
         <v>100</v>
       </c>
-      <c r="R83" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="R83" s="3">
+        <v>100</v>
+      </c>
+      <c r="S83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4125,8 +4327,11 @@
       <c r="R84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4175,8 +4380,11 @@
       <c r="R85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4225,8 +4433,11 @@
       <c r="R86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4275,8 +4486,11 @@
       <c r="R87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4325,8 +4539,11 @@
       <c r="R88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -4367,16 +4584,19 @@
         <v>0</v>
       </c>
       <c r="P89" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q89" s="3">
         <v>-100</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-200</v>
       </c>
-      <c r="R89" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4395,8 +4615,9 @@
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
-    </row>
-    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S90" s="3"/>
+    </row>
+    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4440,13 +4661,16 @@
         <v>0</v>
       </c>
       <c r="Q91" s="3">
+        <v>0</v>
+      </c>
+      <c r="R91" s="3">
         <v>-100</v>
       </c>
-      <c r="R91" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4495,8 +4719,11 @@
       <c r="R92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4545,8 +4772,11 @@
       <c r="R93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -4590,13 +4820,16 @@
         <v>0</v>
       </c>
       <c r="Q94" s="3">
+        <v>0</v>
+      </c>
+      <c r="R94" s="3">
         <v>-100</v>
       </c>
-      <c r="R94" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4615,8 +4848,9 @@
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
-    </row>
-    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S95" s="3"/>
+    </row>
+    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4665,8 +4899,11 @@
       <c r="R96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4715,8 +4952,11 @@
       <c r="R97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4765,8 +5005,11 @@
       <c r="R98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4815,8 +5058,11 @@
       <c r="R99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -4857,16 +5103,19 @@
         <v>0</v>
       </c>
       <c r="P100" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q100" s="3">
         <v>100</v>
       </c>
-      <c r="R100" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="R100" s="3">
+        <v>100</v>
+      </c>
+      <c r="S100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4915,8 +5164,11 @@
       <c r="R101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -4960,9 +5212,12 @@
         <v>0</v>
       </c>
       <c r="Q102" s="3">
+        <v>0</v>
+      </c>
+      <c r="R102" s="3">
         <v>-200</v>
       </c>
-      <c r="R102" s="3" t="s">
+      <c r="S102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/BFNH_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/BFNH_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="92">
   <si>
     <t>BFNH</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:S102"/>
+  <dimension ref="A5:T102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,85 +665,89 @@
     <col min="1" max="1" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E7" s="2">
         <v>44012</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43921</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43830</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43738</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43646</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43555</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43465</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43373</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43281</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43190</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43100</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43008</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42916</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>39629</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>39538</v>
       </c>
-      <c r="S7" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
@@ -787,16 +791,19 @@
         <v>0</v>
       </c>
       <c r="Q8" s="3">
+        <v>0</v>
+      </c>
+      <c r="R8" s="3">
         <v>200</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>400</v>
       </c>
-      <c r="S8" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -809,8 +816,8 @@
       <c r="F9" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G9" s="3">
-        <v>0</v>
+      <c r="G9" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="H9" s="3">
         <v>0</v>
@@ -827,29 +834,32 @@
       <c r="L9" s="3">
         <v>0</v>
       </c>
-      <c r="M9" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N9" s="3">
-        <v>0</v>
-      </c>
-      <c r="O9" s="3" t="s">
-        <v>3</v>
+      <c r="M9" s="3">
+        <v>0</v>
+      </c>
+      <c r="N9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O9" s="3">
+        <v>0</v>
       </c>
       <c r="P9" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="Q9" s="3">
-        <v>200</v>
+      <c r="Q9" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="R9" s="3">
         <v>200</v>
       </c>
-      <c r="S9" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="S9" s="3">
+        <v>200</v>
+      </c>
+      <c r="T9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -862,8 +872,8 @@
       <c r="F10" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G10" s="3">
-        <v>0</v>
+      <c r="G10" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="H10" s="3">
         <v>0</v>
@@ -880,29 +890,32 @@
       <c r="L10" s="3">
         <v>0</v>
       </c>
-      <c r="M10" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N10" s="3">
-        <v>0</v>
-      </c>
-      <c r="O10" s="3" t="s">
-        <v>3</v>
+      <c r="M10" s="3">
+        <v>0</v>
+      </c>
+      <c r="N10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O10" s="3">
+        <v>0</v>
       </c>
       <c r="P10" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="Q10" s="3">
-        <v>0</v>
+      <c r="Q10" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="R10" s="3">
+        <v>0</v>
+      </c>
+      <c r="S10" s="3">
         <v>200</v>
       </c>
-      <c r="S10" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -922,8 +935,9 @@
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T11" s="3"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -966,17 +980,20 @@
       <c r="P12" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="Q12" s="3">
-        <v>300</v>
+      <c r="Q12" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="R12" s="3">
         <v>300</v>
       </c>
-      <c r="S12" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="S12" s="3">
+        <v>300</v>
+      </c>
+      <c r="T12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1028,8 +1045,11 @@
       <c r="S13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1081,8 +1101,11 @@
       <c r="S14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1134,8 +1157,11 @@
       <c r="S15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1152,8 +1178,9 @@
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
-    </row>
-    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T16" s="3"/>
+    </row>
+    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
@@ -1161,11 +1188,11 @@
         <v>100</v>
       </c>
       <c r="E17" s="3">
+        <v>100</v>
+      </c>
+      <c r="F17" s="3">
         <v>158000</v>
       </c>
-      <c r="F17" s="3">
-        <v>0</v>
-      </c>
       <c r="G17" s="3">
         <v>0</v>
       </c>
@@ -1197,16 +1224,19 @@
         <v>0</v>
       </c>
       <c r="Q17" s="3">
-        <v>1100</v>
+        <v>0</v>
       </c>
       <c r="R17" s="3">
         <v>1100</v>
       </c>
-      <c r="S17" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="S17" s="3">
+        <v>1100</v>
+      </c>
+      <c r="T17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1214,11 +1244,11 @@
         <v>3</v>
       </c>
       <c r="E18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F18" s="3">
         <v>-158000</v>
       </c>
-      <c r="F18" s="3">
-        <v>0</v>
-      </c>
       <c r="G18" s="3">
         <v>0</v>
       </c>
@@ -1250,16 +1280,19 @@
         <v>0</v>
       </c>
       <c r="Q18" s="3">
+        <v>0</v>
+      </c>
+      <c r="R18" s="3">
         <v>-900</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-700</v>
       </c>
-      <c r="S18" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1279,8 +1312,9 @@
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
-    </row>
-    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T19" s="3"/>
+    </row>
+    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1329,11 +1363,14 @@
       <c r="R20" s="3">
         <v>0</v>
       </c>
-      <c r="S20" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="S20" s="3">
+        <v>0</v>
+      </c>
+      <c r="T20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1376,17 +1413,20 @@
       <c r="P21" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="Q21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R21" s="3">
         <v>-800</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>-700</v>
       </c>
-      <c r="S21" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1414,8 +1454,8 @@
       <c r="K22" s="3">
         <v>0</v>
       </c>
-      <c r="L22" s="3" t="s">
-        <v>3</v>
+      <c r="L22" s="3">
+        <v>0</v>
       </c>
       <c r="M22" s="3" t="s">
         <v>3</v>
@@ -1429,17 +1469,20 @@
       <c r="P22" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="Q22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R22" s="3">
         <v>100</v>
       </c>
-      <c r="R22" s="3">
-        <v>0</v>
-      </c>
-      <c r="S22" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="S22" s="3">
+        <v>0</v>
+      </c>
+      <c r="T22" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
@@ -1447,11 +1490,11 @@
         <v>-100</v>
       </c>
       <c r="E23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F23" s="3">
         <v>-158000</v>
       </c>
-      <c r="F23" s="3">
-        <v>0</v>
-      </c>
       <c r="G23" s="3">
         <v>0</v>
       </c>
@@ -1483,16 +1526,19 @@
         <v>0</v>
       </c>
       <c r="Q23" s="3">
+        <v>0</v>
+      </c>
+      <c r="R23" s="3">
         <v>-900</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-700</v>
       </c>
-      <c r="S23" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1544,8 +1590,11 @@
       <c r="S24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1597,8 +1646,11 @@
       <c r="S25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
@@ -1606,11 +1658,11 @@
         <v>-100</v>
       </c>
       <c r="E26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F26" s="3">
         <v>-158000</v>
       </c>
-      <c r="F26" s="3">
-        <v>0</v>
-      </c>
       <c r="G26" s="3">
         <v>0</v>
       </c>
@@ -1642,16 +1694,19 @@
         <v>0</v>
       </c>
       <c r="Q26" s="3">
+        <v>0</v>
+      </c>
+      <c r="R26" s="3">
         <v>-900</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-700</v>
       </c>
-      <c r="S26" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
@@ -1659,11 +1714,11 @@
         <v>-100</v>
       </c>
       <c r="E27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F27" s="3">
         <v>-158000</v>
       </c>
-      <c r="F27" s="3">
-        <v>0</v>
-      </c>
       <c r="G27" s="3">
         <v>0</v>
       </c>
@@ -1695,16 +1750,19 @@
         <v>0</v>
       </c>
       <c r="Q27" s="3">
+        <v>0</v>
+      </c>
+      <c r="R27" s="3">
         <v>-900</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-800</v>
       </c>
-      <c r="S27" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1756,8 +1814,11 @@
       <c r="S28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1809,8 +1870,11 @@
       <c r="S29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1862,8 +1926,11 @@
       <c r="S30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1915,8 +1982,11 @@
       <c r="S31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1965,11 +2035,14 @@
       <c r="R32" s="3">
         <v>0</v>
       </c>
-      <c r="S32" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="S32" s="3">
+        <v>0</v>
+      </c>
+      <c r="T32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
@@ -1977,11 +2050,11 @@
         <v>-100</v>
       </c>
       <c r="E33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F33" s="3">
         <v>-158000</v>
       </c>
-      <c r="F33" s="3">
-        <v>0</v>
-      </c>
       <c r="G33" s="3">
         <v>0</v>
       </c>
@@ -2013,16 +2086,19 @@
         <v>0</v>
       </c>
       <c r="Q33" s="3">
+        <v>0</v>
+      </c>
+      <c r="R33" s="3">
         <v>-900</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-800</v>
       </c>
-      <c r="S33" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2074,8 +2150,11 @@
       <c r="S34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
@@ -2083,11 +2162,11 @@
         <v>-100</v>
       </c>
       <c r="E35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F35" s="3">
         <v>-158000</v>
       </c>
-      <c r="F35" s="3">
-        <v>0</v>
-      </c>
       <c r="G35" s="3">
         <v>0</v>
       </c>
@@ -2119,74 +2198,80 @@
         <v>0</v>
       </c>
       <c r="Q35" s="3">
+        <v>0</v>
+      </c>
+      <c r="R35" s="3">
         <v>-900</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-800</v>
       </c>
-      <c r="S35" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E38" s="2">
         <v>44012</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43921</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43830</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43738</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43646</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43555</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43465</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43373</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43281</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43190</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43100</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43008</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42916</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>39629</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>39538</v>
       </c>
-      <c r="S38" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2206,8 +2291,9 @@
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
-    </row>
-    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T39" s="3"/>
+    </row>
+    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2227,8 +2313,9 @@
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
-    </row>
-    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T40" s="3"/>
+    </row>
+    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -2239,11 +2326,11 @@
         <v>0</v>
       </c>
       <c r="F41" s="3">
+        <v>0</v>
+      </c>
+      <c r="G41" s="3">
         <v>100</v>
       </c>
-      <c r="G41" s="3">
-        <v>0</v>
-      </c>
       <c r="H41" s="3">
         <v>0</v>
       </c>
@@ -2262,8 +2349,8 @@
       <c r="M41" s="3">
         <v>0</v>
       </c>
-      <c r="N41" s="3" t="s">
-        <v>3</v>
+      <c r="N41" s="3">
+        <v>0</v>
       </c>
       <c r="O41" s="3" t="s">
         <v>3</v>
@@ -2280,8 +2367,11 @@
       <c r="S41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2333,8 +2423,11 @@
       <c r="S42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2344,8 +2437,8 @@
       <c r="E43" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F43" s="3">
-        <v>0</v>
+      <c r="F43" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="G43" s="3">
         <v>0</v>
@@ -2368,8 +2461,8 @@
       <c r="M43" s="3">
         <v>0</v>
       </c>
-      <c r="N43" s="3" t="s">
-        <v>3</v>
+      <c r="N43" s="3">
+        <v>0</v>
       </c>
       <c r="O43" s="3" t="s">
         <v>3</v>
@@ -2386,8 +2479,11 @@
       <c r="S43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2430,8 +2526,8 @@
       <c r="P44" s="3">
         <v>0</v>
       </c>
-      <c r="Q44" s="3" t="s">
-        <v>3</v>
+      <c r="Q44" s="3">
+        <v>0</v>
       </c>
       <c r="R44" s="3" t="s">
         <v>3</v>
@@ -2439,13 +2535,16 @@
       <c r="S44" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T44" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D45" s="3">
-        <v>0</v>
+      <c r="D45" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E45" s="3">
         <v>0</v>
@@ -2453,8 +2552,8 @@
       <c r="F45" s="3">
         <v>0</v>
       </c>
-      <c r="G45" s="3" t="s">
-        <v>3</v>
+      <c r="G45" s="3">
+        <v>0</v>
       </c>
       <c r="H45" s="3" t="s">
         <v>3</v>
@@ -2462,8 +2561,8 @@
       <c r="I45" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="J45" s="3">
-        <v>0</v>
+      <c r="J45" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K45" s="3">
         <v>0</v>
@@ -2474,8 +2573,8 @@
       <c r="M45" s="3">
         <v>0</v>
       </c>
-      <c r="N45" s="3" t="s">
-        <v>3</v>
+      <c r="N45" s="3">
+        <v>0</v>
       </c>
       <c r="O45" s="3" t="s">
         <v>3</v>
@@ -2492,8 +2591,11 @@
       <c r="S45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2501,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="E46" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F46" s="3">
         <v>100</v>
@@ -2510,7 +2612,7 @@
         <v>100</v>
       </c>
       <c r="H46" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I46" s="3">
         <v>0</v>
@@ -2527,8 +2629,8 @@
       <c r="M46" s="3">
         <v>0</v>
       </c>
-      <c r="N46" s="3" t="s">
-        <v>3</v>
+      <c r="N46" s="3">
+        <v>0</v>
       </c>
       <c r="O46" s="3" t="s">
         <v>3</v>
@@ -2545,8 +2647,11 @@
       <c r="S46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2589,8 +2694,8 @@
       <c r="P47" s="3">
         <v>0</v>
       </c>
-      <c r="Q47" s="3" t="s">
-        <v>3</v>
+      <c r="Q47" s="3">
+        <v>0</v>
       </c>
       <c r="R47" s="3" t="s">
         <v>3</v>
@@ -2598,8 +2703,11 @@
       <c r="S47" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2642,8 +2750,8 @@
       <c r="P48" s="3">
         <v>0</v>
       </c>
-      <c r="Q48" s="3" t="s">
-        <v>3</v>
+      <c r="Q48" s="3">
+        <v>0</v>
       </c>
       <c r="R48" s="3" t="s">
         <v>3</v>
@@ -2651,8 +2759,11 @@
       <c r="S48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2695,8 +2806,8 @@
       <c r="P49" s="3">
         <v>0</v>
       </c>
-      <c r="Q49" s="3" t="s">
-        <v>3</v>
+      <c r="Q49" s="3">
+        <v>0</v>
       </c>
       <c r="R49" s="3" t="s">
         <v>3</v>
@@ -2704,8 +2815,11 @@
       <c r="S49" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T49" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2757,8 +2871,11 @@
       <c r="S50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2810,8 +2927,11 @@
       <c r="S51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2863,8 +2983,11 @@
       <c r="S52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2916,8 +3039,11 @@
       <c r="S53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
@@ -2925,7 +3051,7 @@
         <v>0</v>
       </c>
       <c r="E54" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F54" s="3">
         <v>100</v>
@@ -2934,7 +3060,7 @@
         <v>100</v>
       </c>
       <c r="H54" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I54" s="3">
         <v>0</v>
@@ -2951,8 +3077,8 @@
       <c r="M54" s="3">
         <v>0</v>
       </c>
-      <c r="N54" s="3" t="s">
-        <v>3</v>
+      <c r="N54" s="3">
+        <v>0</v>
       </c>
       <c r="O54" s="3" t="s">
         <v>3</v>
@@ -2969,8 +3095,11 @@
       <c r="S54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2990,8 +3119,9 @@
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
-    </row>
-    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T55" s="3"/>
+    </row>
+    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3011,8 +3141,9 @@
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
-    </row>
-    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T56" s="3"/>
+    </row>
+    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -3046,8 +3177,8 @@
       <c r="M57" s="3">
         <v>0</v>
       </c>
-      <c r="N57" s="3" t="s">
-        <v>3</v>
+      <c r="N57" s="3">
+        <v>0</v>
       </c>
       <c r="O57" s="3" t="s">
         <v>3</v>
@@ -3064,8 +3195,11 @@
       <c r="S57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3108,8 +3242,8 @@
       <c r="P58" s="3">
         <v>0</v>
       </c>
-      <c r="Q58" s="3" t="s">
-        <v>3</v>
+      <c r="Q58" s="3">
+        <v>0</v>
       </c>
       <c r="R58" s="3" t="s">
         <v>3</v>
@@ -3117,22 +3251,25 @@
       <c r="S58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>300</v>
+      </c>
+      <c r="E59" s="3">
         <v>200</v>
       </c>
-      <c r="E59" s="3">
-        <v>0</v>
-      </c>
       <c r="F59" s="3">
         <v>0</v>
       </c>
-      <c r="G59" s="3" t="s">
-        <v>3</v>
+      <c r="G59" s="3">
+        <v>0</v>
       </c>
       <c r="H59" s="3" t="s">
         <v>3</v>
@@ -3146,8 +3283,8 @@
       <c r="K59" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L59" s="3">
-        <v>0</v>
+      <c r="L59" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="M59" s="3">
         <v>0</v>
@@ -3161,8 +3298,8 @@
       <c r="P59" s="3">
         <v>0</v>
       </c>
-      <c r="Q59" s="3" t="s">
-        <v>3</v>
+      <c r="Q59" s="3">
+        <v>0</v>
       </c>
       <c r="R59" s="3" t="s">
         <v>3</v>
@@ -3170,17 +3307,20 @@
       <c r="S59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>300</v>
+      </c>
+      <c r="E60" s="3">
         <v>200</v>
       </c>
-      <c r="E60" s="3">
-        <v>0</v>
-      </c>
       <c r="F60" s="3">
         <v>0</v>
       </c>
@@ -3205,8 +3345,8 @@
       <c r="M60" s="3">
         <v>0</v>
       </c>
-      <c r="N60" s="3" t="s">
-        <v>3</v>
+      <c r="N60" s="3">
+        <v>0</v>
       </c>
       <c r="O60" s="3" t="s">
         <v>3</v>
@@ -3223,8 +3363,11 @@
       <c r="S60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3276,8 +3419,11 @@
       <c r="S61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3329,8 +3475,11 @@
       <c r="S62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3382,8 +3531,11 @@
       <c r="S63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3435,8 +3587,11 @@
       <c r="S64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3488,17 +3643,20 @@
       <c r="S65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>300</v>
+      </c>
+      <c r="E66" s="3">
         <v>200</v>
       </c>
-      <c r="E66" s="3">
-        <v>0</v>
-      </c>
       <c r="F66" s="3">
         <v>0</v>
       </c>
@@ -3523,8 +3681,8 @@
       <c r="M66" s="3">
         <v>0</v>
       </c>
-      <c r="N66" s="3" t="s">
-        <v>3</v>
+      <c r="N66" s="3">
+        <v>0</v>
       </c>
       <c r="O66" s="3" t="s">
         <v>3</v>
@@ -3541,8 +3699,11 @@
       <c r="S66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3562,8 +3723,9 @@
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
-    </row>
-    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T67" s="3"/>
+    </row>
+    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3615,8 +3777,11 @@
       <c r="S68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3668,8 +3833,11 @@
       <c r="S69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3721,8 +3889,11 @@
       <c r="S70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3774,22 +3945,25 @@
       <c r="S71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-159000</v>
+      </c>
+      <c r="E72" s="3">
         <v>-158900</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-158800</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-800</v>
-      </c>
-      <c r="G72" s="3">
-        <v>-700</v>
       </c>
       <c r="H72" s="3">
         <v>-700</v>
@@ -3809,8 +3983,8 @@
       <c r="M72" s="3">
         <v>-700</v>
       </c>
-      <c r="N72" s="3" t="s">
-        <v>3</v>
+      <c r="N72" s="3">
+        <v>-700</v>
       </c>
       <c r="O72" s="3" t="s">
         <v>3</v>
@@ -3827,8 +4001,11 @@
       <c r="S72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3880,8 +4057,11 @@
       <c r="S73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3933,8 +4113,11 @@
       <c r="S74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3986,17 +4169,20 @@
       <c r="S75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E76" s="3">
         <v>-100</v>
       </c>
-      <c r="E76" s="3">
-        <v>0</v>
-      </c>
       <c r="F76" s="3">
         <v>0</v>
       </c>
@@ -4021,8 +4207,8 @@
       <c r="M76" s="3">
         <v>0</v>
       </c>
-      <c r="N76" s="3" t="s">
-        <v>3</v>
+      <c r="N76" s="3">
+        <v>0</v>
       </c>
       <c r="O76" s="3" t="s">
         <v>3</v>
@@ -4039,8 +4225,11 @@
       <c r="S76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4092,66 +4281,72 @@
       <c r="S77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E80" s="2">
         <v>44012</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43921</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43830</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43738</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43646</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43555</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43465</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43373</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43281</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43190</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43100</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43008</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42916</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>39629</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>39538</v>
       </c>
-      <c r="S80" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
@@ -4159,11 +4354,11 @@
         <v>-100</v>
       </c>
       <c r="E81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F81" s="3">
         <v>-158000</v>
       </c>
-      <c r="F81" s="3">
-        <v>0</v>
-      </c>
       <c r="G81" s="3">
         <v>0</v>
       </c>
@@ -4195,16 +4390,19 @@
         <v>0</v>
       </c>
       <c r="Q81" s="3">
+        <v>0</v>
+      </c>
+      <c r="R81" s="3">
         <v>-900</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-800</v>
       </c>
-      <c r="S81" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4224,8 +4422,9 @@
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
-    </row>
-    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T82" s="3"/>
+    </row>
+    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4269,16 +4468,19 @@
         <v>0</v>
       </c>
       <c r="Q83" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="R83" s="3">
         <v>100</v>
       </c>
-      <c r="S83" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="S83" s="3">
+        <v>100</v>
+      </c>
+      <c r="T83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4330,8 +4532,11 @@
       <c r="S84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4383,8 +4588,11 @@
       <c r="S85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4436,8 +4644,11 @@
       <c r="S86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4489,8 +4700,11 @@
       <c r="S87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4542,8 +4756,11 @@
       <c r="S88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -4587,16 +4804,19 @@
         <v>0</v>
       </c>
       <c r="Q89" s="3">
+        <v>0</v>
+      </c>
+      <c r="R89" s="3">
         <v>-100</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-200</v>
       </c>
-      <c r="S89" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4616,8 +4836,9 @@
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
-    </row>
-    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T90" s="3"/>
+    </row>
+    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4664,13 +4885,16 @@
         <v>0</v>
       </c>
       <c r="R91" s="3">
+        <v>0</v>
+      </c>
+      <c r="S91" s="3">
         <v>-100</v>
       </c>
-      <c r="S91" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4722,8 +4946,11 @@
       <c r="S92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4775,8 +5002,11 @@
       <c r="S93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -4823,13 +5053,16 @@
         <v>0</v>
       </c>
       <c r="R94" s="3">
+        <v>0</v>
+      </c>
+      <c r="S94" s="3">
         <v>-100</v>
       </c>
-      <c r="S94" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4849,8 +5082,9 @@
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
-    </row>
-    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T95" s="3"/>
+    </row>
+    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4902,8 +5136,11 @@
       <c r="S96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4955,8 +5192,11 @@
       <c r="S97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5008,8 +5248,11 @@
       <c r="S98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5061,8 +5304,11 @@
       <c r="S99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -5106,16 +5352,19 @@
         <v>0</v>
       </c>
       <c r="Q100" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="R100" s="3">
         <v>100</v>
       </c>
-      <c r="S100" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="S100" s="3">
+        <v>100</v>
+      </c>
+      <c r="T100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5167,8 +5416,11 @@
       <c r="S101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -5215,9 +5467,12 @@
         <v>0</v>
       </c>
       <c r="R102" s="3">
+        <v>0</v>
+      </c>
+      <c r="S102" s="3">
         <v>-200</v>
       </c>
-      <c r="S102" s="3" t="s">
+      <c r="T102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/BFNH_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/BFNH_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="92">
   <si>
     <t>BFNH</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:T102"/>
+  <dimension ref="A5:U102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,89 +665,92 @@
     <col min="1" max="1" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E7" s="2">
         <v>44104</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44012</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43921</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43830</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43738</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43646</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43555</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43465</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43373</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43281</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43190</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43100</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43008</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42916</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>39629</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>39538</v>
       </c>
-      <c r="T7" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
@@ -794,16 +797,19 @@
         <v>0</v>
       </c>
       <c r="R8" s="3">
+        <v>0</v>
+      </c>
+      <c r="S8" s="3">
         <v>200</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>400</v>
       </c>
-      <c r="T8" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -819,8 +825,8 @@
       <c r="G9" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="H9" s="3">
-        <v>0</v>
+      <c r="H9" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="I9" s="3">
         <v>0</v>
@@ -837,29 +843,32 @@
       <c r="M9" s="3">
         <v>0</v>
       </c>
-      <c r="N9" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O9" s="3">
-        <v>0</v>
-      </c>
-      <c r="P9" s="3" t="s">
-        <v>3</v>
+      <c r="N9" s="3">
+        <v>0</v>
+      </c>
+      <c r="O9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P9" s="3">
+        <v>0</v>
       </c>
       <c r="Q9" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="R9" s="3">
-        <v>200</v>
+      <c r="R9" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="S9" s="3">
         <v>200</v>
       </c>
-      <c r="T9" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="T9" s="3">
+        <v>200</v>
+      </c>
+      <c r="U9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -875,8 +884,8 @@
       <c r="G10" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="H10" s="3">
-        <v>0</v>
+      <c r="H10" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="I10" s="3">
         <v>0</v>
@@ -893,29 +902,32 @@
       <c r="M10" s="3">
         <v>0</v>
       </c>
-      <c r="N10" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O10" s="3">
-        <v>0</v>
-      </c>
-      <c r="P10" s="3" t="s">
-        <v>3</v>
+      <c r="N10" s="3">
+        <v>0</v>
+      </c>
+      <c r="O10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P10" s="3">
+        <v>0</v>
       </c>
       <c r="Q10" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="R10" s="3">
-        <v>0</v>
+      <c r="R10" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="S10" s="3">
+        <v>0</v>
+      </c>
+      <c r="T10" s="3">
         <v>200</v>
       </c>
-      <c r="T10" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -936,8 +948,9 @@
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U11" s="3"/>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -983,17 +996,20 @@
       <c r="Q12" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="R12" s="3">
-        <v>300</v>
+      <c r="R12" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="S12" s="3">
         <v>300</v>
       </c>
-      <c r="T12" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="T12" s="3">
+        <v>300</v>
+      </c>
+      <c r="U12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1048,8 +1064,11 @@
       <c r="T13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1104,8 +1123,11 @@
       <c r="T14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1160,8 +1182,11 @@
       <c r="T15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1179,8 +1204,9 @@
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
-    </row>
-    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U16" s="3"/>
+    </row>
+    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
@@ -1191,11 +1217,11 @@
         <v>100</v>
       </c>
       <c r="F17" s="3">
+        <v>100</v>
+      </c>
+      <c r="G17" s="3">
         <v>158000</v>
       </c>
-      <c r="G17" s="3">
-        <v>0</v>
-      </c>
       <c r="H17" s="3">
         <v>0</v>
       </c>
@@ -1227,16 +1253,19 @@
         <v>0</v>
       </c>
       <c r="R17" s="3">
-        <v>1100</v>
+        <v>0</v>
       </c>
       <c r="S17" s="3">
         <v>1100</v>
       </c>
-      <c r="T17" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="T17" s="3">
+        <v>1100</v>
+      </c>
+      <c r="U17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1247,11 +1276,11 @@
         <v>-100</v>
       </c>
       <c r="F18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="G18" s="3">
         <v>-158000</v>
       </c>
-      <c r="G18" s="3">
-        <v>0</v>
-      </c>
       <c r="H18" s="3">
         <v>0</v>
       </c>
@@ -1283,16 +1312,19 @@
         <v>0</v>
       </c>
       <c r="R18" s="3">
+        <v>0</v>
+      </c>
+      <c r="S18" s="3">
         <v>-900</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-700</v>
       </c>
-      <c r="T18" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1313,8 +1345,9 @@
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
-    </row>
-    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U19" s="3"/>
+    </row>
+    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1366,11 +1399,14 @@
       <c r="S20" s="3">
         <v>0</v>
       </c>
-      <c r="T20" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="T20" s="3">
+        <v>0</v>
+      </c>
+      <c r="U20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1416,17 +1452,20 @@
       <c r="Q21" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="R21" s="3">
+      <c r="R21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S21" s="3">
         <v>-800</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>-700</v>
       </c>
-      <c r="T21" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1457,8 +1496,8 @@
       <c r="L22" s="3">
         <v>0</v>
       </c>
-      <c r="M22" s="3" t="s">
-        <v>3</v>
+      <c r="M22" s="3">
+        <v>0</v>
       </c>
       <c r="N22" s="3" t="s">
         <v>3</v>
@@ -1472,17 +1511,20 @@
       <c r="Q22" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="R22" s="3">
+      <c r="R22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S22" s="3">
         <v>100</v>
       </c>
-      <c r="S22" s="3">
-        <v>0</v>
-      </c>
-      <c r="T22" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="T22" s="3">
+        <v>0</v>
+      </c>
+      <c r="U22" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
@@ -1493,11 +1535,11 @@
         <v>-100</v>
       </c>
       <c r="F23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="G23" s="3">
         <v>-158000</v>
       </c>
-      <c r="G23" s="3">
-        <v>0</v>
-      </c>
       <c r="H23" s="3">
         <v>0</v>
       </c>
@@ -1529,16 +1571,19 @@
         <v>0</v>
       </c>
       <c r="R23" s="3">
+        <v>0</v>
+      </c>
+      <c r="S23" s="3">
         <v>-900</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-700</v>
       </c>
-      <c r="T23" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1593,8 +1638,11 @@
       <c r="T24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1649,8 +1697,11 @@
       <c r="T25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
@@ -1661,11 +1712,11 @@
         <v>-100</v>
       </c>
       <c r="F26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="G26" s="3">
         <v>-158000</v>
       </c>
-      <c r="G26" s="3">
-        <v>0</v>
-      </c>
       <c r="H26" s="3">
         <v>0</v>
       </c>
@@ -1697,16 +1748,19 @@
         <v>0</v>
       </c>
       <c r="R26" s="3">
+        <v>0</v>
+      </c>
+      <c r="S26" s="3">
         <v>-900</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-700</v>
       </c>
-      <c r="T26" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
@@ -1717,11 +1771,11 @@
         <v>-100</v>
       </c>
       <c r="F27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="G27" s="3">
         <v>-158000</v>
       </c>
-      <c r="G27" s="3">
-        <v>0</v>
-      </c>
       <c r="H27" s="3">
         <v>0</v>
       </c>
@@ -1753,16 +1807,19 @@
         <v>0</v>
       </c>
       <c r="R27" s="3">
+        <v>0</v>
+      </c>
+      <c r="S27" s="3">
         <v>-900</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-800</v>
       </c>
-      <c r="T27" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1817,8 +1874,11 @@
       <c r="T28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1873,8 +1933,11 @@
       <c r="T29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1929,8 +1992,11 @@
       <c r="T30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1985,8 +2051,11 @@
       <c r="T31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2038,11 +2107,14 @@
       <c r="S32" s="3">
         <v>0</v>
       </c>
-      <c r="T32" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="T32" s="3">
+        <v>0</v>
+      </c>
+      <c r="U32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
@@ -2053,11 +2125,11 @@
         <v>-100</v>
       </c>
       <c r="F33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="G33" s="3">
         <v>-158000</v>
       </c>
-      <c r="G33" s="3">
-        <v>0</v>
-      </c>
       <c r="H33" s="3">
         <v>0</v>
       </c>
@@ -2089,16 +2161,19 @@
         <v>0</v>
       </c>
       <c r="R33" s="3">
+        <v>0</v>
+      </c>
+      <c r="S33" s="3">
         <v>-900</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-800</v>
       </c>
-      <c r="T33" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2153,8 +2228,11 @@
       <c r="T34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
@@ -2165,11 +2243,11 @@
         <v>-100</v>
       </c>
       <c r="F35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="G35" s="3">
         <v>-158000</v>
       </c>
-      <c r="G35" s="3">
-        <v>0</v>
-      </c>
       <c r="H35" s="3">
         <v>0</v>
       </c>
@@ -2201,77 +2279,83 @@
         <v>0</v>
       </c>
       <c r="R35" s="3">
+        <v>0</v>
+      </c>
+      <c r="S35" s="3">
         <v>-900</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-800</v>
       </c>
-      <c r="T35" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E38" s="2">
         <v>44104</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44012</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43921</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43830</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43738</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43646</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43555</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43465</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43373</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43281</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43190</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43100</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43008</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42916</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>39629</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>39538</v>
       </c>
-      <c r="T38" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2292,8 +2376,9 @@
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
-    </row>
-    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U39" s="3"/>
+    </row>
+    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2314,8 +2399,9 @@
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
-    </row>
-    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U40" s="3"/>
+    </row>
+    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -2329,11 +2415,11 @@
         <v>0</v>
       </c>
       <c r="G41" s="3">
+        <v>0</v>
+      </c>
+      <c r="H41" s="3">
         <v>100</v>
       </c>
-      <c r="H41" s="3">
-        <v>0</v>
-      </c>
       <c r="I41" s="3">
         <v>0</v>
       </c>
@@ -2352,8 +2438,8 @@
       <c r="N41" s="3">
         <v>0</v>
       </c>
-      <c r="O41" s="3" t="s">
-        <v>3</v>
+      <c r="O41" s="3">
+        <v>0</v>
       </c>
       <c r="P41" s="3" t="s">
         <v>3</v>
@@ -2370,8 +2456,11 @@
       <c r="T41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2426,8 +2515,11 @@
       <c r="T42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2440,8 +2532,8 @@
       <c r="F43" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G43" s="3">
-        <v>0</v>
+      <c r="G43" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="H43" s="3">
         <v>0</v>
@@ -2464,8 +2556,8 @@
       <c r="N43" s="3">
         <v>0</v>
       </c>
-      <c r="O43" s="3" t="s">
-        <v>3</v>
+      <c r="O43" s="3">
+        <v>0</v>
       </c>
       <c r="P43" s="3" t="s">
         <v>3</v>
@@ -2482,8 +2574,11 @@
       <c r="T43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2529,8 +2624,8 @@
       <c r="Q44" s="3">
         <v>0</v>
       </c>
-      <c r="R44" s="3" t="s">
-        <v>3</v>
+      <c r="R44" s="3">
+        <v>0</v>
       </c>
       <c r="S44" s="3" t="s">
         <v>3</v>
@@ -2538,16 +2633,19 @@
       <c r="T44" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U44" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D45" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E45" s="3">
-        <v>0</v>
+      <c r="D45" s="3">
+        <v>0</v>
+      </c>
+      <c r="E45" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="F45" s="3">
         <v>0</v>
@@ -2555,8 +2653,8 @@
       <c r="G45" s="3">
         <v>0</v>
       </c>
-      <c r="H45" s="3" t="s">
-        <v>3</v>
+      <c r="H45" s="3">
+        <v>0</v>
       </c>
       <c r="I45" s="3" t="s">
         <v>3</v>
@@ -2564,8 +2662,8 @@
       <c r="J45" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K45" s="3">
-        <v>0</v>
+      <c r="K45" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="L45" s="3">
         <v>0</v>
@@ -2576,8 +2674,8 @@
       <c r="N45" s="3">
         <v>0</v>
       </c>
-      <c r="O45" s="3" t="s">
-        <v>3</v>
+      <c r="O45" s="3">
+        <v>0</v>
       </c>
       <c r="P45" s="3" t="s">
         <v>3</v>
@@ -2594,8 +2692,11 @@
       <c r="T45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2606,7 +2707,7 @@
         <v>0</v>
       </c>
       <c r="F46" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G46" s="3">
         <v>100</v>
@@ -2615,7 +2716,7 @@
         <v>100</v>
       </c>
       <c r="I46" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J46" s="3">
         <v>0</v>
@@ -2632,8 +2733,8 @@
       <c r="N46" s="3">
         <v>0</v>
       </c>
-      <c r="O46" s="3" t="s">
-        <v>3</v>
+      <c r="O46" s="3">
+        <v>0</v>
       </c>
       <c r="P46" s="3" t="s">
         <v>3</v>
@@ -2650,8 +2751,11 @@
       <c r="T46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2697,8 +2801,8 @@
       <c r="Q47" s="3">
         <v>0</v>
       </c>
-      <c r="R47" s="3" t="s">
-        <v>3</v>
+      <c r="R47" s="3">
+        <v>0</v>
       </c>
       <c r="S47" s="3" t="s">
         <v>3</v>
@@ -2706,8 +2810,11 @@
       <c r="T47" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2753,8 +2860,8 @@
       <c r="Q48" s="3">
         <v>0</v>
       </c>
-      <c r="R48" s="3" t="s">
-        <v>3</v>
+      <c r="R48" s="3">
+        <v>0</v>
       </c>
       <c r="S48" s="3" t="s">
         <v>3</v>
@@ -2762,8 +2869,11 @@
       <c r="T48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2809,8 +2919,8 @@
       <c r="Q49" s="3">
         <v>0</v>
       </c>
-      <c r="R49" s="3" t="s">
-        <v>3</v>
+      <c r="R49" s="3">
+        <v>0</v>
       </c>
       <c r="S49" s="3" t="s">
         <v>3</v>
@@ -2818,8 +2928,11 @@
       <c r="T49" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U49" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2874,8 +2987,11 @@
       <c r="T50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2930,8 +3046,11 @@
       <c r="T51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2986,8 +3105,11 @@
       <c r="T52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3042,8 +3164,11 @@
       <c r="T53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
@@ -3054,7 +3179,7 @@
         <v>0</v>
       </c>
       <c r="F54" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G54" s="3">
         <v>100</v>
@@ -3063,7 +3188,7 @@
         <v>100</v>
       </c>
       <c r="I54" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J54" s="3">
         <v>0</v>
@@ -3080,8 +3205,8 @@
       <c r="N54" s="3">
         <v>0</v>
       </c>
-      <c r="O54" s="3" t="s">
-        <v>3</v>
+      <c r="O54" s="3">
+        <v>0</v>
       </c>
       <c r="P54" s="3" t="s">
         <v>3</v>
@@ -3098,8 +3223,11 @@
       <c r="T54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3120,8 +3248,9 @@
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
-    </row>
-    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U55" s="3"/>
+    </row>
+    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3142,8 +3271,9 @@
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
-    </row>
-    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U56" s="3"/>
+    </row>
+    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -3180,8 +3310,8 @@
       <c r="N57" s="3">
         <v>0</v>
       </c>
-      <c r="O57" s="3" t="s">
-        <v>3</v>
+      <c r="O57" s="3">
+        <v>0</v>
       </c>
       <c r="P57" s="3" t="s">
         <v>3</v>
@@ -3198,8 +3328,11 @@
       <c r="T57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3245,8 +3378,8 @@
       <c r="Q58" s="3">
         <v>0</v>
       </c>
-      <c r="R58" s="3" t="s">
-        <v>3</v>
+      <c r="R58" s="3">
+        <v>0</v>
       </c>
       <c r="S58" s="3" t="s">
         <v>3</v>
@@ -3254,25 +3387,28 @@
       <c r="T58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>400</v>
+      </c>
+      <c r="E59" s="3">
         <v>300</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>200</v>
       </c>
-      <c r="F59" s="3">
-        <v>0</v>
-      </c>
       <c r="G59" s="3">
         <v>0</v>
       </c>
-      <c r="H59" s="3" t="s">
-        <v>3</v>
+      <c r="H59" s="3">
+        <v>0</v>
       </c>
       <c r="I59" s="3" t="s">
         <v>3</v>
@@ -3286,8 +3422,8 @@
       <c r="L59" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M59" s="3">
-        <v>0</v>
+      <c r="M59" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="N59" s="3">
         <v>0</v>
@@ -3301,8 +3437,8 @@
       <c r="Q59" s="3">
         <v>0</v>
       </c>
-      <c r="R59" s="3" t="s">
-        <v>3</v>
+      <c r="R59" s="3">
+        <v>0</v>
       </c>
       <c r="S59" s="3" t="s">
         <v>3</v>
@@ -3310,20 +3446,23 @@
       <c r="T59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>400</v>
+      </c>
+      <c r="E60" s="3">
         <v>300</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>200</v>
       </c>
-      <c r="F60" s="3">
-        <v>0</v>
-      </c>
       <c r="G60" s="3">
         <v>0</v>
       </c>
@@ -3348,8 +3487,8 @@
       <c r="N60" s="3">
         <v>0</v>
       </c>
-      <c r="O60" s="3" t="s">
-        <v>3</v>
+      <c r="O60" s="3">
+        <v>0</v>
       </c>
       <c r="P60" s="3" t="s">
         <v>3</v>
@@ -3366,8 +3505,11 @@
       <c r="T60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3422,8 +3564,11 @@
       <c r="T61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3478,8 +3623,11 @@
       <c r="T62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3534,8 +3682,11 @@
       <c r="T63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3590,8 +3741,11 @@
       <c r="T64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3646,20 +3800,23 @@
       <c r="T65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>400</v>
+      </c>
+      <c r="E66" s="3">
         <v>300</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>200</v>
       </c>
-      <c r="F66" s="3">
-        <v>0</v>
-      </c>
       <c r="G66" s="3">
         <v>0</v>
       </c>
@@ -3684,8 +3841,8 @@
       <c r="N66" s="3">
         <v>0</v>
       </c>
-      <c r="O66" s="3" t="s">
-        <v>3</v>
+      <c r="O66" s="3">
+        <v>0</v>
       </c>
       <c r="P66" s="3" t="s">
         <v>3</v>
@@ -3702,8 +3859,11 @@
       <c r="T66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3724,8 +3884,9 @@
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
-    </row>
-    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U67" s="3"/>
+    </row>
+    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3780,8 +3941,11 @@
       <c r="T68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3836,8 +4000,11 @@
       <c r="T69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3892,8 +4059,11 @@
       <c r="T70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3948,25 +4118,28 @@
       <c r="T71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-159200</v>
+      </c>
+      <c r="E72" s="3">
         <v>-159000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-158900</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-158800</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-800</v>
-      </c>
-      <c r="H72" s="3">
-        <v>-700</v>
       </c>
       <c r="I72" s="3">
         <v>-700</v>
@@ -3986,8 +4159,8 @@
       <c r="N72" s="3">
         <v>-700</v>
       </c>
-      <c r="O72" s="3" t="s">
-        <v>3</v>
+      <c r="O72" s="3">
+        <v>-700</v>
       </c>
       <c r="P72" s="3" t="s">
         <v>3</v>
@@ -4004,8 +4177,11 @@
       <c r="T72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4060,8 +4236,11 @@
       <c r="T73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4116,8 +4295,11 @@
       <c r="T74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4172,20 +4354,23 @@
       <c r="T75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-400</v>
+      </c>
+      <c r="E76" s="3">
         <v>-200</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>-100</v>
       </c>
-      <c r="F76" s="3">
-        <v>0</v>
-      </c>
       <c r="G76" s="3">
         <v>0</v>
       </c>
@@ -4210,8 +4395,8 @@
       <c r="N76" s="3">
         <v>0</v>
       </c>
-      <c r="O76" s="3" t="s">
-        <v>3</v>
+      <c r="O76" s="3">
+        <v>0</v>
       </c>
       <c r="P76" s="3" t="s">
         <v>3</v>
@@ -4228,8 +4413,11 @@
       <c r="T76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4284,69 +4472,75 @@
       <c r="T77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E80" s="2">
         <v>44104</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44012</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43921</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43830</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43738</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43646</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43555</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43465</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43373</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43281</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43190</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43100</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43008</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42916</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>39629</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>39538</v>
       </c>
-      <c r="T80" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
@@ -4357,11 +4551,11 @@
         <v>-100</v>
       </c>
       <c r="F81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="G81" s="3">
         <v>-158000</v>
       </c>
-      <c r="G81" s="3">
-        <v>0</v>
-      </c>
       <c r="H81" s="3">
         <v>0</v>
       </c>
@@ -4393,16 +4587,19 @@
         <v>0</v>
       </c>
       <c r="R81" s="3">
+        <v>0</v>
+      </c>
+      <c r="S81" s="3">
         <v>-900</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-800</v>
       </c>
-      <c r="T81" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4423,8 +4620,9 @@
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
-    </row>
-    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U82" s="3"/>
+    </row>
+    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4471,16 +4669,19 @@
         <v>0</v>
       </c>
       <c r="R83" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="S83" s="3">
         <v>100</v>
       </c>
-      <c r="T83" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="T83" s="3">
+        <v>100</v>
+      </c>
+      <c r="U83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4535,8 +4736,11 @@
       <c r="T84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4591,8 +4795,11 @@
       <c r="T85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4647,8 +4854,11 @@
       <c r="T86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4703,8 +4913,11 @@
       <c r="T87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4759,8 +4972,11 @@
       <c r="T88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -4807,16 +5023,19 @@
         <v>0</v>
       </c>
       <c r="R89" s="3">
+        <v>0</v>
+      </c>
+      <c r="S89" s="3">
         <v>-100</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-200</v>
       </c>
-      <c r="T89" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4837,8 +5056,9 @@
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
-    </row>
-    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U90" s="3"/>
+    </row>
+    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4888,13 +5108,16 @@
         <v>0</v>
       </c>
       <c r="S91" s="3">
+        <v>0</v>
+      </c>
+      <c r="T91" s="3">
         <v>-100</v>
       </c>
-      <c r="T91" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4949,8 +5172,11 @@
       <c r="T92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5005,8 +5231,11 @@
       <c r="T93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -5056,13 +5285,16 @@
         <v>0</v>
       </c>
       <c r="S94" s="3">
+        <v>0</v>
+      </c>
+      <c r="T94" s="3">
         <v>-100</v>
       </c>
-      <c r="T94" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5083,8 +5315,9 @@
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
-    </row>
-    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U95" s="3"/>
+    </row>
+    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5139,8 +5372,11 @@
       <c r="T96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5195,8 +5431,11 @@
       <c r="T97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5251,8 +5490,11 @@
       <c r="T98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5307,8 +5549,11 @@
       <c r="T99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -5355,16 +5600,19 @@
         <v>0</v>
       </c>
       <c r="R100" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="S100" s="3">
         <v>100</v>
       </c>
-      <c r="T100" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="T100" s="3">
+        <v>100</v>
+      </c>
+      <c r="U100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5419,8 +5667,11 @@
       <c r="T101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -5470,9 +5721,12 @@
         <v>0</v>
       </c>
       <c r="S102" s="3">
+        <v>0</v>
+      </c>
+      <c r="T102" s="3">
         <v>-200</v>
       </c>
-      <c r="T102" s="3" t="s">
+      <c r="U102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/BFNH_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/BFNH_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="92">
   <si>
     <t>BFNH</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:U102"/>
+  <dimension ref="A5:V102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,92 +665,96 @@
     <col min="1" max="1" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E7" s="2">
         <v>44196</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44104</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44012</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43921</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43830</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43738</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43646</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43555</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43465</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43373</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43281</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43190</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43100</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43008</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42916</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>39629</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>39538</v>
       </c>
-      <c r="U7" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
@@ -800,16 +804,19 @@
         <v>0</v>
       </c>
       <c r="S8" s="3">
+        <v>0</v>
+      </c>
+      <c r="T8" s="3">
         <v>200</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>400</v>
       </c>
-      <c r="U8" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -828,8 +835,8 @@
       <c r="H9" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="I9" s="3">
-        <v>0</v>
+      <c r="I9" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="J9" s="3">
         <v>0</v>
@@ -846,29 +853,32 @@
       <c r="N9" s="3">
         <v>0</v>
       </c>
-      <c r="O9" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P9" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q9" s="3" t="s">
-        <v>3</v>
+      <c r="O9" s="3">
+        <v>0</v>
+      </c>
+      <c r="P9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q9" s="3">
+        <v>0</v>
       </c>
       <c r="R9" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="S9" s="3">
-        <v>200</v>
+      <c r="S9" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="T9" s="3">
         <v>200</v>
       </c>
-      <c r="U9" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="U9" s="3">
+        <v>200</v>
+      </c>
+      <c r="V9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -887,8 +897,8 @@
       <c r="H10" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="I10" s="3">
-        <v>0</v>
+      <c r="I10" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="J10" s="3">
         <v>0</v>
@@ -905,29 +915,32 @@
       <c r="N10" s="3">
         <v>0</v>
       </c>
-      <c r="O10" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P10" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q10" s="3" t="s">
-        <v>3</v>
+      <c r="O10" s="3">
+        <v>0</v>
+      </c>
+      <c r="P10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q10" s="3">
+        <v>0</v>
       </c>
       <c r="R10" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="S10" s="3">
-        <v>0</v>
+      <c r="S10" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="T10" s="3">
+        <v>0</v>
+      </c>
+      <c r="U10" s="3">
         <v>200</v>
       </c>
-      <c r="U10" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -949,8 +962,9 @@
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V11" s="3"/>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -999,17 +1013,20 @@
       <c r="R12" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="S12" s="3">
-        <v>300</v>
+      <c r="S12" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="T12" s="3">
         <v>300</v>
       </c>
-      <c r="U12" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="U12" s="3">
+        <v>300</v>
+      </c>
+      <c r="V12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1067,8 +1084,11 @@
       <c r="U13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1126,8 +1146,11 @@
       <c r="U14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1185,8 +1208,11 @@
       <c r="U15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1205,8 +1231,9 @@
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
-    </row>
-    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V16" s="3"/>
+    </row>
+    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
@@ -1220,11 +1247,11 @@
         <v>100</v>
       </c>
       <c r="G17" s="3">
+        <v>100</v>
+      </c>
+      <c r="H17" s="3">
         <v>158000</v>
       </c>
-      <c r="H17" s="3">
-        <v>0</v>
-      </c>
       <c r="I17" s="3">
         <v>0</v>
       </c>
@@ -1256,16 +1283,19 @@
         <v>0</v>
       </c>
       <c r="S17" s="3">
-        <v>1100</v>
+        <v>0</v>
       </c>
       <c r="T17" s="3">
         <v>1100</v>
       </c>
-      <c r="U17" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="U17" s="3">
+        <v>1100</v>
+      </c>
+      <c r="V17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1279,11 +1309,11 @@
         <v>-100</v>
       </c>
       <c r="G18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="H18" s="3">
         <v>-158000</v>
       </c>
-      <c r="H18" s="3">
-        <v>0</v>
-      </c>
       <c r="I18" s="3">
         <v>0</v>
       </c>
@@ -1315,16 +1345,19 @@
         <v>0</v>
       </c>
       <c r="S18" s="3">
+        <v>0</v>
+      </c>
+      <c r="T18" s="3">
         <v>-900</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-700</v>
       </c>
-      <c r="U18" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1346,8 +1379,9 @@
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
-    </row>
-    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V19" s="3"/>
+    </row>
+    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1402,11 +1436,14 @@
       <c r="T20" s="3">
         <v>0</v>
       </c>
-      <c r="U20" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="U20" s="3">
+        <v>0</v>
+      </c>
+      <c r="V20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1455,17 +1492,20 @@
       <c r="R21" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="S21" s="3">
+      <c r="S21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T21" s="3">
         <v>-800</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>-700</v>
       </c>
-      <c r="U21" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1499,8 +1539,8 @@
       <c r="M22" s="3">
         <v>0</v>
       </c>
-      <c r="N22" s="3" t="s">
-        <v>3</v>
+      <c r="N22" s="3">
+        <v>0</v>
       </c>
       <c r="O22" s="3" t="s">
         <v>3</v>
@@ -1514,17 +1554,20 @@
       <c r="R22" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="S22" s="3">
+      <c r="S22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T22" s="3">
         <v>100</v>
       </c>
-      <c r="T22" s="3">
-        <v>0</v>
-      </c>
-      <c r="U22" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="U22" s="3">
+        <v>0</v>
+      </c>
+      <c r="V22" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
@@ -1538,11 +1581,11 @@
         <v>-100</v>
       </c>
       <c r="G23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="H23" s="3">
         <v>-158000</v>
       </c>
-      <c r="H23" s="3">
-        <v>0</v>
-      </c>
       <c r="I23" s="3">
         <v>0</v>
       </c>
@@ -1574,16 +1617,19 @@
         <v>0</v>
       </c>
       <c r="S23" s="3">
+        <v>0</v>
+      </c>
+      <c r="T23" s="3">
         <v>-900</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-700</v>
       </c>
-      <c r="U23" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1641,8 +1687,11 @@
       <c r="U24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1700,8 +1749,11 @@
       <c r="U25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
@@ -1715,11 +1767,11 @@
         <v>-100</v>
       </c>
       <c r="G26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="H26" s="3">
         <v>-158000</v>
       </c>
-      <c r="H26" s="3">
-        <v>0</v>
-      </c>
       <c r="I26" s="3">
         <v>0</v>
       </c>
@@ -1751,16 +1803,19 @@
         <v>0</v>
       </c>
       <c r="S26" s="3">
+        <v>0</v>
+      </c>
+      <c r="T26" s="3">
         <v>-900</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-700</v>
       </c>
-      <c r="U26" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
@@ -1774,11 +1829,11 @@
         <v>-100</v>
       </c>
       <c r="G27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="H27" s="3">
         <v>-158000</v>
       </c>
-      <c r="H27" s="3">
-        <v>0</v>
-      </c>
       <c r="I27" s="3">
         <v>0</v>
       </c>
@@ -1810,16 +1865,19 @@
         <v>0</v>
       </c>
       <c r="S27" s="3">
+        <v>0</v>
+      </c>
+      <c r="T27" s="3">
         <v>-900</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-800</v>
       </c>
-      <c r="U27" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1877,8 +1935,11 @@
       <c r="U28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1936,8 +1997,11 @@
       <c r="U29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1995,8 +2059,11 @@
       <c r="U30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2054,8 +2121,11 @@
       <c r="U31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2110,11 +2180,14 @@
       <c r="T32" s="3">
         <v>0</v>
       </c>
-      <c r="U32" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="U32" s="3">
+        <v>0</v>
+      </c>
+      <c r="V32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
@@ -2128,11 +2201,11 @@
         <v>-100</v>
       </c>
       <c r="G33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="H33" s="3">
         <v>-158000</v>
       </c>
-      <c r="H33" s="3">
-        <v>0</v>
-      </c>
       <c r="I33" s="3">
         <v>0</v>
       </c>
@@ -2164,16 +2237,19 @@
         <v>0</v>
       </c>
       <c r="S33" s="3">
+        <v>0</v>
+      </c>
+      <c r="T33" s="3">
         <v>-900</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-800</v>
       </c>
-      <c r="U33" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2231,8 +2307,11 @@
       <c r="U34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
@@ -2246,11 +2325,11 @@
         <v>-100</v>
       </c>
       <c r="G35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="H35" s="3">
         <v>-158000</v>
       </c>
-      <c r="H35" s="3">
-        <v>0</v>
-      </c>
       <c r="I35" s="3">
         <v>0</v>
       </c>
@@ -2282,80 +2361,86 @@
         <v>0</v>
       </c>
       <c r="S35" s="3">
+        <v>0</v>
+      </c>
+      <c r="T35" s="3">
         <v>-900</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-800</v>
       </c>
-      <c r="U35" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E38" s="2">
         <v>44196</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44104</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44012</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43921</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43830</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43738</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43646</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43555</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43465</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43373</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43281</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43190</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43100</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43008</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42916</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>39629</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>39538</v>
       </c>
-      <c r="U38" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2377,8 +2462,9 @@
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
-    </row>
-    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V39" s="3"/>
+    </row>
+    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2400,8 +2486,9 @@
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
-    </row>
-    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V40" s="3"/>
+    </row>
+    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -2418,11 +2505,11 @@
         <v>0</v>
       </c>
       <c r="H41" s="3">
+        <v>0</v>
+      </c>
+      <c r="I41" s="3">
         <v>100</v>
       </c>
-      <c r="I41" s="3">
-        <v>0</v>
-      </c>
       <c r="J41" s="3">
         <v>0</v>
       </c>
@@ -2441,8 +2528,8 @@
       <c r="O41" s="3">
         <v>0</v>
       </c>
-      <c r="P41" s="3" t="s">
-        <v>3</v>
+      <c r="P41" s="3">
+        <v>0</v>
       </c>
       <c r="Q41" s="3" t="s">
         <v>3</v>
@@ -2459,8 +2546,11 @@
       <c r="U41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2518,8 +2608,11 @@
       <c r="U42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2535,8 +2628,8 @@
       <c r="G43" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="H43" s="3">
-        <v>0</v>
+      <c r="H43" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="I43" s="3">
         <v>0</v>
@@ -2559,8 +2652,8 @@
       <c r="O43" s="3">
         <v>0</v>
       </c>
-      <c r="P43" s="3" t="s">
-        <v>3</v>
+      <c r="P43" s="3">
+        <v>0</v>
       </c>
       <c r="Q43" s="3" t="s">
         <v>3</v>
@@ -2577,8 +2670,11 @@
       <c r="U43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2627,8 +2723,8 @@
       <c r="R44" s="3">
         <v>0</v>
       </c>
-      <c r="S44" s="3" t="s">
-        <v>3</v>
+      <c r="S44" s="3">
+        <v>0</v>
       </c>
       <c r="T44" s="3" t="s">
         <v>3</v>
@@ -2636,19 +2732,22 @@
       <c r="U44" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V44" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
         <v>0</v>
       </c>
-      <c r="E45" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F45" s="3">
-        <v>0</v>
+      <c r="E45" s="3">
+        <v>0</v>
+      </c>
+      <c r="F45" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="G45" s="3">
         <v>0</v>
@@ -2656,8 +2755,8 @@
       <c r="H45" s="3">
         <v>0</v>
       </c>
-      <c r="I45" s="3" t="s">
-        <v>3</v>
+      <c r="I45" s="3">
+        <v>0</v>
       </c>
       <c r="J45" s="3" t="s">
         <v>3</v>
@@ -2665,8 +2764,8 @@
       <c r="K45" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L45" s="3">
-        <v>0</v>
+      <c r="L45" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="M45" s="3">
         <v>0</v>
@@ -2677,8 +2776,8 @@
       <c r="O45" s="3">
         <v>0</v>
       </c>
-      <c r="P45" s="3" t="s">
-        <v>3</v>
+      <c r="P45" s="3">
+        <v>0</v>
       </c>
       <c r="Q45" s="3" t="s">
         <v>3</v>
@@ -2695,8 +2794,11 @@
       <c r="U45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2710,7 +2812,7 @@
         <v>0</v>
       </c>
       <c r="G46" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H46" s="3">
         <v>100</v>
@@ -2719,7 +2821,7 @@
         <v>100</v>
       </c>
       <c r="J46" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K46" s="3">
         <v>0</v>
@@ -2736,8 +2838,8 @@
       <c r="O46" s="3">
         <v>0</v>
       </c>
-      <c r="P46" s="3" t="s">
-        <v>3</v>
+      <c r="P46" s="3">
+        <v>0</v>
       </c>
       <c r="Q46" s="3" t="s">
         <v>3</v>
@@ -2754,8 +2856,11 @@
       <c r="U46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2804,8 +2909,8 @@
       <c r="R47" s="3">
         <v>0</v>
       </c>
-      <c r="S47" s="3" t="s">
-        <v>3</v>
+      <c r="S47" s="3">
+        <v>0</v>
       </c>
       <c r="T47" s="3" t="s">
         <v>3</v>
@@ -2813,8 +2918,11 @@
       <c r="U47" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2863,8 +2971,8 @@
       <c r="R48" s="3">
         <v>0</v>
       </c>
-      <c r="S48" s="3" t="s">
-        <v>3</v>
+      <c r="S48" s="3">
+        <v>0</v>
       </c>
       <c r="T48" s="3" t="s">
         <v>3</v>
@@ -2872,8 +2980,11 @@
       <c r="U48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2922,8 +3033,8 @@
       <c r="R49" s="3">
         <v>0</v>
       </c>
-      <c r="S49" s="3" t="s">
-        <v>3</v>
+      <c r="S49" s="3">
+        <v>0</v>
       </c>
       <c r="T49" s="3" t="s">
         <v>3</v>
@@ -2931,8 +3042,11 @@
       <c r="U49" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V49" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2990,8 +3104,11 @@
       <c r="U50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3049,8 +3166,11 @@
       <c r="U51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3108,8 +3228,11 @@
       <c r="U52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3167,8 +3290,11 @@
       <c r="U53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
@@ -3182,7 +3308,7 @@
         <v>0</v>
       </c>
       <c r="G54" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H54" s="3">
         <v>100</v>
@@ -3191,7 +3317,7 @@
         <v>100</v>
       </c>
       <c r="J54" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K54" s="3">
         <v>0</v>
@@ -3208,8 +3334,8 @@
       <c r="O54" s="3">
         <v>0</v>
       </c>
-      <c r="P54" s="3" t="s">
-        <v>3</v>
+      <c r="P54" s="3">
+        <v>0</v>
       </c>
       <c r="Q54" s="3" t="s">
         <v>3</v>
@@ -3226,8 +3352,11 @@
       <c r="U54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3249,8 +3378,9 @@
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
-    </row>
-    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V55" s="3"/>
+    </row>
+    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3272,8 +3402,9 @@
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
-    </row>
-    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V56" s="3"/>
+    </row>
+    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -3313,8 +3444,8 @@
       <c r="O57" s="3">
         <v>0</v>
       </c>
-      <c r="P57" s="3" t="s">
-        <v>3</v>
+      <c r="P57" s="3">
+        <v>0</v>
       </c>
       <c r="Q57" s="3" t="s">
         <v>3</v>
@@ -3331,8 +3462,11 @@
       <c r="U57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3381,8 +3515,8 @@
       <c r="R58" s="3">
         <v>0</v>
       </c>
-      <c r="S58" s="3" t="s">
-        <v>3</v>
+      <c r="S58" s="3">
+        <v>0</v>
       </c>
       <c r="T58" s="3" t="s">
         <v>3</v>
@@ -3390,28 +3524,31 @@
       <c r="U58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>500</v>
+      </c>
+      <c r="E59" s="3">
         <v>400</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>300</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>200</v>
       </c>
-      <c r="G59" s="3">
-        <v>0</v>
-      </c>
       <c r="H59" s="3">
         <v>0</v>
       </c>
-      <c r="I59" s="3" t="s">
-        <v>3</v>
+      <c r="I59" s="3">
+        <v>0</v>
       </c>
       <c r="J59" s="3" t="s">
         <v>3</v>
@@ -3425,8 +3562,8 @@
       <c r="M59" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N59" s="3">
-        <v>0</v>
+      <c r="N59" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="O59" s="3">
         <v>0</v>
@@ -3440,8 +3577,8 @@
       <c r="R59" s="3">
         <v>0</v>
       </c>
-      <c r="S59" s="3" t="s">
-        <v>3</v>
+      <c r="S59" s="3">
+        <v>0</v>
       </c>
       <c r="T59" s="3" t="s">
         <v>3</v>
@@ -3449,23 +3586,26 @@
       <c r="U59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>500</v>
+      </c>
+      <c r="E60" s="3">
         <v>400</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>300</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>200</v>
       </c>
-      <c r="G60" s="3">
-        <v>0</v>
-      </c>
       <c r="H60" s="3">
         <v>0</v>
       </c>
@@ -3490,8 +3630,8 @@
       <c r="O60" s="3">
         <v>0</v>
       </c>
-      <c r="P60" s="3" t="s">
-        <v>3</v>
+      <c r="P60" s="3">
+        <v>0</v>
       </c>
       <c r="Q60" s="3" t="s">
         <v>3</v>
@@ -3508,8 +3648,11 @@
       <c r="U60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3567,8 +3710,11 @@
       <c r="U61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3626,8 +3772,11 @@
       <c r="U62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3685,8 +3834,11 @@
       <c r="U63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3744,8 +3896,11 @@
       <c r="U64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3803,23 +3958,26 @@
       <c r="U65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>500</v>
+      </c>
+      <c r="E66" s="3">
         <v>400</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>300</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>200</v>
       </c>
-      <c r="G66" s="3">
-        <v>0</v>
-      </c>
       <c r="H66" s="3">
         <v>0</v>
       </c>
@@ -3844,8 +4002,8 @@
       <c r="O66" s="3">
         <v>0</v>
       </c>
-      <c r="P66" s="3" t="s">
-        <v>3</v>
+      <c r="P66" s="3">
+        <v>0</v>
       </c>
       <c r="Q66" s="3" t="s">
         <v>3</v>
@@ -3862,8 +4020,11 @@
       <c r="U66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3885,8 +4046,9 @@
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
-    </row>
-    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V67" s="3"/>
+    </row>
+    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3944,8 +4106,11 @@
       <c r="U68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4003,8 +4168,11 @@
       <c r="U69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4062,8 +4230,11 @@
       <c r="U70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4121,28 +4292,31 @@
       <c r="U71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-159300</v>
+      </c>
+      <c r="E72" s="3">
         <v>-159200</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-159000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-158900</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-158800</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-800</v>
-      </c>
-      <c r="I72" s="3">
-        <v>-700</v>
       </c>
       <c r="J72" s="3">
         <v>-700</v>
@@ -4162,8 +4336,8 @@
       <c r="O72" s="3">
         <v>-700</v>
       </c>
-      <c r="P72" s="3" t="s">
-        <v>3</v>
+      <c r="P72" s="3">
+        <v>-700</v>
       </c>
       <c r="Q72" s="3" t="s">
         <v>3</v>
@@ -4180,8 +4354,11 @@
       <c r="U72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4239,8 +4416,11 @@
       <c r="U73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4298,8 +4478,11 @@
       <c r="U74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4357,23 +4540,26 @@
       <c r="U75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-500</v>
+      </c>
+      <c r="E76" s="3">
         <v>-400</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>-200</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>-100</v>
       </c>
-      <c r="G76" s="3">
-        <v>0</v>
-      </c>
       <c r="H76" s="3">
         <v>0</v>
       </c>
@@ -4398,8 +4584,8 @@
       <c r="O76" s="3">
         <v>0</v>
       </c>
-      <c r="P76" s="3" t="s">
-        <v>3</v>
+      <c r="P76" s="3">
+        <v>0</v>
       </c>
       <c r="Q76" s="3" t="s">
         <v>3</v>
@@ -4416,8 +4602,11 @@
       <c r="U76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4475,72 +4664,78 @@
       <c r="U77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E80" s="2">
         <v>44196</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44104</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44012</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43921</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43830</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43738</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43646</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43555</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43465</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43373</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43281</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43190</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43100</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43008</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42916</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>39629</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>39538</v>
       </c>
-      <c r="U80" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
@@ -4554,11 +4749,11 @@
         <v>-100</v>
       </c>
       <c r="G81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="H81" s="3">
         <v>-158000</v>
       </c>
-      <c r="H81" s="3">
-        <v>0</v>
-      </c>
       <c r="I81" s="3">
         <v>0</v>
       </c>
@@ -4590,16 +4785,19 @@
         <v>0</v>
       </c>
       <c r="S81" s="3">
+        <v>0</v>
+      </c>
+      <c r="T81" s="3">
         <v>-900</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-800</v>
       </c>
-      <c r="U81" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4621,8 +4819,9 @@
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
-    </row>
-    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V82" s="3"/>
+    </row>
+    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4672,16 +4871,19 @@
         <v>0</v>
       </c>
       <c r="S83" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="T83" s="3">
         <v>100</v>
       </c>
-      <c r="U83" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="U83" s="3">
+        <v>100</v>
+      </c>
+      <c r="V83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4739,8 +4941,11 @@
       <c r="U84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4798,8 +5003,11 @@
       <c r="U85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4857,8 +5065,11 @@
       <c r="U86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4916,8 +5127,11 @@
       <c r="U87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4975,8 +5189,11 @@
       <c r="U88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -5026,16 +5243,19 @@
         <v>0</v>
       </c>
       <c r="S89" s="3">
+        <v>0</v>
+      </c>
+      <c r="T89" s="3">
         <v>-100</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>-200</v>
       </c>
-      <c r="U89" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5057,8 +5277,9 @@
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
-    </row>
-    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V90" s="3"/>
+    </row>
+    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -5111,13 +5332,16 @@
         <v>0</v>
       </c>
       <c r="T91" s="3">
+        <v>0</v>
+      </c>
+      <c r="U91" s="3">
         <v>-100</v>
       </c>
-      <c r="U91" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5175,8 +5399,11 @@
       <c r="U92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5234,8 +5461,11 @@
       <c r="U93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -5288,13 +5518,16 @@
         <v>0</v>
       </c>
       <c r="T94" s="3">
+        <v>0</v>
+      </c>
+      <c r="U94" s="3">
         <v>-100</v>
       </c>
-      <c r="U94" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5316,8 +5549,9 @@
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
-    </row>
-    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V95" s="3"/>
+    </row>
+    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5375,8 +5609,11 @@
       <c r="U96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5434,8 +5671,11 @@
       <c r="U97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5493,8 +5733,11 @@
       <c r="U98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5552,8 +5795,11 @@
       <c r="U99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -5603,16 +5849,19 @@
         <v>0</v>
       </c>
       <c r="S100" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="T100" s="3">
         <v>100</v>
       </c>
-      <c r="U100" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="U100" s="3">
+        <v>100</v>
+      </c>
+      <c r="V100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5670,8 +5919,11 @@
       <c r="U101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -5724,9 +5976,12 @@
         <v>0</v>
       </c>
       <c r="T102" s="3">
+        <v>0</v>
+      </c>
+      <c r="U102" s="3">
         <v>-200</v>
       </c>
-      <c r="U102" s="3" t="s">
+      <c r="V102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/BFNH_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/BFNH_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="92">
   <si>
     <t>BFNH</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:V102"/>
+  <dimension ref="A5:W102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,96 +665,100 @@
     <col min="1" max="1" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E7" s="2">
         <v>44286</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44196</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44104</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44012</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43921</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43830</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43738</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43646</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43555</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43465</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43373</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43281</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43190</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43100</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43008</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42916</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>39629</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>39538</v>
       </c>
-      <c r="V7" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
@@ -807,16 +811,19 @@
         <v>0</v>
       </c>
       <c r="T8" s="3">
+        <v>0</v>
+      </c>
+      <c r="U8" s="3">
         <v>200</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>400</v>
       </c>
-      <c r="V8" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -838,8 +845,8 @@
       <c r="I9" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="J9" s="3">
-        <v>0</v>
+      <c r="J9" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K9" s="3">
         <v>0</v>
@@ -856,29 +863,32 @@
       <c r="O9" s="3">
         <v>0</v>
       </c>
-      <c r="P9" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q9" s="3">
-        <v>0</v>
-      </c>
-      <c r="R9" s="3" t="s">
-        <v>3</v>
+      <c r="P9" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R9" s="3">
+        <v>0</v>
       </c>
       <c r="S9" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="T9" s="3">
-        <v>200</v>
+      <c r="T9" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="U9" s="3">
         <v>200</v>
       </c>
-      <c r="V9" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="V9" s="3">
+        <v>200</v>
+      </c>
+      <c r="W9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -900,8 +910,8 @@
       <c r="I10" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="J10" s="3">
-        <v>0</v>
+      <c r="J10" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K10" s="3">
         <v>0</v>
@@ -918,29 +928,32 @@
       <c r="O10" s="3">
         <v>0</v>
       </c>
-      <c r="P10" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q10" s="3">
-        <v>0</v>
-      </c>
-      <c r="R10" s="3" t="s">
-        <v>3</v>
+      <c r="P10" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R10" s="3">
+        <v>0</v>
       </c>
       <c r="S10" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="T10" s="3">
-        <v>0</v>
+      <c r="T10" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="U10" s="3">
+        <v>0</v>
+      </c>
+      <c r="V10" s="3">
         <v>200</v>
       </c>
-      <c r="V10" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -963,8 +976,9 @@
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W11" s="3"/>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1016,17 +1030,20 @@
       <c r="S12" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="T12" s="3">
-        <v>300</v>
+      <c r="T12" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="U12" s="3">
         <v>300</v>
       </c>
-      <c r="V12" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="V12" s="3">
+        <v>300</v>
+      </c>
+      <c r="W12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1087,8 +1104,11 @@
       <c r="V13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1149,8 +1169,11 @@
       <c r="V14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1211,8 +1234,11 @@
       <c r="V15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1232,8 +1258,9 @@
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
-    </row>
-    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W16" s="3"/>
+    </row>
+    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
@@ -1250,11 +1277,11 @@
         <v>100</v>
       </c>
       <c r="H17" s="3">
+        <v>100</v>
+      </c>
+      <c r="I17" s="3">
         <v>158000</v>
       </c>
-      <c r="I17" s="3">
-        <v>0</v>
-      </c>
       <c r="J17" s="3">
         <v>0</v>
       </c>
@@ -1286,16 +1313,19 @@
         <v>0</v>
       </c>
       <c r="T17" s="3">
-        <v>1100</v>
+        <v>0</v>
       </c>
       <c r="U17" s="3">
         <v>1100</v>
       </c>
-      <c r="V17" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="V17" s="3">
+        <v>1100</v>
+      </c>
+      <c r="W17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1312,11 +1342,11 @@
         <v>-100</v>
       </c>
       <c r="H18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="I18" s="3">
         <v>-158000</v>
       </c>
-      <c r="I18" s="3">
-        <v>0</v>
-      </c>
       <c r="J18" s="3">
         <v>0</v>
       </c>
@@ -1348,16 +1378,19 @@
         <v>0</v>
       </c>
       <c r="T18" s="3">
+        <v>0</v>
+      </c>
+      <c r="U18" s="3">
         <v>-900</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>-700</v>
       </c>
-      <c r="V18" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1380,8 +1413,9 @@
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
-    </row>
-    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W19" s="3"/>
+    </row>
+    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1439,11 +1473,14 @@
       <c r="U20" s="3">
         <v>0</v>
       </c>
-      <c r="V20" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="V20" s="3">
+        <v>0</v>
+      </c>
+      <c r="W20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1495,17 +1532,20 @@
       <c r="S21" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="T21" s="3">
+      <c r="T21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U21" s="3">
         <v>-800</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>-700</v>
       </c>
-      <c r="V21" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1542,8 +1582,8 @@
       <c r="N22" s="3">
         <v>0</v>
       </c>
-      <c r="O22" s="3" t="s">
-        <v>3</v>
+      <c r="O22" s="3">
+        <v>0</v>
       </c>
       <c r="P22" s="3" t="s">
         <v>3</v>
@@ -1557,17 +1597,20 @@
       <c r="S22" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="T22" s="3">
+      <c r="T22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U22" s="3">
         <v>100</v>
       </c>
-      <c r="U22" s="3">
-        <v>0</v>
-      </c>
-      <c r="V22" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="V22" s="3">
+        <v>0</v>
+      </c>
+      <c r="W22" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
@@ -1584,11 +1627,11 @@
         <v>-100</v>
       </c>
       <c r="H23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="I23" s="3">
         <v>-158000</v>
       </c>
-      <c r="I23" s="3">
-        <v>0</v>
-      </c>
       <c r="J23" s="3">
         <v>0</v>
       </c>
@@ -1620,16 +1663,19 @@
         <v>0</v>
       </c>
       <c r="T23" s="3">
+        <v>0</v>
+      </c>
+      <c r="U23" s="3">
         <v>-900</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-700</v>
       </c>
-      <c r="V23" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1690,8 +1736,11 @@
       <c r="V24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1752,8 +1801,11 @@
       <c r="V25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
@@ -1770,11 +1822,11 @@
         <v>-100</v>
       </c>
       <c r="H26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="I26" s="3">
         <v>-158000</v>
       </c>
-      <c r="I26" s="3">
-        <v>0</v>
-      </c>
       <c r="J26" s="3">
         <v>0</v>
       </c>
@@ -1806,16 +1858,19 @@
         <v>0</v>
       </c>
       <c r="T26" s="3">
+        <v>0</v>
+      </c>
+      <c r="U26" s="3">
         <v>-900</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-700</v>
       </c>
-      <c r="V26" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
@@ -1832,11 +1887,11 @@
         <v>-100</v>
       </c>
       <c r="H27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="I27" s="3">
         <v>-158000</v>
       </c>
-      <c r="I27" s="3">
-        <v>0</v>
-      </c>
       <c r="J27" s="3">
         <v>0</v>
       </c>
@@ -1868,16 +1923,19 @@
         <v>0</v>
       </c>
       <c r="T27" s="3">
+        <v>0</v>
+      </c>
+      <c r="U27" s="3">
         <v>-900</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-800</v>
       </c>
-      <c r="V27" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1938,8 +1996,11 @@
       <c r="V28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2000,8 +2061,11 @@
       <c r="V29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2062,8 +2126,11 @@
       <c r="V30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2124,8 +2191,11 @@
       <c r="V31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2183,11 +2253,14 @@
       <c r="U32" s="3">
         <v>0</v>
       </c>
-      <c r="V32" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="V32" s="3">
+        <v>0</v>
+      </c>
+      <c r="W32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
@@ -2204,11 +2277,11 @@
         <v>-100</v>
       </c>
       <c r="H33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="I33" s="3">
         <v>-158000</v>
       </c>
-      <c r="I33" s="3">
-        <v>0</v>
-      </c>
       <c r="J33" s="3">
         <v>0</v>
       </c>
@@ -2240,16 +2313,19 @@
         <v>0</v>
       </c>
       <c r="T33" s="3">
+        <v>0</v>
+      </c>
+      <c r="U33" s="3">
         <v>-900</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-800</v>
       </c>
-      <c r="V33" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2310,8 +2386,11 @@
       <c r="V34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
@@ -2328,11 +2407,11 @@
         <v>-100</v>
       </c>
       <c r="H35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="I35" s="3">
         <v>-158000</v>
       </c>
-      <c r="I35" s="3">
-        <v>0</v>
-      </c>
       <c r="J35" s="3">
         <v>0</v>
       </c>
@@ -2364,83 +2443,89 @@
         <v>0</v>
       </c>
       <c r="T35" s="3">
+        <v>0</v>
+      </c>
+      <c r="U35" s="3">
         <v>-900</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-800</v>
       </c>
-      <c r="V35" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E38" s="2">
         <v>44286</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44196</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44104</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44012</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43921</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43830</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43738</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43646</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43555</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43465</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43373</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43281</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43190</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43100</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43008</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42916</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>39629</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>39538</v>
       </c>
-      <c r="V38" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2463,8 +2548,9 @@
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
-    </row>
-    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W39" s="3"/>
+    </row>
+    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2487,8 +2573,9 @@
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
-    </row>
-    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W40" s="3"/>
+    </row>
+    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -2508,11 +2595,11 @@
         <v>0</v>
       </c>
       <c r="I41" s="3">
+        <v>0</v>
+      </c>
+      <c r="J41" s="3">
         <v>100</v>
       </c>
-      <c r="J41" s="3">
-        <v>0</v>
-      </c>
       <c r="K41" s="3">
         <v>0</v>
       </c>
@@ -2531,8 +2618,8 @@
       <c r="P41" s="3">
         <v>0</v>
       </c>
-      <c r="Q41" s="3" t="s">
-        <v>3</v>
+      <c r="Q41" s="3">
+        <v>0</v>
       </c>
       <c r="R41" s="3" t="s">
         <v>3</v>
@@ -2549,8 +2636,11 @@
       <c r="V41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2611,8 +2701,11 @@
       <c r="V42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2631,8 +2724,8 @@
       <c r="H43" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="I43" s="3">
-        <v>0</v>
+      <c r="I43" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="J43" s="3">
         <v>0</v>
@@ -2655,8 +2748,8 @@
       <c r="P43" s="3">
         <v>0</v>
       </c>
-      <c r="Q43" s="3" t="s">
-        <v>3</v>
+      <c r="Q43" s="3">
+        <v>0</v>
       </c>
       <c r="R43" s="3" t="s">
         <v>3</v>
@@ -2673,8 +2766,11 @@
       <c r="V43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2726,8 +2822,8 @@
       <c r="S44" s="3">
         <v>0</v>
       </c>
-      <c r="T44" s="3" t="s">
-        <v>3</v>
+      <c r="T44" s="3">
+        <v>0</v>
       </c>
       <c r="U44" s="3" t="s">
         <v>3</v>
@@ -2735,8 +2831,11 @@
       <c r="V44" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W44" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2746,11 +2845,11 @@
       <c r="E45" s="3">
         <v>0</v>
       </c>
-      <c r="F45" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G45" s="3">
-        <v>0</v>
+      <c r="F45" s="3">
+        <v>0</v>
+      </c>
+      <c r="G45" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="H45" s="3">
         <v>0</v>
@@ -2758,8 +2857,8 @@
       <c r="I45" s="3">
         <v>0</v>
       </c>
-      <c r="J45" s="3" t="s">
-        <v>3</v>
+      <c r="J45" s="3">
+        <v>0</v>
       </c>
       <c r="K45" s="3" t="s">
         <v>3</v>
@@ -2767,8 +2866,8 @@
       <c r="L45" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M45" s="3">
-        <v>0</v>
+      <c r="M45" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="N45" s="3">
         <v>0</v>
@@ -2779,8 +2878,8 @@
       <c r="P45" s="3">
         <v>0</v>
       </c>
-      <c r="Q45" s="3" t="s">
-        <v>3</v>
+      <c r="Q45" s="3">
+        <v>0</v>
       </c>
       <c r="R45" s="3" t="s">
         <v>3</v>
@@ -2797,8 +2896,11 @@
       <c r="V45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2815,7 +2917,7 @@
         <v>0</v>
       </c>
       <c r="H46" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I46" s="3">
         <v>100</v>
@@ -2824,7 +2926,7 @@
         <v>100</v>
       </c>
       <c r="K46" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L46" s="3">
         <v>0</v>
@@ -2841,8 +2943,8 @@
       <c r="P46" s="3">
         <v>0</v>
       </c>
-      <c r="Q46" s="3" t="s">
-        <v>3</v>
+      <c r="Q46" s="3">
+        <v>0</v>
       </c>
       <c r="R46" s="3" t="s">
         <v>3</v>
@@ -2859,8 +2961,11 @@
       <c r="V46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2912,8 +3017,8 @@
       <c r="S47" s="3">
         <v>0</v>
       </c>
-      <c r="T47" s="3" t="s">
-        <v>3</v>
+      <c r="T47" s="3">
+        <v>0</v>
       </c>
       <c r="U47" s="3" t="s">
         <v>3</v>
@@ -2921,8 +3026,11 @@
       <c r="V47" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2974,8 +3082,8 @@
       <c r="S48" s="3">
         <v>0</v>
       </c>
-      <c r="T48" s="3" t="s">
-        <v>3</v>
+      <c r="T48" s="3">
+        <v>0</v>
       </c>
       <c r="U48" s="3" t="s">
         <v>3</v>
@@ -2983,8 +3091,11 @@
       <c r="V48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3036,8 +3147,8 @@
       <c r="S49" s="3">
         <v>0</v>
       </c>
-      <c r="T49" s="3" t="s">
-        <v>3</v>
+      <c r="T49" s="3">
+        <v>0</v>
       </c>
       <c r="U49" s="3" t="s">
         <v>3</v>
@@ -3045,8 +3156,11 @@
       <c r="V49" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W49" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3107,8 +3221,11 @@
       <c r="V50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3169,8 +3286,11 @@
       <c r="V51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3231,8 +3351,11 @@
       <c r="V52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3293,8 +3416,11 @@
       <c r="V53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
@@ -3311,7 +3437,7 @@
         <v>0</v>
       </c>
       <c r="H54" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I54" s="3">
         <v>100</v>
@@ -3320,7 +3446,7 @@
         <v>100</v>
       </c>
       <c r="K54" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L54" s="3">
         <v>0</v>
@@ -3337,8 +3463,8 @@
       <c r="P54" s="3">
         <v>0</v>
       </c>
-      <c r="Q54" s="3" t="s">
-        <v>3</v>
+      <c r="Q54" s="3">
+        <v>0</v>
       </c>
       <c r="R54" s="3" t="s">
         <v>3</v>
@@ -3355,8 +3481,11 @@
       <c r="V54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3379,8 +3508,9 @@
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
-    </row>
-    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W55" s="3"/>
+    </row>
+    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3403,8 +3533,9 @@
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
-    </row>
-    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W56" s="3"/>
+    </row>
+    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -3447,8 +3578,8 @@
       <c r="P57" s="3">
         <v>0</v>
       </c>
-      <c r="Q57" s="3" t="s">
-        <v>3</v>
+      <c r="Q57" s="3">
+        <v>0</v>
       </c>
       <c r="R57" s="3" t="s">
         <v>3</v>
@@ -3465,8 +3596,11 @@
       <c r="V57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3518,8 +3652,8 @@
       <c r="S58" s="3">
         <v>0</v>
       </c>
-      <c r="T58" s="3" t="s">
-        <v>3</v>
+      <c r="T58" s="3">
+        <v>0</v>
       </c>
       <c r="U58" s="3" t="s">
         <v>3</v>
@@ -3527,31 +3661,34 @@
       <c r="V58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>700</v>
+      </c>
+      <c r="E59" s="3">
         <v>500</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>400</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>300</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>200</v>
       </c>
-      <c r="H59" s="3">
-        <v>0</v>
-      </c>
       <c r="I59" s="3">
         <v>0</v>
       </c>
-      <c r="J59" s="3" t="s">
-        <v>3</v>
+      <c r="J59" s="3">
+        <v>0</v>
       </c>
       <c r="K59" s="3" t="s">
         <v>3</v>
@@ -3565,8 +3702,8 @@
       <c r="N59" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O59" s="3">
-        <v>0</v>
+      <c r="O59" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="P59" s="3">
         <v>0</v>
@@ -3580,8 +3717,8 @@
       <c r="S59" s="3">
         <v>0</v>
       </c>
-      <c r="T59" s="3" t="s">
-        <v>3</v>
+      <c r="T59" s="3">
+        <v>0</v>
       </c>
       <c r="U59" s="3" t="s">
         <v>3</v>
@@ -3589,26 +3726,29 @@
       <c r="V59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>700</v>
+      </c>
+      <c r="E60" s="3">
         <v>500</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>400</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>300</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>200</v>
       </c>
-      <c r="H60" s="3">
-        <v>0</v>
-      </c>
       <c r="I60" s="3">
         <v>0</v>
       </c>
@@ -3633,8 +3773,8 @@
       <c r="P60" s="3">
         <v>0</v>
       </c>
-      <c r="Q60" s="3" t="s">
-        <v>3</v>
+      <c r="Q60" s="3">
+        <v>0</v>
       </c>
       <c r="R60" s="3" t="s">
         <v>3</v>
@@ -3651,8 +3791,11 @@
       <c r="V60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3713,8 +3856,11 @@
       <c r="V61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3775,8 +3921,11 @@
       <c r="V62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3837,8 +3986,11 @@
       <c r="V63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3899,8 +4051,11 @@
       <c r="V64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3961,26 +4116,29 @@
       <c r="V65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>700</v>
+      </c>
+      <c r="E66" s="3">
         <v>500</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>400</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>300</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>200</v>
       </c>
-      <c r="H66" s="3">
-        <v>0</v>
-      </c>
       <c r="I66" s="3">
         <v>0</v>
       </c>
@@ -4005,8 +4163,8 @@
       <c r="P66" s="3">
         <v>0</v>
       </c>
-      <c r="Q66" s="3" t="s">
-        <v>3</v>
+      <c r="Q66" s="3">
+        <v>0</v>
       </c>
       <c r="R66" s="3" t="s">
         <v>3</v>
@@ -4023,8 +4181,11 @@
       <c r="V66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4047,8 +4208,9 @@
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
-    </row>
-    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W67" s="3"/>
+    </row>
+    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4109,8 +4271,11 @@
       <c r="V68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4171,8 +4336,11 @@
       <c r="V69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4233,8 +4401,11 @@
       <c r="V70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4295,31 +4466,34 @@
       <c r="V71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-159400</v>
+      </c>
+      <c r="E72" s="3">
         <v>-159300</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-159200</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-159000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-158900</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-158800</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-800</v>
-      </c>
-      <c r="J72" s="3">
-        <v>-700</v>
       </c>
       <c r="K72" s="3">
         <v>-700</v>
@@ -4339,8 +4513,8 @@
       <c r="P72" s="3">
         <v>-700</v>
       </c>
-      <c r="Q72" s="3" t="s">
-        <v>3</v>
+      <c r="Q72" s="3">
+        <v>-700</v>
       </c>
       <c r="R72" s="3" t="s">
         <v>3</v>
@@ -4357,8 +4531,11 @@
       <c r="V72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4419,8 +4596,11 @@
       <c r="V73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4481,8 +4661,11 @@
       <c r="V74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4543,26 +4726,29 @@
       <c r="V75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-600</v>
+      </c>
+      <c r="E76" s="3">
         <v>-500</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>-400</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>-200</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>-100</v>
       </c>
-      <c r="H76" s="3">
-        <v>0</v>
-      </c>
       <c r="I76" s="3">
         <v>0</v>
       </c>
@@ -4587,8 +4773,8 @@
       <c r="P76" s="3">
         <v>0</v>
       </c>
-      <c r="Q76" s="3" t="s">
-        <v>3</v>
+      <c r="Q76" s="3">
+        <v>0</v>
       </c>
       <c r="R76" s="3" t="s">
         <v>3</v>
@@ -4605,8 +4791,11 @@
       <c r="V76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4667,75 +4856,81 @@
       <c r="V77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E80" s="2">
         <v>44286</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44196</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44104</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44012</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43921</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43830</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43738</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43646</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43555</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43465</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43373</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43281</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43190</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43100</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43008</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42916</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>39629</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>39538</v>
       </c>
-      <c r="V80" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
@@ -4752,11 +4947,11 @@
         <v>-100</v>
       </c>
       <c r="H81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="I81" s="3">
         <v>-158000</v>
       </c>
-      <c r="I81" s="3">
-        <v>0</v>
-      </c>
       <c r="J81" s="3">
         <v>0</v>
       </c>
@@ -4788,16 +4983,19 @@
         <v>0</v>
       </c>
       <c r="T81" s="3">
+        <v>0</v>
+      </c>
+      <c r="U81" s="3">
         <v>-900</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-800</v>
       </c>
-      <c r="V81" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4820,8 +5018,9 @@
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
-    </row>
-    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W82" s="3"/>
+    </row>
+    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4874,16 +5073,19 @@
         <v>0</v>
       </c>
       <c r="T83" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="U83" s="3">
         <v>100</v>
       </c>
-      <c r="V83" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="V83" s="3">
+        <v>100</v>
+      </c>
+      <c r="W83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4944,8 +5146,11 @@
       <c r="V84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5006,8 +5211,11 @@
       <c r="V85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5068,8 +5276,11 @@
       <c r="V86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5130,8 +5341,11 @@
       <c r="V87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5192,8 +5406,11 @@
       <c r="V88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -5246,16 +5463,19 @@
         <v>0</v>
       </c>
       <c r="T89" s="3">
+        <v>0</v>
+      </c>
+      <c r="U89" s="3">
         <v>-100</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>-200</v>
       </c>
-      <c r="V89" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5278,8 +5498,9 @@
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
-    </row>
-    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W90" s="3"/>
+    </row>
+    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -5335,13 +5556,16 @@
         <v>0</v>
       </c>
       <c r="U91" s="3">
+        <v>0</v>
+      </c>
+      <c r="V91" s="3">
         <v>-100</v>
       </c>
-      <c r="V91" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5402,8 +5626,11 @@
       <c r="V92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5464,8 +5691,11 @@
       <c r="V93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -5521,13 +5751,16 @@
         <v>0</v>
       </c>
       <c r="U94" s="3">
+        <v>0</v>
+      </c>
+      <c r="V94" s="3">
         <v>-100</v>
       </c>
-      <c r="V94" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5550,8 +5783,9 @@
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
-    </row>
-    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W95" s="3"/>
+    </row>
+    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5612,8 +5846,11 @@
       <c r="V96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5674,8 +5911,11 @@
       <c r="V97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5736,8 +5976,11 @@
       <c r="V98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5798,8 +6041,11 @@
       <c r="V99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -5852,16 +6098,19 @@
         <v>0</v>
       </c>
       <c r="T100" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="U100" s="3">
         <v>100</v>
       </c>
-      <c r="V100" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="V100" s="3">
+        <v>100</v>
+      </c>
+      <c r="W100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5922,8 +6171,11 @@
       <c r="V101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -5979,9 +6231,12 @@
         <v>0</v>
       </c>
       <c r="U102" s="3">
+        <v>0</v>
+      </c>
+      <c r="V102" s="3">
         <v>-200</v>
       </c>
-      <c r="V102" s="3" t="s">
+      <c r="W102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/BFNH_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/BFNH_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="92">
   <si>
     <t>BFNH</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:W102"/>
+  <dimension ref="A5:X102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,100 +665,104 @@
     <col min="1" max="1" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E7" s="2">
         <v>44377</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44286</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44196</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44104</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44012</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43921</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43830</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43738</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43646</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43555</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43465</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43373</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43281</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43190</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43100</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43008</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42916</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>39629</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>39538</v>
       </c>
-      <c r="W7" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
@@ -814,16 +818,19 @@
         <v>0</v>
       </c>
       <c r="U8" s="3">
+        <v>0</v>
+      </c>
+      <c r="V8" s="3">
         <v>200</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>400</v>
       </c>
-      <c r="W8" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -848,8 +855,8 @@
       <c r="J9" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K9" s="3">
-        <v>0</v>
+      <c r="K9" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="L9" s="3">
         <v>0</v>
@@ -866,29 +873,32 @@
       <c r="P9" s="3">
         <v>0</v>
       </c>
-      <c r="Q9" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="R9" s="3">
-        <v>0</v>
-      </c>
-      <c r="S9" s="3" t="s">
-        <v>3</v>
+      <c r="Q9" s="3">
+        <v>0</v>
+      </c>
+      <c r="R9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S9" s="3">
+        <v>0</v>
       </c>
       <c r="T9" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="U9" s="3">
-        <v>200</v>
+      <c r="U9" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="V9" s="3">
         <v>200</v>
       </c>
-      <c r="W9" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="W9" s="3">
+        <v>200</v>
+      </c>
+      <c r="X9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -913,8 +923,8 @@
       <c r="J10" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K10" s="3">
-        <v>0</v>
+      <c r="K10" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="L10" s="3">
         <v>0</v>
@@ -931,29 +941,32 @@
       <c r="P10" s="3">
         <v>0</v>
       </c>
-      <c r="Q10" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="R10" s="3">
-        <v>0</v>
-      </c>
-      <c r="S10" s="3" t="s">
-        <v>3</v>
+      <c r="Q10" s="3">
+        <v>0</v>
+      </c>
+      <c r="R10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S10" s="3">
+        <v>0</v>
       </c>
       <c r="T10" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="U10" s="3">
-        <v>0</v>
+      <c r="U10" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="V10" s="3">
+        <v>0</v>
+      </c>
+      <c r="W10" s="3">
         <v>200</v>
       </c>
-      <c r="W10" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -977,8 +990,9 @@
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
-    </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X11" s="3"/>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1033,17 +1047,20 @@
       <c r="T12" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="U12" s="3">
-        <v>300</v>
+      <c r="U12" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="V12" s="3">
         <v>300</v>
       </c>
-      <c r="W12" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="W12" s="3">
+        <v>300</v>
+      </c>
+      <c r="X12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1107,8 +1124,11 @@
       <c r="W13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1172,8 +1192,11 @@
       <c r="W14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1237,8 +1260,11 @@
       <c r="W15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1259,8 +1285,9 @@
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
-    </row>
-    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X16" s="3"/>
+    </row>
+    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
@@ -1280,11 +1307,11 @@
         <v>100</v>
       </c>
       <c r="I17" s="3">
+        <v>100</v>
+      </c>
+      <c r="J17" s="3">
         <v>158000</v>
       </c>
-      <c r="J17" s="3">
-        <v>0</v>
-      </c>
       <c r="K17" s="3">
         <v>0</v>
       </c>
@@ -1316,16 +1343,19 @@
         <v>0</v>
       </c>
       <c r="U17" s="3">
-        <v>1100</v>
+        <v>0</v>
       </c>
       <c r="V17" s="3">
         <v>1100</v>
       </c>
-      <c r="W17" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="W17" s="3">
+        <v>1100</v>
+      </c>
+      <c r="X17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1345,11 +1375,11 @@
         <v>-100</v>
       </c>
       <c r="I18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="J18" s="3">
         <v>-158000</v>
       </c>
-      <c r="J18" s="3">
-        <v>0</v>
-      </c>
       <c r="K18" s="3">
         <v>0</v>
       </c>
@@ -1381,16 +1411,19 @@
         <v>0</v>
       </c>
       <c r="U18" s="3">
+        <v>0</v>
+      </c>
+      <c r="V18" s="3">
         <v>-900</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>-700</v>
       </c>
-      <c r="W18" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1414,8 +1447,9 @@
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
-    </row>
-    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X19" s="3"/>
+    </row>
+    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1476,11 +1510,14 @@
       <c r="V20" s="3">
         <v>0</v>
       </c>
-      <c r="W20" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="W20" s="3">
+        <v>0</v>
+      </c>
+      <c r="X20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1535,17 +1572,20 @@
       <c r="T21" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="U21" s="3">
+      <c r="U21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="V21" s="3">
         <v>-800</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>-700</v>
       </c>
-      <c r="W21" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1585,8 +1625,8 @@
       <c r="O22" s="3">
         <v>0</v>
       </c>
-      <c r="P22" s="3" t="s">
-        <v>3</v>
+      <c r="P22" s="3">
+        <v>0</v>
       </c>
       <c r="Q22" s="3" t="s">
         <v>3</v>
@@ -1600,17 +1640,20 @@
       <c r="T22" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="U22" s="3">
+      <c r="U22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="V22" s="3">
         <v>100</v>
       </c>
-      <c r="V22" s="3">
-        <v>0</v>
-      </c>
-      <c r="W22" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="W22" s="3">
+        <v>0</v>
+      </c>
+      <c r="X22" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
@@ -1630,11 +1673,11 @@
         <v>-100</v>
       </c>
       <c r="I23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="J23" s="3">
         <v>-158000</v>
       </c>
-      <c r="J23" s="3">
-        <v>0</v>
-      </c>
       <c r="K23" s="3">
         <v>0</v>
       </c>
@@ -1666,16 +1709,19 @@
         <v>0</v>
       </c>
       <c r="U23" s="3">
+        <v>0</v>
+      </c>
+      <c r="V23" s="3">
         <v>-900</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>-700</v>
       </c>
-      <c r="W23" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1739,8 +1785,11 @@
       <c r="W24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1804,8 +1853,11 @@
       <c r="W25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
@@ -1825,11 +1877,11 @@
         <v>-100</v>
       </c>
       <c r="I26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="J26" s="3">
         <v>-158000</v>
       </c>
-      <c r="J26" s="3">
-        <v>0</v>
-      </c>
       <c r="K26" s="3">
         <v>0</v>
       </c>
@@ -1861,16 +1913,19 @@
         <v>0</v>
       </c>
       <c r="U26" s="3">
+        <v>0</v>
+      </c>
+      <c r="V26" s="3">
         <v>-900</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>-700</v>
       </c>
-      <c r="W26" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
@@ -1890,11 +1945,11 @@
         <v>-100</v>
       </c>
       <c r="I27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="J27" s="3">
         <v>-158000</v>
       </c>
-      <c r="J27" s="3">
-        <v>0</v>
-      </c>
       <c r="K27" s="3">
         <v>0</v>
       </c>
@@ -1926,16 +1981,19 @@
         <v>0</v>
       </c>
       <c r="U27" s="3">
+        <v>0</v>
+      </c>
+      <c r="V27" s="3">
         <v>-900</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>-800</v>
       </c>
-      <c r="W27" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1999,8 +2057,11 @@
       <c r="W28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2064,8 +2125,11 @@
       <c r="W29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2129,8 +2193,11 @@
       <c r="W30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2194,8 +2261,11 @@
       <c r="W31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2256,11 +2326,14 @@
       <c r="V32" s="3">
         <v>0</v>
       </c>
-      <c r="W32" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="W32" s="3">
+        <v>0</v>
+      </c>
+      <c r="X32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
@@ -2280,11 +2353,11 @@
         <v>-100</v>
       </c>
       <c r="I33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="J33" s="3">
         <v>-158000</v>
       </c>
-      <c r="J33" s="3">
-        <v>0</v>
-      </c>
       <c r="K33" s="3">
         <v>0</v>
       </c>
@@ -2316,16 +2389,19 @@
         <v>0</v>
       </c>
       <c r="U33" s="3">
+        <v>0</v>
+      </c>
+      <c r="V33" s="3">
         <v>-900</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>-800</v>
       </c>
-      <c r="W33" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2389,8 +2465,11 @@
       <c r="W34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
@@ -2410,11 +2489,11 @@
         <v>-100</v>
       </c>
       <c r="I35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="J35" s="3">
         <v>-158000</v>
       </c>
-      <c r="J35" s="3">
-        <v>0</v>
-      </c>
       <c r="K35" s="3">
         <v>0</v>
       </c>
@@ -2446,86 +2525,92 @@
         <v>0</v>
       </c>
       <c r="U35" s="3">
+        <v>0</v>
+      </c>
+      <c r="V35" s="3">
         <v>-900</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>-800</v>
       </c>
-      <c r="W35" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E38" s="2">
         <v>44377</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44286</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44196</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44104</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44012</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43921</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43830</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43738</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43646</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43555</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43465</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43373</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43281</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43190</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43100</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43008</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42916</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>39629</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>39538</v>
       </c>
-      <c r="W38" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2549,8 +2634,9 @@
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
-    </row>
-    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X39" s="3"/>
+    </row>
+    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2574,8 +2660,9 @@
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
-    </row>
-    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X40" s="3"/>
+    </row>
+    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -2598,11 +2685,11 @@
         <v>0</v>
       </c>
       <c r="J41" s="3">
+        <v>0</v>
+      </c>
+      <c r="K41" s="3">
         <v>100</v>
       </c>
-      <c r="K41" s="3">
-        <v>0</v>
-      </c>
       <c r="L41" s="3">
         <v>0</v>
       </c>
@@ -2621,8 +2708,8 @@
       <c r="Q41" s="3">
         <v>0</v>
       </c>
-      <c r="R41" s="3" t="s">
-        <v>3</v>
+      <c r="R41" s="3">
+        <v>0</v>
       </c>
       <c r="S41" s="3" t="s">
         <v>3</v>
@@ -2639,8 +2726,11 @@
       <c r="W41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2704,28 +2794,31 @@
       <c r="W42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D43" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E43" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F43" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G43" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H43" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I43" s="3" t="s">
-        <v>3</v>
+      <c r="D43" s="3">
+        <v>0</v>
+      </c>
+      <c r="E43" s="3">
+        <v>0</v>
+      </c>
+      <c r="F43" s="3">
+        <v>0</v>
+      </c>
+      <c r="G43" s="3">
+        <v>0</v>
+      </c>
+      <c r="H43" s="3">
+        <v>0</v>
+      </c>
+      <c r="I43" s="3">
+        <v>0</v>
       </c>
       <c r="J43" s="3">
         <v>0</v>
@@ -2751,8 +2844,8 @@
       <c r="Q43" s="3">
         <v>0</v>
       </c>
-      <c r="R43" s="3" t="s">
-        <v>3</v>
+      <c r="R43" s="3">
+        <v>0</v>
       </c>
       <c r="S43" s="3" t="s">
         <v>3</v>
@@ -2769,8 +2862,11 @@
       <c r="W43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2825,8 +2921,8 @@
       <c r="T44" s="3">
         <v>0</v>
       </c>
-      <c r="U44" s="3" t="s">
-        <v>3</v>
+      <c r="U44" s="3">
+        <v>0</v>
       </c>
       <c r="V44" s="3" t="s">
         <v>3</v>
@@ -2834,8 +2930,11 @@
       <c r="W44" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X44" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2848,11 +2947,11 @@
       <c r="F45" s="3">
         <v>0</v>
       </c>
-      <c r="G45" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H45" s="3">
-        <v>0</v>
+      <c r="G45" s="3">
+        <v>0</v>
+      </c>
+      <c r="H45" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="I45" s="3">
         <v>0</v>
@@ -2860,8 +2959,8 @@
       <c r="J45" s="3">
         <v>0</v>
       </c>
-      <c r="K45" s="3" t="s">
-        <v>3</v>
+      <c r="K45" s="3">
+        <v>0</v>
       </c>
       <c r="L45" s="3" t="s">
         <v>3</v>
@@ -2869,8 +2968,8 @@
       <c r="M45" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N45" s="3">
-        <v>0</v>
+      <c r="N45" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="O45" s="3">
         <v>0</v>
@@ -2881,8 +2980,8 @@
       <c r="Q45" s="3">
         <v>0</v>
       </c>
-      <c r="R45" s="3" t="s">
-        <v>3</v>
+      <c r="R45" s="3">
+        <v>0</v>
       </c>
       <c r="S45" s="3" t="s">
         <v>3</v>
@@ -2899,8 +2998,11 @@
       <c r="W45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2920,7 +3022,7 @@
         <v>0</v>
       </c>
       <c r="I46" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J46" s="3">
         <v>100</v>
@@ -2929,7 +3031,7 @@
         <v>100</v>
       </c>
       <c r="L46" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M46" s="3">
         <v>0</v>
@@ -2946,8 +3048,8 @@
       <c r="Q46" s="3">
         <v>0</v>
       </c>
-      <c r="R46" s="3" t="s">
-        <v>3</v>
+      <c r="R46" s="3">
+        <v>0</v>
       </c>
       <c r="S46" s="3" t="s">
         <v>3</v>
@@ -2964,8 +3066,11 @@
       <c r="W46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3020,8 +3125,8 @@
       <c r="T47" s="3">
         <v>0</v>
       </c>
-      <c r="U47" s="3" t="s">
-        <v>3</v>
+      <c r="U47" s="3">
+        <v>0</v>
       </c>
       <c r="V47" s="3" t="s">
         <v>3</v>
@@ -3029,8 +3134,11 @@
       <c r="W47" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -3085,8 +3193,8 @@
       <c r="T48" s="3">
         <v>0</v>
       </c>
-      <c r="U48" s="3" t="s">
-        <v>3</v>
+      <c r="U48" s="3">
+        <v>0</v>
       </c>
       <c r="V48" s="3" t="s">
         <v>3</v>
@@ -3094,8 +3202,11 @@
       <c r="W48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3150,8 +3261,8 @@
       <c r="T49" s="3">
         <v>0</v>
       </c>
-      <c r="U49" s="3" t="s">
-        <v>3</v>
+      <c r="U49" s="3">
+        <v>0</v>
       </c>
       <c r="V49" s="3" t="s">
         <v>3</v>
@@ -3159,8 +3270,11 @@
       <c r="W49" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X49" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3224,8 +3338,11 @@
       <c r="W50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3289,8 +3406,11 @@
       <c r="W51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3354,8 +3474,11 @@
       <c r="W52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3419,8 +3542,11 @@
       <c r="W53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
@@ -3440,7 +3566,7 @@
         <v>0</v>
       </c>
       <c r="I54" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J54" s="3">
         <v>100</v>
@@ -3449,7 +3575,7 @@
         <v>100</v>
       </c>
       <c r="L54" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M54" s="3">
         <v>0</v>
@@ -3466,8 +3592,8 @@
       <c r="Q54" s="3">
         <v>0</v>
       </c>
-      <c r="R54" s="3" t="s">
-        <v>3</v>
+      <c r="R54" s="3">
+        <v>0</v>
       </c>
       <c r="S54" s="3" t="s">
         <v>3</v>
@@ -3484,8 +3610,11 @@
       <c r="W54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3509,8 +3638,9 @@
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
-    </row>
-    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X55" s="3"/>
+    </row>
+    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3534,8 +3664,9 @@
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
-    </row>
-    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X56" s="3"/>
+    </row>
+    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -3581,8 +3712,8 @@
       <c r="Q57" s="3">
         <v>0</v>
       </c>
-      <c r="R57" s="3" t="s">
-        <v>3</v>
+      <c r="R57" s="3">
+        <v>0</v>
       </c>
       <c r="S57" s="3" t="s">
         <v>3</v>
@@ -3599,8 +3730,11 @@
       <c r="W57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3655,8 +3789,8 @@
       <c r="T58" s="3">
         <v>0</v>
       </c>
-      <c r="U58" s="3" t="s">
-        <v>3</v>
+      <c r="U58" s="3">
+        <v>0</v>
       </c>
       <c r="V58" s="3" t="s">
         <v>3</v>
@@ -3664,34 +3798,37 @@
       <c r="W58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>800</v>
+      </c>
+      <c r="E59" s="3">
         <v>700</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>500</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>400</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>300</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>200</v>
       </c>
-      <c r="I59" s="3">
-        <v>0</v>
-      </c>
       <c r="J59" s="3">
         <v>0</v>
       </c>
-      <c r="K59" s="3" t="s">
-        <v>3</v>
+      <c r="K59" s="3">
+        <v>0</v>
       </c>
       <c r="L59" s="3" t="s">
         <v>3</v>
@@ -3705,8 +3842,8 @@
       <c r="O59" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="P59" s="3">
-        <v>0</v>
+      <c r="P59" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="Q59" s="3">
         <v>0</v>
@@ -3720,8 +3857,8 @@
       <c r="T59" s="3">
         <v>0</v>
       </c>
-      <c r="U59" s="3" t="s">
-        <v>3</v>
+      <c r="U59" s="3">
+        <v>0</v>
       </c>
       <c r="V59" s="3" t="s">
         <v>3</v>
@@ -3729,29 +3866,32 @@
       <c r="W59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>800</v>
+      </c>
+      <c r="E60" s="3">
         <v>700</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>500</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>400</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>300</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>200</v>
       </c>
-      <c r="I60" s="3">
-        <v>0</v>
-      </c>
       <c r="J60" s="3">
         <v>0</v>
       </c>
@@ -3776,8 +3916,8 @@
       <c r="Q60" s="3">
         <v>0</v>
       </c>
-      <c r="R60" s="3" t="s">
-        <v>3</v>
+      <c r="R60" s="3">
+        <v>0</v>
       </c>
       <c r="S60" s="3" t="s">
         <v>3</v>
@@ -3794,8 +3934,11 @@
       <c r="W60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3859,8 +4002,11 @@
       <c r="W61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3924,8 +4070,11 @@
       <c r="W62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3989,8 +4138,11 @@
       <c r="W63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4054,8 +4206,11 @@
       <c r="W64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4119,29 +4274,32 @@
       <c r="W65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>800</v>
+      </c>
+      <c r="E66" s="3">
         <v>700</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>500</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>400</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>300</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>200</v>
       </c>
-      <c r="I66" s="3">
-        <v>0</v>
-      </c>
       <c r="J66" s="3">
         <v>0</v>
       </c>
@@ -4166,8 +4324,8 @@
       <c r="Q66" s="3">
         <v>0</v>
       </c>
-      <c r="R66" s="3" t="s">
-        <v>3</v>
+      <c r="R66" s="3">
+        <v>0</v>
       </c>
       <c r="S66" s="3" t="s">
         <v>3</v>
@@ -4184,8 +4342,11 @@
       <c r="W66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4209,8 +4370,9 @@
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
-    </row>
-    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X67" s="3"/>
+    </row>
+    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4274,8 +4436,11 @@
       <c r="W68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4339,8 +4504,11 @@
       <c r="W69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4404,8 +4572,11 @@
       <c r="W70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4469,34 +4640,37 @@
       <c r="W71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-159600</v>
+      </c>
+      <c r="E72" s="3">
         <v>-159400</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-159300</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-159200</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-159000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-158900</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-158800</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-800</v>
-      </c>
-      <c r="K72" s="3">
-        <v>-700</v>
       </c>
       <c r="L72" s="3">
         <v>-700</v>
@@ -4516,8 +4690,8 @@
       <c r="Q72" s="3">
         <v>-700</v>
       </c>
-      <c r="R72" s="3" t="s">
-        <v>3</v>
+      <c r="R72" s="3">
+        <v>-700</v>
       </c>
       <c r="S72" s="3" t="s">
         <v>3</v>
@@ -4534,8 +4708,11 @@
       <c r="W72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4599,8 +4776,11 @@
       <c r="W73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4664,8 +4844,11 @@
       <c r="W74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4729,29 +4912,32 @@
       <c r="W75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-700</v>
+      </c>
+      <c r="E76" s="3">
         <v>-600</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>-500</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>-400</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>-200</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>-100</v>
       </c>
-      <c r="I76" s="3">
-        <v>0</v>
-      </c>
       <c r="J76" s="3">
         <v>0</v>
       </c>
@@ -4776,8 +4962,8 @@
       <c r="Q76" s="3">
         <v>0</v>
       </c>
-      <c r="R76" s="3" t="s">
-        <v>3</v>
+      <c r="R76" s="3">
+        <v>0</v>
       </c>
       <c r="S76" s="3" t="s">
         <v>3</v>
@@ -4794,8 +4980,11 @@
       <c r="W76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4859,78 +5048,84 @@
       <c r="W77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E80" s="2">
         <v>44377</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44286</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44196</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44104</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44012</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43921</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43830</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43738</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43646</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43555</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43465</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43373</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43281</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43190</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43100</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43008</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42916</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>39629</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>39538</v>
       </c>
-      <c r="W80" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
@@ -4950,11 +5145,11 @@
         <v>-100</v>
       </c>
       <c r="I81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="J81" s="3">
         <v>-158000</v>
       </c>
-      <c r="J81" s="3">
-        <v>0</v>
-      </c>
       <c r="K81" s="3">
         <v>0</v>
       </c>
@@ -4986,16 +5181,19 @@
         <v>0</v>
       </c>
       <c r="U81" s="3">
+        <v>0</v>
+      </c>
+      <c r="V81" s="3">
         <v>-900</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>-800</v>
       </c>
-      <c r="W81" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5019,8 +5217,9 @@
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
-    </row>
-    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X82" s="3"/>
+    </row>
+    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5076,16 +5275,19 @@
         <v>0</v>
       </c>
       <c r="U83" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="V83" s="3">
         <v>100</v>
       </c>
-      <c r="W83" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="W83" s="3">
+        <v>100</v>
+      </c>
+      <c r="X83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5149,8 +5351,11 @@
       <c r="W84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5214,8 +5419,11 @@
       <c r="W85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5279,8 +5487,11 @@
       <c r="W86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5344,8 +5555,11 @@
       <c r="W87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5409,8 +5623,11 @@
       <c r="W88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -5466,16 +5683,19 @@
         <v>0</v>
       </c>
       <c r="U89" s="3">
+        <v>0</v>
+      </c>
+      <c r="V89" s="3">
         <v>-100</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>-200</v>
       </c>
-      <c r="W89" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5499,8 +5719,9 @@
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
-    </row>
-    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X90" s="3"/>
+    </row>
+    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -5559,13 +5780,16 @@
         <v>0</v>
       </c>
       <c r="V91" s="3">
+        <v>0</v>
+      </c>
+      <c r="W91" s="3">
         <v>-100</v>
       </c>
-      <c r="W91" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5629,8 +5853,11 @@
       <c r="W92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5694,8 +5921,11 @@
       <c r="W93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -5754,13 +5984,16 @@
         <v>0</v>
       </c>
       <c r="V94" s="3">
+        <v>0</v>
+      </c>
+      <c r="W94" s="3">
         <v>-100</v>
       </c>
-      <c r="W94" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5784,8 +6017,9 @@
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
-    </row>
-    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X95" s="3"/>
+    </row>
+    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5849,8 +6083,11 @@
       <c r="W96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5914,8 +6151,11 @@
       <c r="W97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5979,8 +6219,11 @@
       <c r="W98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6044,8 +6287,11 @@
       <c r="W99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -6101,16 +6347,19 @@
         <v>0</v>
       </c>
       <c r="U100" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="V100" s="3">
         <v>100</v>
       </c>
-      <c r="W100" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="W100" s="3">
+        <v>100</v>
+      </c>
+      <c r="X100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6174,8 +6423,11 @@
       <c r="W101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -6234,9 +6486,12 @@
         <v>0</v>
       </c>
       <c r="V102" s="3">
+        <v>0</v>
+      </c>
+      <c r="W102" s="3">
         <v>-200</v>
       </c>
-      <c r="W102" s="3" t="s">
+      <c r="X102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/BFNH_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/BFNH_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="92">
   <si>
     <t>BFNH</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:X102"/>
+  <dimension ref="A5:Y102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,104 +665,107 @@
     <col min="1" max="1" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E7" s="2">
         <v>44469</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44377</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44286</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44196</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44104</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44012</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43921</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43830</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43738</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43646</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43555</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43465</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43373</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43281</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43190</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43100</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43008</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42916</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>39629</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>39538</v>
       </c>
-      <c r="X7" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
@@ -821,16 +824,19 @@
         <v>0</v>
       </c>
       <c r="V8" s="3">
+        <v>0</v>
+      </c>
+      <c r="W8" s="3">
         <v>200</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>400</v>
       </c>
-      <c r="X8" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -858,8 +864,8 @@
       <c r="K9" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L9" s="3">
-        <v>0</v>
+      <c r="L9" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="M9" s="3">
         <v>0</v>
@@ -876,29 +882,32 @@
       <c r="Q9" s="3">
         <v>0</v>
       </c>
-      <c r="R9" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="S9" s="3">
-        <v>0</v>
-      </c>
-      <c r="T9" s="3" t="s">
-        <v>3</v>
+      <c r="R9" s="3">
+        <v>0</v>
+      </c>
+      <c r="S9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T9" s="3">
+        <v>0</v>
       </c>
       <c r="U9" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="V9" s="3">
-        <v>200</v>
+      <c r="V9" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="W9" s="3">
         <v>200</v>
       </c>
-      <c r="X9" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="X9" s="3">
+        <v>200</v>
+      </c>
+      <c r="Y9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -926,8 +935,8 @@
       <c r="K10" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L10" s="3">
-        <v>0</v>
+      <c r="L10" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="M10" s="3">
         <v>0</v>
@@ -944,29 +953,32 @@
       <c r="Q10" s="3">
         <v>0</v>
       </c>
-      <c r="R10" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="S10" s="3">
-        <v>0</v>
-      </c>
-      <c r="T10" s="3" t="s">
-        <v>3</v>
+      <c r="R10" s="3">
+        <v>0</v>
+      </c>
+      <c r="S10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T10" s="3">
+        <v>0</v>
       </c>
       <c r="U10" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="V10" s="3">
-        <v>0</v>
+      <c r="V10" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="W10" s="3">
+        <v>0</v>
+      </c>
+      <c r="X10" s="3">
         <v>200</v>
       </c>
-      <c r="X10" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -991,8 +1003,9 @@
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
-    </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y11" s="3"/>
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1050,17 +1063,20 @@
       <c r="U12" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="V12" s="3">
-        <v>300</v>
+      <c r="V12" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="W12" s="3">
         <v>300</v>
       </c>
-      <c r="X12" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="X12" s="3">
+        <v>300</v>
+      </c>
+      <c r="Y12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1127,8 +1143,11 @@
       <c r="X13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1195,8 +1214,11 @@
       <c r="X14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1263,8 +1285,11 @@
       <c r="X15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1286,8 +1311,9 @@
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
-    </row>
-    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y16" s="3"/>
+    </row>
+    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
@@ -1310,11 +1336,11 @@
         <v>100</v>
       </c>
       <c r="J17" s="3">
+        <v>100</v>
+      </c>
+      <c r="K17" s="3">
         <v>158000</v>
       </c>
-      <c r="K17" s="3">
-        <v>0</v>
-      </c>
       <c r="L17" s="3">
         <v>0</v>
       </c>
@@ -1346,16 +1372,19 @@
         <v>0</v>
       </c>
       <c r="V17" s="3">
-        <v>1100</v>
+        <v>0</v>
       </c>
       <c r="W17" s="3">
         <v>1100</v>
       </c>
-      <c r="X17" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="X17" s="3">
+        <v>1100</v>
+      </c>
+      <c r="Y17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1378,11 +1407,11 @@
         <v>-100</v>
       </c>
       <c r="J18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="K18" s="3">
         <v>-158000</v>
       </c>
-      <c r="K18" s="3">
-        <v>0</v>
-      </c>
       <c r="L18" s="3">
         <v>0</v>
       </c>
@@ -1414,16 +1443,19 @@
         <v>0</v>
       </c>
       <c r="V18" s="3">
+        <v>0</v>
+      </c>
+      <c r="W18" s="3">
         <v>-900</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>-700</v>
       </c>
-      <c r="X18" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1448,8 +1480,9 @@
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
-    </row>
-    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y19" s="3"/>
+    </row>
+    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1513,11 +1546,14 @@
       <c r="W20" s="3">
         <v>0</v>
       </c>
-      <c r="X20" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="X20" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1575,17 +1611,20 @@
       <c r="U21" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="V21" s="3">
+      <c r="V21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="W21" s="3">
         <v>-800</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>-700</v>
       </c>
-      <c r="X21" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1628,8 +1667,8 @@
       <c r="P22" s="3">
         <v>0</v>
       </c>
-      <c r="Q22" s="3" t="s">
-        <v>3</v>
+      <c r="Q22" s="3">
+        <v>0</v>
       </c>
       <c r="R22" s="3" t="s">
         <v>3</v>
@@ -1643,17 +1682,20 @@
       <c r="U22" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="V22" s="3">
+      <c r="V22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="W22" s="3">
         <v>100</v>
       </c>
-      <c r="W22" s="3">
-        <v>0</v>
-      </c>
-      <c r="X22" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="X22" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y22" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
@@ -1676,11 +1718,11 @@
         <v>-100</v>
       </c>
       <c r="J23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="K23" s="3">
         <v>-158000</v>
       </c>
-      <c r="K23" s="3">
-        <v>0</v>
-      </c>
       <c r="L23" s="3">
         <v>0</v>
       </c>
@@ -1712,16 +1754,19 @@
         <v>0</v>
       </c>
       <c r="V23" s="3">
+        <v>0</v>
+      </c>
+      <c r="W23" s="3">
         <v>-900</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>-700</v>
       </c>
-      <c r="X23" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1788,8 +1833,11 @@
       <c r="X24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1856,8 +1904,11 @@
       <c r="X25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
@@ -1880,11 +1931,11 @@
         <v>-100</v>
       </c>
       <c r="J26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="K26" s="3">
         <v>-158000</v>
       </c>
-      <c r="K26" s="3">
-        <v>0</v>
-      </c>
       <c r="L26" s="3">
         <v>0</v>
       </c>
@@ -1916,16 +1967,19 @@
         <v>0</v>
       </c>
       <c r="V26" s="3">
+        <v>0</v>
+      </c>
+      <c r="W26" s="3">
         <v>-900</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>-700</v>
       </c>
-      <c r="X26" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
@@ -1948,11 +2002,11 @@
         <v>-100</v>
       </c>
       <c r="J27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="K27" s="3">
         <v>-158000</v>
       </c>
-      <c r="K27" s="3">
-        <v>0</v>
-      </c>
       <c r="L27" s="3">
         <v>0</v>
       </c>
@@ -1984,16 +2038,19 @@
         <v>0</v>
       </c>
       <c r="V27" s="3">
+        <v>0</v>
+      </c>
+      <c r="W27" s="3">
         <v>-900</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>-800</v>
       </c>
-      <c r="X27" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2060,8 +2117,11 @@
       <c r="X28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2128,8 +2188,11 @@
       <c r="X29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2196,8 +2259,11 @@
       <c r="X30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2264,8 +2330,11 @@
       <c r="X31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2329,11 +2398,14 @@
       <c r="W32" s="3">
         <v>0</v>
       </c>
-      <c r="X32" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="X32" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
@@ -2356,11 +2428,11 @@
         <v>-100</v>
       </c>
       <c r="J33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="K33" s="3">
         <v>-158000</v>
       </c>
-      <c r="K33" s="3">
-        <v>0</v>
-      </c>
       <c r="L33" s="3">
         <v>0</v>
       </c>
@@ -2392,16 +2464,19 @@
         <v>0</v>
       </c>
       <c r="V33" s="3">
+        <v>0</v>
+      </c>
+      <c r="W33" s="3">
         <v>-900</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>-800</v>
       </c>
-      <c r="X33" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2468,8 +2543,11 @@
       <c r="X34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
@@ -2492,11 +2570,11 @@
         <v>-100</v>
       </c>
       <c r="J35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="K35" s="3">
         <v>-158000</v>
       </c>
-      <c r="K35" s="3">
-        <v>0</v>
-      </c>
       <c r="L35" s="3">
         <v>0</v>
       </c>
@@ -2528,89 +2606,95 @@
         <v>0</v>
       </c>
       <c r="V35" s="3">
+        <v>0</v>
+      </c>
+      <c r="W35" s="3">
         <v>-900</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>-800</v>
       </c>
-      <c r="X35" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E38" s="2">
         <v>44469</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44377</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44286</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44196</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44104</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44012</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43921</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43830</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43738</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43646</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43555</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43465</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43373</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43281</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43190</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43100</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43008</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42916</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>39629</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>39538</v>
       </c>
-      <c r="X38" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2635,8 +2719,9 @@
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
-    </row>
-    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y39" s="3"/>
+    </row>
+    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2661,8 +2746,9 @@
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
-    </row>
-    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y40" s="3"/>
+    </row>
+    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -2688,11 +2774,11 @@
         <v>0</v>
       </c>
       <c r="K41" s="3">
+        <v>0</v>
+      </c>
+      <c r="L41" s="3">
         <v>100</v>
       </c>
-      <c r="L41" s="3">
-        <v>0</v>
-      </c>
       <c r="M41" s="3">
         <v>0</v>
       </c>
@@ -2711,8 +2797,8 @@
       <c r="R41" s="3">
         <v>0</v>
       </c>
-      <c r="S41" s="3" t="s">
-        <v>3</v>
+      <c r="S41" s="3">
+        <v>0</v>
       </c>
       <c r="T41" s="3" t="s">
         <v>3</v>
@@ -2729,8 +2815,11 @@
       <c r="X41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2797,8 +2886,11 @@
       <c r="X42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2847,8 +2939,8 @@
       <c r="R43" s="3">
         <v>0</v>
       </c>
-      <c r="S43" s="3" t="s">
-        <v>3</v>
+      <c r="S43" s="3">
+        <v>0</v>
       </c>
       <c r="T43" s="3" t="s">
         <v>3</v>
@@ -2865,8 +2957,11 @@
       <c r="X43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2924,8 +3019,8 @@
       <c r="U44" s="3">
         <v>0</v>
       </c>
-      <c r="V44" s="3" t="s">
-        <v>3</v>
+      <c r="V44" s="3">
+        <v>0</v>
       </c>
       <c r="W44" s="3" t="s">
         <v>3</v>
@@ -2933,8 +3028,11 @@
       <c r="X44" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y44" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2950,11 +3048,11 @@
       <c r="G45" s="3">
         <v>0</v>
       </c>
-      <c r="H45" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I45" s="3">
-        <v>0</v>
+      <c r="H45" s="3">
+        <v>0</v>
+      </c>
+      <c r="I45" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="J45" s="3">
         <v>0</v>
@@ -2962,8 +3060,8 @@
       <c r="K45" s="3">
         <v>0</v>
       </c>
-      <c r="L45" s="3" t="s">
-        <v>3</v>
+      <c r="L45" s="3">
+        <v>0</v>
       </c>
       <c r="M45" s="3" t="s">
         <v>3</v>
@@ -2971,8 +3069,8 @@
       <c r="N45" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O45" s="3">
-        <v>0</v>
+      <c r="O45" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="P45" s="3">
         <v>0</v>
@@ -2983,8 +3081,8 @@
       <c r="R45" s="3">
         <v>0</v>
       </c>
-      <c r="S45" s="3" t="s">
-        <v>3</v>
+      <c r="S45" s="3">
+        <v>0</v>
       </c>
       <c r="T45" s="3" t="s">
         <v>3</v>
@@ -3001,8 +3099,11 @@
       <c r="X45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -3025,7 +3126,7 @@
         <v>0</v>
       </c>
       <c r="J46" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K46" s="3">
         <v>100</v>
@@ -3034,7 +3135,7 @@
         <v>100</v>
       </c>
       <c r="M46" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N46" s="3">
         <v>0</v>
@@ -3051,8 +3152,8 @@
       <c r="R46" s="3">
         <v>0</v>
       </c>
-      <c r="S46" s="3" t="s">
-        <v>3</v>
+      <c r="S46" s="3">
+        <v>0</v>
       </c>
       <c r="T46" s="3" t="s">
         <v>3</v>
@@ -3069,8 +3170,11 @@
       <c r="X46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3128,8 +3232,8 @@
       <c r="U47" s="3">
         <v>0</v>
       </c>
-      <c r="V47" s="3" t="s">
-        <v>3</v>
+      <c r="V47" s="3">
+        <v>0</v>
       </c>
       <c r="W47" s="3" t="s">
         <v>3</v>
@@ -3137,8 +3241,11 @@
       <c r="X47" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -3196,8 +3303,8 @@
       <c r="U48" s="3">
         <v>0</v>
       </c>
-      <c r="V48" s="3" t="s">
-        <v>3</v>
+      <c r="V48" s="3">
+        <v>0</v>
       </c>
       <c r="W48" s="3" t="s">
         <v>3</v>
@@ -3205,8 +3312,11 @@
       <c r="X48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3264,8 +3374,8 @@
       <c r="U49" s="3">
         <v>0</v>
       </c>
-      <c r="V49" s="3" t="s">
-        <v>3</v>
+      <c r="V49" s="3">
+        <v>0</v>
       </c>
       <c r="W49" s="3" t="s">
         <v>3</v>
@@ -3273,8 +3383,11 @@
       <c r="X49" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y49" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3341,8 +3454,11 @@
       <c r="X50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3409,8 +3525,11 @@
       <c r="X51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3477,8 +3596,11 @@
       <c r="X52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3545,8 +3667,11 @@
       <c r="X53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
@@ -3569,7 +3694,7 @@
         <v>0</v>
       </c>
       <c r="J54" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K54" s="3">
         <v>100</v>
@@ -3578,7 +3703,7 @@
         <v>100</v>
       </c>
       <c r="M54" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N54" s="3">
         <v>0</v>
@@ -3595,8 +3720,8 @@
       <c r="R54" s="3">
         <v>0</v>
       </c>
-      <c r="S54" s="3" t="s">
-        <v>3</v>
+      <c r="S54" s="3">
+        <v>0</v>
       </c>
       <c r="T54" s="3" t="s">
         <v>3</v>
@@ -3613,8 +3738,11 @@
       <c r="X54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3639,8 +3767,9 @@
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
-    </row>
-    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y55" s="3"/>
+    </row>
+    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3665,8 +3794,9 @@
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
-    </row>
-    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y56" s="3"/>
+    </row>
+    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -3715,8 +3845,8 @@
       <c r="R57" s="3">
         <v>0</v>
       </c>
-      <c r="S57" s="3" t="s">
-        <v>3</v>
+      <c r="S57" s="3">
+        <v>0</v>
       </c>
       <c r="T57" s="3" t="s">
         <v>3</v>
@@ -3733,8 +3863,11 @@
       <c r="X57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3792,8 +3925,8 @@
       <c r="U58" s="3">
         <v>0</v>
       </c>
-      <c r="V58" s="3" t="s">
-        <v>3</v>
+      <c r="V58" s="3">
+        <v>0</v>
       </c>
       <c r="W58" s="3" t="s">
         <v>3</v>
@@ -3801,37 +3934,40 @@
       <c r="X58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>900</v>
+      </c>
+      <c r="E59" s="3">
         <v>800</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>700</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>500</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>400</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>300</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>200</v>
       </c>
-      <c r="J59" s="3">
-        <v>0</v>
-      </c>
       <c r="K59" s="3">
         <v>0</v>
       </c>
-      <c r="L59" s="3" t="s">
-        <v>3</v>
+      <c r="L59" s="3">
+        <v>0</v>
       </c>
       <c r="M59" s="3" t="s">
         <v>3</v>
@@ -3845,8 +3981,8 @@
       <c r="P59" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="Q59" s="3">
-        <v>0</v>
+      <c r="Q59" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="R59" s="3">
         <v>0</v>
@@ -3860,8 +3996,8 @@
       <c r="U59" s="3">
         <v>0</v>
       </c>
-      <c r="V59" s="3" t="s">
-        <v>3</v>
+      <c r="V59" s="3">
+        <v>0</v>
       </c>
       <c r="W59" s="3" t="s">
         <v>3</v>
@@ -3869,32 +4005,35 @@
       <c r="X59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>900</v>
+      </c>
+      <c r="E60" s="3">
         <v>800</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>700</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>500</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>400</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>300</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>200</v>
       </c>
-      <c r="J60" s="3">
-        <v>0</v>
-      </c>
       <c r="K60" s="3">
         <v>0</v>
       </c>
@@ -3919,8 +4058,8 @@
       <c r="R60" s="3">
         <v>0</v>
       </c>
-      <c r="S60" s="3" t="s">
-        <v>3</v>
+      <c r="S60" s="3">
+        <v>0</v>
       </c>
       <c r="T60" s="3" t="s">
         <v>3</v>
@@ -3937,8 +4076,11 @@
       <c r="X60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -4005,8 +4147,11 @@
       <c r="X61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -4073,8 +4218,11 @@
       <c r="X62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4141,8 +4289,11 @@
       <c r="X63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4209,8 +4360,11 @@
       <c r="X64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4277,32 +4431,35 @@
       <c r="X65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>900</v>
+      </c>
+      <c r="E66" s="3">
         <v>800</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>700</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>500</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>400</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>300</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>200</v>
       </c>
-      <c r="J66" s="3">
-        <v>0</v>
-      </c>
       <c r="K66" s="3">
         <v>0</v>
       </c>
@@ -4327,8 +4484,8 @@
       <c r="R66" s="3">
         <v>0</v>
       </c>
-      <c r="S66" s="3" t="s">
-        <v>3</v>
+      <c r="S66" s="3">
+        <v>0</v>
       </c>
       <c r="T66" s="3" t="s">
         <v>3</v>
@@ -4345,8 +4502,11 @@
       <c r="X66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4371,8 +4531,9 @@
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
-    </row>
-    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y67" s="3"/>
+    </row>
+    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4439,8 +4600,11 @@
       <c r="X68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4507,8 +4671,11 @@
       <c r="X69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4575,8 +4742,11 @@
       <c r="X70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4643,37 +4813,40 @@
       <c r="X71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-159700</v>
+      </c>
+      <c r="E72" s="3">
         <v>-159600</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-159400</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-159300</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-159200</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-159000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-158900</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-158800</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-800</v>
-      </c>
-      <c r="L72" s="3">
-        <v>-700</v>
       </c>
       <c r="M72" s="3">
         <v>-700</v>
@@ -4693,8 +4866,8 @@
       <c r="R72" s="3">
         <v>-700</v>
       </c>
-      <c r="S72" s="3" t="s">
-        <v>3</v>
+      <c r="S72" s="3">
+        <v>-700</v>
       </c>
       <c r="T72" s="3" t="s">
         <v>3</v>
@@ -4711,8 +4884,11 @@
       <c r="X72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4779,8 +4955,11 @@
       <c r="X73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4847,8 +5026,11 @@
       <c r="X74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4915,32 +5097,35 @@
       <c r="X75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-900</v>
+      </c>
+      <c r="E76" s="3">
         <v>-700</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>-600</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>-500</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>-400</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>-200</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>-100</v>
       </c>
-      <c r="J76" s="3">
-        <v>0</v>
-      </c>
       <c r="K76" s="3">
         <v>0</v>
       </c>
@@ -4965,8 +5150,8 @@
       <c r="R76" s="3">
         <v>0</v>
       </c>
-      <c r="S76" s="3" t="s">
-        <v>3</v>
+      <c r="S76" s="3">
+        <v>0</v>
       </c>
       <c r="T76" s="3" t="s">
         <v>3</v>
@@ -4983,8 +5168,11 @@
       <c r="X76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5051,81 +5239,87 @@
       <c r="X77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E80" s="2">
         <v>44469</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44377</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44286</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44196</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44104</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44012</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43921</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43830</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43738</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43646</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43555</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43465</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43373</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43281</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43190</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43100</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43008</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42916</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>39629</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>39538</v>
       </c>
-      <c r="X80" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
@@ -5148,11 +5342,11 @@
         <v>-100</v>
       </c>
       <c r="J81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="K81" s="3">
         <v>-158000</v>
       </c>
-      <c r="K81" s="3">
-        <v>0</v>
-      </c>
       <c r="L81" s="3">
         <v>0</v>
       </c>
@@ -5184,16 +5378,19 @@
         <v>0</v>
       </c>
       <c r="V81" s="3">
+        <v>0</v>
+      </c>
+      <c r="W81" s="3">
         <v>-900</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>-800</v>
       </c>
-      <c r="X81" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5218,8 +5415,9 @@
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
-    </row>
-    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y82" s="3"/>
+    </row>
+    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5278,16 +5476,19 @@
         <v>0</v>
       </c>
       <c r="V83" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="W83" s="3">
         <v>100</v>
       </c>
-      <c r="X83" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="X83" s="3">
+        <v>100</v>
+      </c>
+      <c r="Y83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5354,8 +5555,11 @@
       <c r="X84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5422,8 +5626,11 @@
       <c r="X85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5490,8 +5697,11 @@
       <c r="X86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5558,8 +5768,11 @@
       <c r="X87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5626,8 +5839,11 @@
       <c r="X88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -5686,16 +5902,19 @@
         <v>0</v>
       </c>
       <c r="V89" s="3">
+        <v>0</v>
+      </c>
+      <c r="W89" s="3">
         <v>-100</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>-200</v>
       </c>
-      <c r="X89" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5720,8 +5939,9 @@
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
-    </row>
-    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y90" s="3"/>
+    </row>
+    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -5783,13 +6003,16 @@
         <v>0</v>
       </c>
       <c r="W91" s="3">
+        <v>0</v>
+      </c>
+      <c r="X91" s="3">
         <v>-100</v>
       </c>
-      <c r="X91" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5856,8 +6079,11 @@
       <c r="X92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5924,8 +6150,11 @@
       <c r="X93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -5987,13 +6216,16 @@
         <v>0</v>
       </c>
       <c r="W94" s="3">
+        <v>0</v>
+      </c>
+      <c r="X94" s="3">
         <v>-100</v>
       </c>
-      <c r="X94" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6018,8 +6250,9 @@
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
-    </row>
-    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y95" s="3"/>
+    </row>
+    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6086,8 +6319,11 @@
       <c r="X96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6154,8 +6390,11 @@
       <c r="X97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6222,8 +6461,11 @@
       <c r="X98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6290,8 +6532,11 @@
       <c r="X99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -6350,16 +6595,19 @@
         <v>0</v>
       </c>
       <c r="V100" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="W100" s="3">
         <v>100</v>
       </c>
-      <c r="X100" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="X100" s="3">
+        <v>100</v>
+      </c>
+      <c r="Y100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6426,8 +6674,11 @@
       <c r="X101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -6489,9 +6740,12 @@
         <v>0</v>
       </c>
       <c r="W102" s="3">
+        <v>0</v>
+      </c>
+      <c r="X102" s="3">
         <v>-200</v>
       </c>
-      <c r="X102" s="3" t="s">
+      <c r="Y102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/BFNH_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/BFNH_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="92">
   <si>
     <t>BFNH</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Y102"/>
+  <dimension ref="A5:Z102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,107 +665,111 @@
     <col min="1" max="1" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E7" s="2">
         <v>44561</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44469</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44377</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44286</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44196</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44104</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44012</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43921</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43830</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43738</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43646</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43555</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43465</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43373</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43281</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43190</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43100</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43008</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42916</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>39629</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>39538</v>
       </c>
-      <c r="Y7" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
@@ -827,16 +831,19 @@
         <v>0</v>
       </c>
       <c r="W8" s="3">
+        <v>0</v>
+      </c>
+      <c r="X8" s="3">
         <v>200</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>400</v>
       </c>
-      <c r="Y8" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -867,8 +874,8 @@
       <c r="L9" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M9" s="3">
-        <v>0</v>
+      <c r="M9" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="N9" s="3">
         <v>0</v>
@@ -885,29 +892,32 @@
       <c r="R9" s="3">
         <v>0</v>
       </c>
-      <c r="S9" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="T9" s="3">
-        <v>0</v>
-      </c>
-      <c r="U9" s="3" t="s">
-        <v>3</v>
+      <c r="S9" s="3">
+        <v>0</v>
+      </c>
+      <c r="T9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U9" s="3">
+        <v>0</v>
       </c>
       <c r="V9" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="W9" s="3">
-        <v>200</v>
+      <c r="W9" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="X9" s="3">
         <v>200</v>
       </c>
-      <c r="Y9" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Y9" s="3">
+        <v>200</v>
+      </c>
+      <c r="Z9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -938,8 +948,8 @@
       <c r="L10" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M10" s="3">
-        <v>0</v>
+      <c r="M10" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="N10" s="3">
         <v>0</v>
@@ -956,29 +966,32 @@
       <c r="R10" s="3">
         <v>0</v>
       </c>
-      <c r="S10" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="T10" s="3">
-        <v>0</v>
-      </c>
-      <c r="U10" s="3" t="s">
-        <v>3</v>
+      <c r="S10" s="3">
+        <v>0</v>
+      </c>
+      <c r="T10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U10" s="3">
+        <v>0</v>
       </c>
       <c r="V10" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="W10" s="3">
-        <v>0</v>
+      <c r="W10" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="X10" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y10" s="3">
         <v>200</v>
       </c>
-      <c r="Y10" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1004,8 +1017,9 @@
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
       <c r="Y11" s="3"/>
-    </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z11" s="3"/>
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1066,17 +1080,20 @@
       <c r="V12" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="W12" s="3">
-        <v>300</v>
+      <c r="W12" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="X12" s="3">
         <v>300</v>
       </c>
-      <c r="Y12" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Y12" s="3">
+        <v>300</v>
+      </c>
+      <c r="Z12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1146,8 +1163,11 @@
       <c r="Y13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1217,8 +1237,11 @@
       <c r="Y14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1288,8 +1311,11 @@
       <c r="Y15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1312,8 +1338,9 @@
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
-    </row>
-    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z16" s="3"/>
+    </row>
+    <row r="17" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
@@ -1339,11 +1366,11 @@
         <v>100</v>
       </c>
       <c r="K17" s="3">
+        <v>100</v>
+      </c>
+      <c r="L17" s="3">
         <v>158000</v>
       </c>
-      <c r="L17" s="3">
-        <v>0</v>
-      </c>
       <c r="M17" s="3">
         <v>0</v>
       </c>
@@ -1375,16 +1402,19 @@
         <v>0</v>
       </c>
       <c r="W17" s="3">
-        <v>1100</v>
+        <v>0</v>
       </c>
       <c r="X17" s="3">
         <v>1100</v>
       </c>
-      <c r="Y17" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Y17" s="3">
+        <v>1100</v>
+      </c>
+      <c r="Z17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1410,11 +1440,11 @@
         <v>-100</v>
       </c>
       <c r="K18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="L18" s="3">
         <v>-158000</v>
       </c>
-      <c r="L18" s="3">
-        <v>0</v>
-      </c>
       <c r="M18" s="3">
         <v>0</v>
       </c>
@@ -1446,16 +1476,19 @@
         <v>0</v>
       </c>
       <c r="W18" s="3">
+        <v>0</v>
+      </c>
+      <c r="X18" s="3">
         <v>-900</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>-700</v>
       </c>
-      <c r="Y18" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1481,8 +1514,9 @@
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
-    </row>
-    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z19" s="3"/>
+    </row>
+    <row r="20" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1549,11 +1583,14 @@
       <c r="X20" s="3">
         <v>0</v>
       </c>
-      <c r="Y20" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Y20" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1614,17 +1651,20 @@
       <c r="V21" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="W21" s="3">
+      <c r="W21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="X21" s="3">
         <v>-800</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>-700</v>
       </c>
-      <c r="Y21" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1670,8 +1710,8 @@
       <c r="Q22" s="3">
         <v>0</v>
       </c>
-      <c r="R22" s="3" t="s">
-        <v>3</v>
+      <c r="R22" s="3">
+        <v>0</v>
       </c>
       <c r="S22" s="3" t="s">
         <v>3</v>
@@ -1685,17 +1725,20 @@
       <c r="V22" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="W22" s="3">
+      <c r="W22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="X22" s="3">
         <v>100</v>
       </c>
-      <c r="X22" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y22" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Y22" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z22" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
@@ -1721,11 +1764,11 @@
         <v>-100</v>
       </c>
       <c r="K23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="L23" s="3">
         <v>-158000</v>
       </c>
-      <c r="L23" s="3">
-        <v>0</v>
-      </c>
       <c r="M23" s="3">
         <v>0</v>
       </c>
@@ -1757,16 +1800,19 @@
         <v>0</v>
       </c>
       <c r="W23" s="3">
+        <v>0</v>
+      </c>
+      <c r="X23" s="3">
         <v>-900</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>-700</v>
       </c>
-      <c r="Y23" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1836,8 +1882,11 @@
       <c r="Y24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1907,8 +1956,11 @@
       <c r="Y25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
@@ -1934,11 +1986,11 @@
         <v>-100</v>
       </c>
       <c r="K26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="L26" s="3">
         <v>-158000</v>
       </c>
-      <c r="L26" s="3">
-        <v>0</v>
-      </c>
       <c r="M26" s="3">
         <v>0</v>
       </c>
@@ -1970,16 +2022,19 @@
         <v>0</v>
       </c>
       <c r="W26" s="3">
+        <v>0</v>
+      </c>
+      <c r="X26" s="3">
         <v>-900</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>-700</v>
       </c>
-      <c r="Y26" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
@@ -2005,11 +2060,11 @@
         <v>-100</v>
       </c>
       <c r="K27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="L27" s="3">
         <v>-158000</v>
       </c>
-      <c r="L27" s="3">
-        <v>0</v>
-      </c>
       <c r="M27" s="3">
         <v>0</v>
       </c>
@@ -2041,16 +2096,19 @@
         <v>0</v>
       </c>
       <c r="W27" s="3">
+        <v>0</v>
+      </c>
+      <c r="X27" s="3">
         <v>-900</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>-800</v>
       </c>
-      <c r="Y27" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2120,8 +2178,11 @@
       <c r="Y28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2191,8 +2252,11 @@
       <c r="Y29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2262,8 +2326,11 @@
       <c r="Y30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2333,8 +2400,11 @@
       <c r="Y31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2401,11 +2471,14 @@
       <c r="X32" s="3">
         <v>0</v>
       </c>
-      <c r="Y32" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Y32" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
@@ -2431,11 +2504,11 @@
         <v>-100</v>
       </c>
       <c r="K33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="L33" s="3">
         <v>-158000</v>
       </c>
-      <c r="L33" s="3">
-        <v>0</v>
-      </c>
       <c r="M33" s="3">
         <v>0</v>
       </c>
@@ -2467,16 +2540,19 @@
         <v>0</v>
       </c>
       <c r="W33" s="3">
+        <v>0</v>
+      </c>
+      <c r="X33" s="3">
         <v>-900</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>-800</v>
       </c>
-      <c r="Y33" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2546,8 +2622,11 @@
       <c r="Y34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
@@ -2573,11 +2652,11 @@
         <v>-100</v>
       </c>
       <c r="K35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="L35" s="3">
         <v>-158000</v>
       </c>
-      <c r="L35" s="3">
-        <v>0</v>
-      </c>
       <c r="M35" s="3">
         <v>0</v>
       </c>
@@ -2609,92 +2688,98 @@
         <v>0</v>
       </c>
       <c r="W35" s="3">
+        <v>0</v>
+      </c>
+      <c r="X35" s="3">
         <v>-900</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>-800</v>
       </c>
-      <c r="Y35" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E38" s="2">
         <v>44561</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44469</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44377</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44286</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44196</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44104</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44012</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43921</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43830</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43738</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43646</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43555</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43465</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43373</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43281</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43190</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43100</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43008</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42916</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>39629</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>39538</v>
       </c>
-      <c r="Y38" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2720,8 +2805,9 @@
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
       <c r="Y39" s="3"/>
-    </row>
-    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z39" s="3"/>
+    </row>
+    <row r="40" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2747,8 +2833,9 @@
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
       <c r="Y40" s="3"/>
-    </row>
-    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z40" s="3"/>
+    </row>
+    <row r="41" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -2777,11 +2864,11 @@
         <v>0</v>
       </c>
       <c r="L41" s="3">
+        <v>0</v>
+      </c>
+      <c r="M41" s="3">
         <v>100</v>
       </c>
-      <c r="M41" s="3">
-        <v>0</v>
-      </c>
       <c r="N41" s="3">
         <v>0</v>
       </c>
@@ -2800,8 +2887,8 @@
       <c r="S41" s="3">
         <v>0</v>
       </c>
-      <c r="T41" s="3" t="s">
-        <v>3</v>
+      <c r="T41" s="3">
+        <v>0</v>
       </c>
       <c r="U41" s="3" t="s">
         <v>3</v>
@@ -2818,8 +2905,11 @@
       <c r="Y41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2889,8 +2979,11 @@
       <c r="Y42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2942,8 +3035,8 @@
       <c r="S43" s="3">
         <v>0</v>
       </c>
-      <c r="T43" s="3" t="s">
-        <v>3</v>
+      <c r="T43" s="3">
+        <v>0</v>
       </c>
       <c r="U43" s="3" t="s">
         <v>3</v>
@@ -2960,8 +3053,11 @@
       <c r="Y43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3022,8 +3118,8 @@
       <c r="V44" s="3">
         <v>0</v>
       </c>
-      <c r="W44" s="3" t="s">
-        <v>3</v>
+      <c r="W44" s="3">
+        <v>0</v>
       </c>
       <c r="X44" s="3" t="s">
         <v>3</v>
@@ -3031,8 +3127,11 @@
       <c r="Y44" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z44" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -3051,11 +3150,11 @@
       <c r="H45" s="3">
         <v>0</v>
       </c>
-      <c r="I45" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J45" s="3">
-        <v>0</v>
+      <c r="I45" s="3">
+        <v>0</v>
+      </c>
+      <c r="J45" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K45" s="3">
         <v>0</v>
@@ -3063,8 +3162,8 @@
       <c r="L45" s="3">
         <v>0</v>
       </c>
-      <c r="M45" s="3" t="s">
-        <v>3</v>
+      <c r="M45" s="3">
+        <v>0</v>
       </c>
       <c r="N45" s="3" t="s">
         <v>3</v>
@@ -3072,8 +3171,8 @@
       <c r="O45" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="P45" s="3">
-        <v>0</v>
+      <c r="P45" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="Q45" s="3">
         <v>0</v>
@@ -3084,8 +3183,8 @@
       <c r="S45" s="3">
         <v>0</v>
       </c>
-      <c r="T45" s="3" t="s">
-        <v>3</v>
+      <c r="T45" s="3">
+        <v>0</v>
       </c>
       <c r="U45" s="3" t="s">
         <v>3</v>
@@ -3102,8 +3201,11 @@
       <c r="Y45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -3129,7 +3231,7 @@
         <v>0</v>
       </c>
       <c r="K46" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L46" s="3">
         <v>100</v>
@@ -3138,7 +3240,7 @@
         <v>100</v>
       </c>
       <c r="N46" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O46" s="3">
         <v>0</v>
@@ -3155,8 +3257,8 @@
       <c r="S46" s="3">
         <v>0</v>
       </c>
-      <c r="T46" s="3" t="s">
-        <v>3</v>
+      <c r="T46" s="3">
+        <v>0</v>
       </c>
       <c r="U46" s="3" t="s">
         <v>3</v>
@@ -3173,8 +3275,11 @@
       <c r="Y46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3235,8 +3340,8 @@
       <c r="V47" s="3">
         <v>0</v>
       </c>
-      <c r="W47" s="3" t="s">
-        <v>3</v>
+      <c r="W47" s="3">
+        <v>0</v>
       </c>
       <c r="X47" s="3" t="s">
         <v>3</v>
@@ -3244,8 +3349,11 @@
       <c r="Y47" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -3306,8 +3414,8 @@
       <c r="V48" s="3">
         <v>0</v>
       </c>
-      <c r="W48" s="3" t="s">
-        <v>3</v>
+      <c r="W48" s="3">
+        <v>0</v>
       </c>
       <c r="X48" s="3" t="s">
         <v>3</v>
@@ -3315,8 +3423,11 @@
       <c r="Y48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3377,8 +3488,8 @@
       <c r="V49" s="3">
         <v>0</v>
       </c>
-      <c r="W49" s="3" t="s">
-        <v>3</v>
+      <c r="W49" s="3">
+        <v>0</v>
       </c>
       <c r="X49" s="3" t="s">
         <v>3</v>
@@ -3386,8 +3497,11 @@
       <c r="Y49" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z49" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3457,8 +3571,11 @@
       <c r="Y50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3528,8 +3645,11 @@
       <c r="Y51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3599,8 +3719,11 @@
       <c r="Y52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3670,8 +3793,11 @@
       <c r="Y53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
@@ -3697,7 +3823,7 @@
         <v>0</v>
       </c>
       <c r="K54" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L54" s="3">
         <v>100</v>
@@ -3706,7 +3832,7 @@
         <v>100</v>
       </c>
       <c r="N54" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O54" s="3">
         <v>0</v>
@@ -3723,8 +3849,8 @@
       <c r="S54" s="3">
         <v>0</v>
       </c>
-      <c r="T54" s="3" t="s">
-        <v>3</v>
+      <c r="T54" s="3">
+        <v>0</v>
       </c>
       <c r="U54" s="3" t="s">
         <v>3</v>
@@ -3741,8 +3867,11 @@
       <c r="Y54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3768,8 +3897,9 @@
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
       <c r="Y55" s="3"/>
-    </row>
-    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z55" s="3"/>
+    </row>
+    <row r="56" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3795,8 +3925,9 @@
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
       <c r="Y56" s="3"/>
-    </row>
-    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z56" s="3"/>
+    </row>
+    <row r="57" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -3848,8 +3979,8 @@
       <c r="S57" s="3">
         <v>0</v>
       </c>
-      <c r="T57" s="3" t="s">
-        <v>3</v>
+      <c r="T57" s="3">
+        <v>0</v>
       </c>
       <c r="U57" s="3" t="s">
         <v>3</v>
@@ -3866,8 +3997,11 @@
       <c r="Y57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3928,8 +4062,8 @@
       <c r="V58" s="3">
         <v>0</v>
       </c>
-      <c r="W58" s="3" t="s">
-        <v>3</v>
+      <c r="W58" s="3">
+        <v>0</v>
       </c>
       <c r="X58" s="3" t="s">
         <v>3</v>
@@ -3937,40 +4071,43 @@
       <c r="Y58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E59" s="3">
         <v>900</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>800</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>700</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>500</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>400</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>300</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>200</v>
       </c>
-      <c r="K59" s="3">
-        <v>0</v>
-      </c>
       <c r="L59" s="3">
         <v>0</v>
       </c>
-      <c r="M59" s="3" t="s">
-        <v>3</v>
+      <c r="M59" s="3">
+        <v>0</v>
       </c>
       <c r="N59" s="3" t="s">
         <v>3</v>
@@ -3984,8 +4121,8 @@
       <c r="Q59" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="R59" s="3">
-        <v>0</v>
+      <c r="R59" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="S59" s="3">
         <v>0</v>
@@ -3999,8 +4136,8 @@
       <c r="V59" s="3">
         <v>0</v>
       </c>
-      <c r="W59" s="3" t="s">
-        <v>3</v>
+      <c r="W59" s="3">
+        <v>0</v>
       </c>
       <c r="X59" s="3" t="s">
         <v>3</v>
@@ -4008,35 +4145,38 @@
       <c r="Y59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E60" s="3">
         <v>900</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>800</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>700</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>500</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>400</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>300</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>200</v>
       </c>
-      <c r="K60" s="3">
-        <v>0</v>
-      </c>
       <c r="L60" s="3">
         <v>0</v>
       </c>
@@ -4061,8 +4201,8 @@
       <c r="S60" s="3">
         <v>0</v>
       </c>
-      <c r="T60" s="3" t="s">
-        <v>3</v>
+      <c r="T60" s="3">
+        <v>0</v>
       </c>
       <c r="U60" s="3" t="s">
         <v>3</v>
@@ -4079,8 +4219,11 @@
       <c r="Y60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -4150,8 +4293,11 @@
       <c r="Y61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -4221,8 +4367,11 @@
       <c r="Y62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4292,8 +4441,11 @@
       <c r="Y63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4363,8 +4515,11 @@
       <c r="Y64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4434,35 +4589,38 @@
       <c r="Y65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E66" s="3">
         <v>900</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>800</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>700</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>500</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>400</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>300</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>200</v>
       </c>
-      <c r="K66" s="3">
-        <v>0</v>
-      </c>
       <c r="L66" s="3">
         <v>0</v>
       </c>
@@ -4487,8 +4645,8 @@
       <c r="S66" s="3">
         <v>0</v>
       </c>
-      <c r="T66" s="3" t="s">
-        <v>3</v>
+      <c r="T66" s="3">
+        <v>0</v>
       </c>
       <c r="U66" s="3" t="s">
         <v>3</v>
@@ -4505,8 +4663,11 @@
       <c r="Y66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4532,8 +4693,9 @@
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
       <c r="Y67" s="3"/>
-    </row>
-    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z67" s="3"/>
+    </row>
+    <row r="68" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4603,8 +4765,11 @@
       <c r="Y68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4674,8 +4839,11 @@
       <c r="Y69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4745,8 +4913,11 @@
       <c r="Y70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4816,40 +4987,43 @@
       <c r="Y71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-159800</v>
+      </c>
+      <c r="E72" s="3">
         <v>-159700</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-159600</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-159400</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-159300</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-159200</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-159000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-158900</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-158800</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-800</v>
-      </c>
-      <c r="M72" s="3">
-        <v>-700</v>
       </c>
       <c r="N72" s="3">
         <v>-700</v>
@@ -4869,8 +5043,8 @@
       <c r="S72" s="3">
         <v>-700</v>
       </c>
-      <c r="T72" s="3" t="s">
-        <v>3</v>
+      <c r="T72" s="3">
+        <v>-700</v>
       </c>
       <c r="U72" s="3" t="s">
         <v>3</v>
@@ -4887,8 +5061,11 @@
       <c r="Y72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4958,8 +5135,11 @@
       <c r="Y73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5029,8 +5209,11 @@
       <c r="Y74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5100,35 +5283,38 @@
       <c r="Y75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="E76" s="3">
         <v>-900</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>-700</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>-600</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>-500</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>-400</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>-200</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>-100</v>
       </c>
-      <c r="K76" s="3">
-        <v>0</v>
-      </c>
       <c r="L76" s="3">
         <v>0</v>
       </c>
@@ -5153,8 +5339,8 @@
       <c r="S76" s="3">
         <v>0</v>
       </c>
-      <c r="T76" s="3" t="s">
-        <v>3</v>
+      <c r="T76" s="3">
+        <v>0</v>
       </c>
       <c r="U76" s="3" t="s">
         <v>3</v>
@@ -5171,8 +5357,11 @@
       <c r="Y76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5242,84 +5431,90 @@
       <c r="Y77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E80" s="2">
         <v>44561</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44469</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44377</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44286</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44196</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44104</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44012</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43921</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43830</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43738</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43646</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43555</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43465</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43373</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43281</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43190</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43100</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43008</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42916</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>39629</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>39538</v>
       </c>
-      <c r="Y80" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
@@ -5345,11 +5540,11 @@
         <v>-100</v>
       </c>
       <c r="K81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="L81" s="3">
         <v>-158000</v>
       </c>
-      <c r="L81" s="3">
-        <v>0</v>
-      </c>
       <c r="M81" s="3">
         <v>0</v>
       </c>
@@ -5381,16 +5576,19 @@
         <v>0</v>
       </c>
       <c r="W81" s="3">
+        <v>0</v>
+      </c>
+      <c r="X81" s="3">
         <v>-900</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>-800</v>
       </c>
-      <c r="Y81" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5416,8 +5614,9 @@
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
       <c r="Y82" s="3"/>
-    </row>
-    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z82" s="3"/>
+    </row>
+    <row r="83" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5479,16 +5678,19 @@
         <v>0</v>
       </c>
       <c r="W83" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="X83" s="3">
         <v>100</v>
       </c>
-      <c r="Y83" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Y83" s="3">
+        <v>100</v>
+      </c>
+      <c r="Z83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5558,8 +5760,11 @@
       <c r="Y84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5629,8 +5834,11 @@
       <c r="Y85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5700,8 +5908,11 @@
       <c r="Y86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5771,8 +5982,11 @@
       <c r="Y87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5842,8 +6056,11 @@
       <c r="Y88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -5905,16 +6122,19 @@
         <v>0</v>
       </c>
       <c r="W89" s="3">
+        <v>0</v>
+      </c>
+      <c r="X89" s="3">
         <v>-100</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>-200</v>
       </c>
-      <c r="Y89" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5940,8 +6160,9 @@
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
       <c r="Y90" s="3"/>
-    </row>
-    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z90" s="3"/>
+    </row>
+    <row r="91" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -6006,13 +6227,16 @@
         <v>0</v>
       </c>
       <c r="X91" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y91" s="3">
         <v>-100</v>
       </c>
-      <c r="Y91" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6082,8 +6306,11 @@
       <c r="Y92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6153,8 +6380,11 @@
       <c r="Y93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -6219,13 +6449,16 @@
         <v>0</v>
       </c>
       <c r="X94" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y94" s="3">
         <v>-100</v>
       </c>
-      <c r="Y94" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6251,8 +6484,9 @@
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
       <c r="Y95" s="3"/>
-    </row>
-    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z95" s="3"/>
+    </row>
+    <row r="96" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6322,8 +6556,11 @@
       <c r="Y96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6393,8 +6630,11 @@
       <c r="Y97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6464,8 +6704,11 @@
       <c r="Y98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6535,8 +6778,11 @@
       <c r="Y99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -6598,16 +6844,19 @@
         <v>0</v>
       </c>
       <c r="W100" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="X100" s="3">
         <v>100</v>
       </c>
-      <c r="Y100" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Y100" s="3">
+        <v>100</v>
+      </c>
+      <c r="Z100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6677,8 +6926,11 @@
       <c r="Y101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -6743,9 +6995,12 @@
         <v>0</v>
       </c>
       <c r="X102" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y102" s="3">
         <v>-200</v>
       </c>
-      <c r="Y102" s="3" t="s">
+      <c r="Z102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/BFNH_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/BFNH_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="92">
   <si>
     <t>BFNH</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Z102"/>
+  <dimension ref="A5:AA102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,111 +665,115 @@
     <col min="1" max="1" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="25" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E7" s="2">
         <v>44651</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44561</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44469</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44377</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44286</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44196</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44104</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44012</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43921</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43830</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43738</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43646</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43555</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43465</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43373</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43281</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43190</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43100</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43008</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42916</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>39629</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>39538</v>
       </c>
-      <c r="Z7" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
@@ -834,16 +838,19 @@
         <v>0</v>
       </c>
       <c r="X8" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y8" s="3">
         <v>200</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>400</v>
       </c>
-      <c r="Z8" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -877,8 +884,8 @@
       <c r="M9" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N9" s="3">
-        <v>0</v>
+      <c r="N9" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="O9" s="3">
         <v>0</v>
@@ -895,29 +902,32 @@
       <c r="S9" s="3">
         <v>0</v>
       </c>
-      <c r="T9" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="U9" s="3">
-        <v>0</v>
-      </c>
-      <c r="V9" s="3" t="s">
-        <v>3</v>
+      <c r="T9" s="3">
+        <v>0</v>
+      </c>
+      <c r="U9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="V9" s="3">
+        <v>0</v>
       </c>
       <c r="W9" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="X9" s="3">
-        <v>200</v>
+      <c r="X9" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="Y9" s="3">
         <v>200</v>
       </c>
-      <c r="Z9" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="Z9" s="3">
+        <v>200</v>
+      </c>
+      <c r="AA9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -951,8 +961,8 @@
       <c r="M10" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N10" s="3">
-        <v>0</v>
+      <c r="N10" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="O10" s="3">
         <v>0</v>
@@ -969,29 +979,32 @@
       <c r="S10" s="3">
         <v>0</v>
       </c>
-      <c r="T10" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="U10" s="3">
-        <v>0</v>
-      </c>
-      <c r="V10" s="3" t="s">
-        <v>3</v>
+      <c r="T10" s="3">
+        <v>0</v>
+      </c>
+      <c r="U10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="V10" s="3">
+        <v>0</v>
       </c>
       <c r="W10" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="X10" s="3">
-        <v>0</v>
+      <c r="X10" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="Y10" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z10" s="3">
         <v>200</v>
       </c>
-      <c r="Z10" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1018,8 +1031,9 @@
       <c r="X11" s="3"/>
       <c r="Y11" s="3"/>
       <c r="Z11" s="3"/>
-    </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA11" s="3"/>
+    </row>
+    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1083,17 +1097,20 @@
       <c r="W12" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="X12" s="3">
-        <v>300</v>
+      <c r="X12" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="Y12" s="3">
         <v>300</v>
       </c>
-      <c r="Z12" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="Z12" s="3">
+        <v>300</v>
+      </c>
+      <c r="AA12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1166,8 +1183,11 @@
       <c r="Z13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1240,8 +1260,11 @@
       <c r="Z14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1314,8 +1337,11 @@
       <c r="Z15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1339,8 +1365,9 @@
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
       <c r="Z16" s="3"/>
-    </row>
-    <row r="17" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA16" s="3"/>
+    </row>
+    <row r="17" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
@@ -1369,11 +1396,11 @@
         <v>100</v>
       </c>
       <c r="L17" s="3">
+        <v>100</v>
+      </c>
+      <c r="M17" s="3">
         <v>158000</v>
       </c>
-      <c r="M17" s="3">
-        <v>0</v>
-      </c>
       <c r="N17" s="3">
         <v>0</v>
       </c>
@@ -1405,16 +1432,19 @@
         <v>0</v>
       </c>
       <c r="X17" s="3">
-        <v>1100</v>
+        <v>0</v>
       </c>
       <c r="Y17" s="3">
         <v>1100</v>
       </c>
-      <c r="Z17" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="Z17" s="3">
+        <v>1100</v>
+      </c>
+      <c r="AA17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1443,11 +1473,11 @@
         <v>-100</v>
       </c>
       <c r="L18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="M18" s="3">
         <v>-158000</v>
       </c>
-      <c r="M18" s="3">
-        <v>0</v>
-      </c>
       <c r="N18" s="3">
         <v>0</v>
       </c>
@@ -1479,16 +1509,19 @@
         <v>0</v>
       </c>
       <c r="X18" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y18" s="3">
         <v>-900</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>-700</v>
       </c>
-      <c r="Z18" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1515,8 +1548,9 @@
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
       <c r="Z19" s="3"/>
-    </row>
-    <row r="20" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA19" s="3"/>
+    </row>
+    <row r="20" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1586,11 +1620,14 @@
       <c r="Y20" s="3">
         <v>0</v>
       </c>
-      <c r="Z20" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="21" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="Z20" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1654,17 +1691,20 @@
       <c r="W21" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="X21" s="3">
+      <c r="X21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y21" s="3">
         <v>-800</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>-700</v>
       </c>
-      <c r="Z21" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="22" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1713,8 +1753,8 @@
       <c r="R22" s="3">
         <v>0</v>
       </c>
-      <c r="S22" s="3" t="s">
-        <v>3</v>
+      <c r="S22" s="3">
+        <v>0</v>
       </c>
       <c r="T22" s="3" t="s">
         <v>3</v>
@@ -1728,17 +1768,20 @@
       <c r="W22" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="X22" s="3">
+      <c r="X22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y22" s="3">
         <v>100</v>
       </c>
-      <c r="Y22" s="3">
-        <v>0</v>
-      </c>
-      <c r="Z22" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="23" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="Z22" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA22" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
@@ -1767,11 +1810,11 @@
         <v>-100</v>
       </c>
       <c r="L23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="M23" s="3">
         <v>-158000</v>
       </c>
-      <c r="M23" s="3">
-        <v>0</v>
-      </c>
       <c r="N23" s="3">
         <v>0</v>
       </c>
@@ -1803,16 +1846,19 @@
         <v>0</v>
       </c>
       <c r="X23" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y23" s="3">
         <v>-900</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>-700</v>
       </c>
-      <c r="Z23" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1885,8 +1931,11 @@
       <c r="Z24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1959,8 +2008,11 @@
       <c r="Z25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
@@ -1989,11 +2041,11 @@
         <v>-100</v>
       </c>
       <c r="L26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="M26" s="3">
         <v>-158000</v>
       </c>
-      <c r="M26" s="3">
-        <v>0</v>
-      </c>
       <c r="N26" s="3">
         <v>0</v>
       </c>
@@ -2025,16 +2077,19 @@
         <v>0</v>
       </c>
       <c r="X26" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y26" s="3">
         <v>-900</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>-700</v>
       </c>
-      <c r="Z26" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="27" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
@@ -2063,11 +2118,11 @@
         <v>-100</v>
       </c>
       <c r="L27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="M27" s="3">
         <v>-158000</v>
       </c>
-      <c r="M27" s="3">
-        <v>0</v>
-      </c>
       <c r="N27" s="3">
         <v>0</v>
       </c>
@@ -2099,16 +2154,19 @@
         <v>0</v>
       </c>
       <c r="X27" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y27" s="3">
         <v>-900</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>-800</v>
       </c>
-      <c r="Z27" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="28" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2181,8 +2239,11 @@
       <c r="Z28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2255,8 +2316,11 @@
       <c r="Z29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2329,8 +2393,11 @@
       <c r="Z30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2403,8 +2470,11 @@
       <c r="Z31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2474,11 +2544,14 @@
       <c r="Y32" s="3">
         <v>0</v>
       </c>
-      <c r="Z32" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="33" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="Z32" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
@@ -2507,11 +2580,11 @@
         <v>-100</v>
       </c>
       <c r="L33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="M33" s="3">
         <v>-158000</v>
       </c>
-      <c r="M33" s="3">
-        <v>0</v>
-      </c>
       <c r="N33" s="3">
         <v>0</v>
       </c>
@@ -2543,16 +2616,19 @@
         <v>0</v>
       </c>
       <c r="X33" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y33" s="3">
         <v>-900</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>-800</v>
       </c>
-      <c r="Z33" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="34" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2625,8 +2701,11 @@
       <c r="Z34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
@@ -2655,11 +2734,11 @@
         <v>-100</v>
       </c>
       <c r="L35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="M35" s="3">
         <v>-158000</v>
       </c>
-      <c r="M35" s="3">
-        <v>0</v>
-      </c>
       <c r="N35" s="3">
         <v>0</v>
       </c>
@@ -2691,95 +2770,101 @@
         <v>0</v>
       </c>
       <c r="X35" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y35" s="3">
         <v>-900</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>-800</v>
       </c>
-      <c r="Z35" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="37" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E38" s="2">
         <v>44651</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44561</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44469</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44377</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44286</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44196</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44104</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44012</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43921</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43830</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43738</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43646</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43555</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43465</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43373</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43281</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43190</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43100</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43008</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42916</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>39629</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>39538</v>
       </c>
-      <c r="Z38" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="39" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2806,8 +2891,9 @@
       <c r="X39" s="3"/>
       <c r="Y39" s="3"/>
       <c r="Z39" s="3"/>
-    </row>
-    <row r="40" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA39" s="3"/>
+    </row>
+    <row r="40" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2834,8 +2920,9 @@
       <c r="X40" s="3"/>
       <c r="Y40" s="3"/>
       <c r="Z40" s="3"/>
-    </row>
-    <row r="41" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA40" s="3"/>
+    </row>
+    <row r="41" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -2867,11 +2954,11 @@
         <v>0</v>
       </c>
       <c r="M41" s="3">
+        <v>0</v>
+      </c>
+      <c r="N41" s="3">
         <v>100</v>
       </c>
-      <c r="N41" s="3">
-        <v>0</v>
-      </c>
       <c r="O41" s="3">
         <v>0</v>
       </c>
@@ -2890,8 +2977,8 @@
       <c r="T41" s="3">
         <v>0</v>
       </c>
-      <c r="U41" s="3" t="s">
-        <v>3</v>
+      <c r="U41" s="3">
+        <v>0</v>
       </c>
       <c r="V41" s="3" t="s">
         <v>3</v>
@@ -2908,8 +2995,11 @@
       <c r="Z41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2982,8 +3072,11 @@
       <c r="Z42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -3038,8 +3131,8 @@
       <c r="T43" s="3">
         <v>0</v>
       </c>
-      <c r="U43" s="3" t="s">
-        <v>3</v>
+      <c r="U43" s="3">
+        <v>0</v>
       </c>
       <c r="V43" s="3" t="s">
         <v>3</v>
@@ -3056,8 +3149,11 @@
       <c r="Z43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3121,8 +3217,8 @@
       <c r="W44" s="3">
         <v>0</v>
       </c>
-      <c r="X44" s="3" t="s">
-        <v>3</v>
+      <c r="X44" s="3">
+        <v>0</v>
       </c>
       <c r="Y44" s="3" t="s">
         <v>3</v>
@@ -3130,8 +3226,11 @@
       <c r="Z44" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="45" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA44" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -3153,11 +3252,11 @@
       <c r="I45" s="3">
         <v>0</v>
       </c>
-      <c r="J45" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K45" s="3">
-        <v>0</v>
+      <c r="J45" s="3">
+        <v>0</v>
+      </c>
+      <c r="K45" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="L45" s="3">
         <v>0</v>
@@ -3165,8 +3264,8 @@
       <c r="M45" s="3">
         <v>0</v>
       </c>
-      <c r="N45" s="3" t="s">
-        <v>3</v>
+      <c r="N45" s="3">
+        <v>0</v>
       </c>
       <c r="O45" s="3" t="s">
         <v>3</v>
@@ -3174,8 +3273,8 @@
       <c r="P45" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="Q45" s="3">
-        <v>0</v>
+      <c r="Q45" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="R45" s="3">
         <v>0</v>
@@ -3186,8 +3285,8 @@
       <c r="T45" s="3">
         <v>0</v>
       </c>
-      <c r="U45" s="3" t="s">
-        <v>3</v>
+      <c r="U45" s="3">
+        <v>0</v>
       </c>
       <c r="V45" s="3" t="s">
         <v>3</v>
@@ -3204,8 +3303,11 @@
       <c r="Z45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -3234,7 +3336,7 @@
         <v>0</v>
       </c>
       <c r="L46" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M46" s="3">
         <v>100</v>
@@ -3243,7 +3345,7 @@
         <v>100</v>
       </c>
       <c r="O46" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P46" s="3">
         <v>0</v>
@@ -3260,8 +3362,8 @@
       <c r="T46" s="3">
         <v>0</v>
       </c>
-      <c r="U46" s="3" t="s">
-        <v>3</v>
+      <c r="U46" s="3">
+        <v>0</v>
       </c>
       <c r="V46" s="3" t="s">
         <v>3</v>
@@ -3278,8 +3380,11 @@
       <c r="Z46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3343,8 +3448,8 @@
       <c r="W47" s="3">
         <v>0</v>
       </c>
-      <c r="X47" s="3" t="s">
-        <v>3</v>
+      <c r="X47" s="3">
+        <v>0</v>
       </c>
       <c r="Y47" s="3" t="s">
         <v>3</v>
@@ -3352,8 +3457,11 @@
       <c r="Z47" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -3417,8 +3525,8 @@
       <c r="W48" s="3">
         <v>0</v>
       </c>
-      <c r="X48" s="3" t="s">
-        <v>3</v>
+      <c r="X48" s="3">
+        <v>0</v>
       </c>
       <c r="Y48" s="3" t="s">
         <v>3</v>
@@ -3426,8 +3534,11 @@
       <c r="Z48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3491,8 +3602,8 @@
       <c r="W49" s="3">
         <v>0</v>
       </c>
-      <c r="X49" s="3" t="s">
-        <v>3</v>
+      <c r="X49" s="3">
+        <v>0</v>
       </c>
       <c r="Y49" s="3" t="s">
         <v>3</v>
@@ -3500,8 +3611,11 @@
       <c r="Z49" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="50" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA49" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3574,8 +3688,11 @@
       <c r="Z50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3648,8 +3765,11 @@
       <c r="Z51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3722,8 +3842,11 @@
       <c r="Z52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3796,8 +3919,11 @@
       <c r="Z53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
@@ -3826,7 +3952,7 @@
         <v>0</v>
       </c>
       <c r="L54" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M54" s="3">
         <v>100</v>
@@ -3835,7 +3961,7 @@
         <v>100</v>
       </c>
       <c r="O54" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P54" s="3">
         <v>0</v>
@@ -3852,8 +3978,8 @@
       <c r="T54" s="3">
         <v>0</v>
       </c>
-      <c r="U54" s="3" t="s">
-        <v>3</v>
+      <c r="U54" s="3">
+        <v>0</v>
       </c>
       <c r="V54" s="3" t="s">
         <v>3</v>
@@ -3870,8 +3996,11 @@
       <c r="Z54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3898,8 +4027,9 @@
       <c r="X55" s="3"/>
       <c r="Y55" s="3"/>
       <c r="Z55" s="3"/>
-    </row>
-    <row r="56" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA55" s="3"/>
+    </row>
+    <row r="56" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3926,8 +4056,9 @@
       <c r="X56" s="3"/>
       <c r="Y56" s="3"/>
       <c r="Z56" s="3"/>
-    </row>
-    <row r="57" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA56" s="3"/>
+    </row>
+    <row r="57" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -3982,8 +4113,8 @@
       <c r="T57" s="3">
         <v>0</v>
       </c>
-      <c r="U57" s="3" t="s">
-        <v>3</v>
+      <c r="U57" s="3">
+        <v>0</v>
       </c>
       <c r="V57" s="3" t="s">
         <v>3</v>
@@ -4000,8 +4131,11 @@
       <c r="Z57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -4065,8 +4199,8 @@
       <c r="W58" s="3">
         <v>0</v>
       </c>
-      <c r="X58" s="3" t="s">
-        <v>3</v>
+      <c r="X58" s="3">
+        <v>0</v>
       </c>
       <c r="Y58" s="3" t="s">
         <v>3</v>
@@ -4074,43 +4208,46 @@
       <c r="Z58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E59" s="3">
         <v>1000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>900</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>800</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>700</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>500</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>400</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>300</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>200</v>
       </c>
-      <c r="L59" s="3">
-        <v>0</v>
-      </c>
       <c r="M59" s="3">
         <v>0</v>
       </c>
-      <c r="N59" s="3" t="s">
-        <v>3</v>
+      <c r="N59" s="3">
+        <v>0</v>
       </c>
       <c r="O59" s="3" t="s">
         <v>3</v>
@@ -4124,8 +4261,8 @@
       <c r="R59" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="S59" s="3">
-        <v>0</v>
+      <c r="S59" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="T59" s="3">
         <v>0</v>
@@ -4139,8 +4276,8 @@
       <c r="W59" s="3">
         <v>0</v>
       </c>
-      <c r="X59" s="3" t="s">
-        <v>3</v>
+      <c r="X59" s="3">
+        <v>0</v>
       </c>
       <c r="Y59" s="3" t="s">
         <v>3</v>
@@ -4148,38 +4285,41 @@
       <c r="Z59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E60" s="3">
         <v>1000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>900</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>800</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>700</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>500</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>400</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>300</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>200</v>
       </c>
-      <c r="L60" s="3">
-        <v>0</v>
-      </c>
       <c r="M60" s="3">
         <v>0</v>
       </c>
@@ -4204,8 +4344,8 @@
       <c r="T60" s="3">
         <v>0</v>
       </c>
-      <c r="U60" s="3" t="s">
-        <v>3</v>
+      <c r="U60" s="3">
+        <v>0</v>
       </c>
       <c r="V60" s="3" t="s">
         <v>3</v>
@@ -4222,8 +4362,11 @@
       <c r="Z60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -4296,8 +4439,11 @@
       <c r="Z61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -4370,8 +4516,11 @@
       <c r="Z62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4444,8 +4593,11 @@
       <c r="Z63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4518,8 +4670,11 @@
       <c r="Z64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4592,38 +4747,41 @@
       <c r="Z65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E66" s="3">
         <v>1000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>900</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>800</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>700</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>500</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>400</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>300</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>200</v>
       </c>
-      <c r="L66" s="3">
-        <v>0</v>
-      </c>
       <c r="M66" s="3">
         <v>0</v>
       </c>
@@ -4648,8 +4806,8 @@
       <c r="T66" s="3">
         <v>0</v>
       </c>
-      <c r="U66" s="3" t="s">
-        <v>3</v>
+      <c r="U66" s="3">
+        <v>0</v>
       </c>
       <c r="V66" s="3" t="s">
         <v>3</v>
@@ -4666,8 +4824,11 @@
       <c r="Z66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4694,8 +4855,9 @@
       <c r="X67" s="3"/>
       <c r="Y67" s="3"/>
       <c r="Z67" s="3"/>
-    </row>
-    <row r="68" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA67" s="3"/>
+    </row>
+    <row r="68" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4768,8 +4930,11 @@
       <c r="Z68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4842,8 +5007,11 @@
       <c r="Z69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4916,8 +5084,11 @@
       <c r="Z70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4990,43 +5161,46 @@
       <c r="Z71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-159900</v>
+      </c>
+      <c r="E72" s="3">
         <v>-159800</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-159700</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-159600</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-159400</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-159300</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-159200</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-159000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-158900</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-158800</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-800</v>
-      </c>
-      <c r="N72" s="3">
-        <v>-700</v>
       </c>
       <c r="O72" s="3">
         <v>-700</v>
@@ -5046,8 +5220,8 @@
       <c r="T72" s="3">
         <v>-700</v>
       </c>
-      <c r="U72" s="3" t="s">
-        <v>3</v>
+      <c r="U72" s="3">
+        <v>-700</v>
       </c>
       <c r="V72" s="3" t="s">
         <v>3</v>
@@ -5064,8 +5238,11 @@
       <c r="Z72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5138,8 +5315,11 @@
       <c r="Z73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5212,8 +5392,11 @@
       <c r="Z74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5286,38 +5469,41 @@
       <c r="Z75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="E76" s="3">
         <v>-1000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>-900</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>-700</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>-600</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>-500</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>-400</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>-200</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>-100</v>
       </c>
-      <c r="L76" s="3">
-        <v>0</v>
-      </c>
       <c r="M76" s="3">
         <v>0</v>
       </c>
@@ -5342,8 +5528,8 @@
       <c r="T76" s="3">
         <v>0</v>
       </c>
-      <c r="U76" s="3" t="s">
-        <v>3</v>
+      <c r="U76" s="3">
+        <v>0</v>
       </c>
       <c r="V76" s="3" t="s">
         <v>3</v>
@@ -5360,8 +5546,11 @@
       <c r="Z76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5434,87 +5623,93 @@
       <c r="Z77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E80" s="2">
         <v>44651</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44561</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44469</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44377</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44286</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44196</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44104</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44012</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43921</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43830</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43738</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43646</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43555</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43465</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43373</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43281</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43190</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43100</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43008</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42916</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>39629</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>39538</v>
       </c>
-      <c r="Z80" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="81" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
@@ -5543,11 +5738,11 @@
         <v>-100</v>
       </c>
       <c r="L81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="M81" s="3">
         <v>-158000</v>
       </c>
-      <c r="M81" s="3">
-        <v>0</v>
-      </c>
       <c r="N81" s="3">
         <v>0</v>
       </c>
@@ -5579,16 +5774,19 @@
         <v>0</v>
       </c>
       <c r="X81" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y81" s="3">
         <v>-900</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>-800</v>
       </c>
-      <c r="Z81" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="82" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5615,8 +5813,9 @@
       <c r="X82" s="3"/>
       <c r="Y82" s="3"/>
       <c r="Z82" s="3"/>
-    </row>
-    <row r="83" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA82" s="3"/>
+    </row>
+    <row r="83" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5681,16 +5880,19 @@
         <v>0</v>
       </c>
       <c r="X83" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Y83" s="3">
         <v>100</v>
       </c>
-      <c r="Z83" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="84" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="Z83" s="3">
+        <v>100</v>
+      </c>
+      <c r="AA83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5763,8 +5965,11 @@
       <c r="Z84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5837,8 +6042,11 @@
       <c r="Z85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5911,8 +6119,11 @@
       <c r="Z86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5985,8 +6196,11 @@
       <c r="Z87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6059,8 +6273,11 @@
       <c r="Z88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -6125,16 +6342,19 @@
         <v>0</v>
       </c>
       <c r="X89" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y89" s="3">
         <v>-100</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>-200</v>
       </c>
-      <c r="Z89" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="90" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6161,8 +6381,9 @@
       <c r="X90" s="3"/>
       <c r="Y90" s="3"/>
       <c r="Z90" s="3"/>
-    </row>
-    <row r="91" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA90" s="3"/>
+    </row>
+    <row r="91" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -6230,13 +6451,16 @@
         <v>0</v>
       </c>
       <c r="Y91" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z91" s="3">
         <v>-100</v>
       </c>
-      <c r="Z91" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="92" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6309,8 +6533,11 @@
       <c r="Z92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6383,8 +6610,11 @@
       <c r="Z93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -6452,13 +6682,16 @@
         <v>0</v>
       </c>
       <c r="Y94" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z94" s="3">
         <v>-100</v>
       </c>
-      <c r="Z94" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="95" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6485,8 +6718,9 @@
       <c r="X95" s="3"/>
       <c r="Y95" s="3"/>
       <c r="Z95" s="3"/>
-    </row>
-    <row r="96" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA95" s="3"/>
+    </row>
+    <row r="96" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6559,8 +6793,11 @@
       <c r="Z96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6633,8 +6870,11 @@
       <c r="Z97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6707,8 +6947,11 @@
       <c r="Z98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6781,8 +7024,11 @@
       <c r="Z99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -6847,16 +7093,19 @@
         <v>0</v>
       </c>
       <c r="X100" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Y100" s="3">
         <v>100</v>
       </c>
-      <c r="Z100" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="101" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="Z100" s="3">
+        <v>100</v>
+      </c>
+      <c r="AA100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6929,8 +7178,11 @@
       <c r="Z101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -6998,9 +7250,12 @@
         <v>0</v>
       </c>
       <c r="Y102" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z102" s="3">
         <v>-200</v>
       </c>
-      <c r="Z102" s="3" t="s">
+      <c r="AA102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/BFNH_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/BFNH_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="92">
   <si>
     <t>BFNH</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AA102"/>
+  <dimension ref="A5:AB102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,115 +665,119 @@
     <col min="1" max="1" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="25" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="26" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E7" s="2">
         <v>44742</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44651</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44561</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44469</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44377</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44286</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44196</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44104</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44012</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43921</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43830</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43738</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43646</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43555</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43465</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43373</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43281</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43190</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43100</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43008</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42916</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>39629</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>39538</v>
       </c>
-      <c r="AA7" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
@@ -841,16 +845,19 @@
         <v>0</v>
       </c>
       <c r="Y8" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z8" s="3">
         <v>200</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>400</v>
       </c>
-      <c r="AA8" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -887,8 +894,8 @@
       <c r="N9" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O9" s="3">
-        <v>0</v>
+      <c r="O9" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="P9" s="3">
         <v>0</v>
@@ -905,29 +912,32 @@
       <c r="T9" s="3">
         <v>0</v>
       </c>
-      <c r="U9" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="V9" s="3">
-        <v>0</v>
-      </c>
-      <c r="W9" s="3" t="s">
-        <v>3</v>
+      <c r="U9" s="3">
+        <v>0</v>
+      </c>
+      <c r="V9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="W9" s="3">
+        <v>0</v>
       </c>
       <c r="X9" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="Y9" s="3">
-        <v>200</v>
+      <c r="Y9" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="Z9" s="3">
         <v>200</v>
       </c>
-      <c r="AA9" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AA9" s="3">
+        <v>200</v>
+      </c>
+      <c r="AB9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -964,8 +974,8 @@
       <c r="N10" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O10" s="3">
-        <v>0</v>
+      <c r="O10" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="P10" s="3">
         <v>0</v>
@@ -982,29 +992,32 @@
       <c r="T10" s="3">
         <v>0</v>
       </c>
-      <c r="U10" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="V10" s="3">
-        <v>0</v>
-      </c>
-      <c r="W10" s="3" t="s">
-        <v>3</v>
+      <c r="U10" s="3">
+        <v>0</v>
+      </c>
+      <c r="V10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="W10" s="3">
+        <v>0</v>
       </c>
       <c r="X10" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="Y10" s="3">
-        <v>0</v>
+      <c r="Y10" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="Z10" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA10" s="3">
         <v>200</v>
       </c>
-      <c r="AA10" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1032,8 +1045,9 @@
       <c r="Y11" s="3"/>
       <c r="Z11" s="3"/>
       <c r="AA11" s="3"/>
-    </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB11" s="3"/>
+    </row>
+    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1100,17 +1114,20 @@
       <c r="X12" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="Y12" s="3">
-        <v>300</v>
+      <c r="Y12" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="Z12" s="3">
         <v>300</v>
       </c>
-      <c r="AA12" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AA12" s="3">
+        <v>300</v>
+      </c>
+      <c r="AB12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1186,8 +1203,11 @@
       <c r="AA13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1263,8 +1283,11 @@
       <c r="AA14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1340,8 +1363,11 @@
       <c r="AA15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1366,13 +1392,14 @@
       <c r="Y16" s="3"/>
       <c r="Z16" s="3"/>
       <c r="AA16" s="3"/>
-    </row>
-    <row r="17" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB16" s="3"/>
+    </row>
+    <row r="17" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="3">
-        <v>100</v>
+      <c r="D17" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E17" s="3">
         <v>100</v>
@@ -1399,11 +1426,11 @@
         <v>100</v>
       </c>
       <c r="M17" s="3">
+        <v>100</v>
+      </c>
+      <c r="N17" s="3">
         <v>158000</v>
       </c>
-      <c r="N17" s="3">
-        <v>0</v>
-      </c>
       <c r="O17" s="3">
         <v>0</v>
       </c>
@@ -1435,16 +1462,19 @@
         <v>0</v>
       </c>
       <c r="Y17" s="3">
-        <v>1100</v>
+        <v>0</v>
       </c>
       <c r="Z17" s="3">
         <v>1100</v>
       </c>
-      <c r="AA17" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AA17" s="3">
+        <v>1100</v>
+      </c>
+      <c r="AB17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1476,11 +1506,11 @@
         <v>-100</v>
       </c>
       <c r="M18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="N18" s="3">
         <v>-158000</v>
       </c>
-      <c r="N18" s="3">
-        <v>0</v>
-      </c>
       <c r="O18" s="3">
         <v>0</v>
       </c>
@@ -1512,16 +1542,19 @@
         <v>0</v>
       </c>
       <c r="Y18" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z18" s="3">
         <v>-900</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>-700</v>
       </c>
-      <c r="AA18" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1549,8 +1582,9 @@
       <c r="Y19" s="3"/>
       <c r="Z19" s="3"/>
       <c r="AA19" s="3"/>
-    </row>
-    <row r="20" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB19" s="3"/>
+    </row>
+    <row r="20" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1623,11 +1657,14 @@
       <c r="Z20" s="3">
         <v>0</v>
       </c>
-      <c r="AA20" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="21" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AA20" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1694,17 +1731,20 @@
       <c r="X21" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Y21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z21" s="3">
         <v>-800</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>-700</v>
       </c>
-      <c r="AA21" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="22" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1756,8 +1796,8 @@
       <c r="S22" s="3">
         <v>0</v>
       </c>
-      <c r="T22" s="3" t="s">
-        <v>3</v>
+      <c r="T22" s="3">
+        <v>0</v>
       </c>
       <c r="U22" s="3" t="s">
         <v>3</v>
@@ -1771,22 +1811,25 @@
       <c r="X22" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="Y22" s="3">
+      <c r="Y22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z22" s="3">
         <v>100</v>
       </c>
-      <c r="Z22" s="3">
-        <v>0</v>
-      </c>
-      <c r="AA22" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="23" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AA22" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB22" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D23" s="3">
-        <v>-100</v>
+      <c r="D23" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E23" s="3">
         <v>-100</v>
@@ -1813,11 +1856,11 @@
         <v>-100</v>
       </c>
       <c r="M23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="N23" s="3">
         <v>-158000</v>
       </c>
-      <c r="N23" s="3">
-        <v>0</v>
-      </c>
       <c r="O23" s="3">
         <v>0</v>
       </c>
@@ -1849,16 +1892,19 @@
         <v>0</v>
       </c>
       <c r="Y23" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z23" s="3">
         <v>-900</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>-700</v>
       </c>
-      <c r="AA23" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1934,8 +1980,11 @@
       <c r="AA24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2011,13 +2060,16 @@
       <c r="AA25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3">
-        <v>-100</v>
+      <c r="D26" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E26" s="3">
         <v>-100</v>
@@ -2044,11 +2096,11 @@
         <v>-100</v>
       </c>
       <c r="M26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="N26" s="3">
         <v>-158000</v>
       </c>
-      <c r="N26" s="3">
-        <v>0</v>
-      </c>
       <c r="O26" s="3">
         <v>0</v>
       </c>
@@ -2080,21 +2132,24 @@
         <v>0</v>
       </c>
       <c r="Y26" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z26" s="3">
         <v>-900</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>-700</v>
       </c>
-      <c r="AA26" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="27" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3">
-        <v>-100</v>
+      <c r="D27" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E27" s="3">
         <v>-100</v>
@@ -2121,11 +2176,11 @@
         <v>-100</v>
       </c>
       <c r="M27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="N27" s="3">
         <v>-158000</v>
       </c>
-      <c r="N27" s="3">
-        <v>0</v>
-      </c>
       <c r="O27" s="3">
         <v>0</v>
       </c>
@@ -2157,16 +2212,19 @@
         <v>0</v>
       </c>
       <c r="Y27" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z27" s="3">
         <v>-900</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>-800</v>
       </c>
-      <c r="AA27" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="28" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2242,8 +2300,11 @@
       <c r="AA28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2319,8 +2380,11 @@
       <c r="AA29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2396,8 +2460,11 @@
       <c r="AA30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2473,8 +2540,11 @@
       <c r="AA31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2547,16 +2617,19 @@
       <c r="Z32" s="3">
         <v>0</v>
       </c>
-      <c r="AA32" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="33" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AA32" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3">
-        <v>-100</v>
+      <c r="D33" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E33" s="3">
         <v>-100</v>
@@ -2583,11 +2656,11 @@
         <v>-100</v>
       </c>
       <c r="M33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="N33" s="3">
         <v>-158000</v>
       </c>
-      <c r="N33" s="3">
-        <v>0</v>
-      </c>
       <c r="O33" s="3">
         <v>0</v>
       </c>
@@ -2619,16 +2692,19 @@
         <v>0</v>
       </c>
       <c r="Y33" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z33" s="3">
         <v>-900</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>-800</v>
       </c>
-      <c r="AA33" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="34" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2704,13 +2780,16 @@
       <c r="AA34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3">
-        <v>-100</v>
+      <c r="D35" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E35" s="3">
         <v>-100</v>
@@ -2737,11 +2816,11 @@
         <v>-100</v>
       </c>
       <c r="M35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="N35" s="3">
         <v>-158000</v>
       </c>
-      <c r="N35" s="3">
-        <v>0</v>
-      </c>
       <c r="O35" s="3">
         <v>0</v>
       </c>
@@ -2773,98 +2852,104 @@
         <v>0</v>
       </c>
       <c r="Y35" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z35" s="3">
         <v>-900</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>-800</v>
       </c>
-      <c r="AA35" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="37" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E38" s="2">
         <v>44742</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44651</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44561</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44469</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44377</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44286</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44196</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44104</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44012</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43921</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43830</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43738</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43646</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43555</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43465</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43373</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43281</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43190</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43100</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43008</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42916</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>39629</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>39538</v>
       </c>
-      <c r="AA38" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="39" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2892,8 +2977,9 @@
       <c r="Y39" s="3"/>
       <c r="Z39" s="3"/>
       <c r="AA39" s="3"/>
-    </row>
-    <row r="40" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB39" s="3"/>
+    </row>
+    <row r="40" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2921,8 +3007,9 @@
       <c r="Y40" s="3"/>
       <c r="Z40" s="3"/>
       <c r="AA40" s="3"/>
-    </row>
-    <row r="41" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB40" s="3"/>
+    </row>
+    <row r="41" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -2957,11 +3044,11 @@
         <v>0</v>
       </c>
       <c r="N41" s="3">
+        <v>0</v>
+      </c>
+      <c r="O41" s="3">
         <v>100</v>
       </c>
-      <c r="O41" s="3">
-        <v>0</v>
-      </c>
       <c r="P41" s="3">
         <v>0</v>
       </c>
@@ -2980,8 +3067,8 @@
       <c r="U41" s="3">
         <v>0</v>
       </c>
-      <c r="V41" s="3" t="s">
-        <v>3</v>
+      <c r="V41" s="3">
+        <v>0</v>
       </c>
       <c r="W41" s="3" t="s">
         <v>3</v>
@@ -2998,8 +3085,11 @@
       <c r="AA41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3075,8 +3165,11 @@
       <c r="AA42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -3134,8 +3227,8 @@
       <c r="U43" s="3">
         <v>0</v>
       </c>
-      <c r="V43" s="3" t="s">
-        <v>3</v>
+      <c r="V43" s="3">
+        <v>0</v>
       </c>
       <c r="W43" s="3" t="s">
         <v>3</v>
@@ -3152,8 +3245,11 @@
       <c r="AA43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3220,8 +3316,8 @@
       <c r="X44" s="3">
         <v>0</v>
       </c>
-      <c r="Y44" s="3" t="s">
-        <v>3</v>
+      <c r="Y44" s="3">
+        <v>0</v>
       </c>
       <c r="Z44" s="3" t="s">
         <v>3</v>
@@ -3229,8 +3325,11 @@
       <c r="AA44" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="45" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB44" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -3255,11 +3354,11 @@
       <c r="J45" s="3">
         <v>0</v>
       </c>
-      <c r="K45" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L45" s="3">
-        <v>0</v>
+      <c r="K45" s="3">
+        <v>0</v>
+      </c>
+      <c r="L45" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="M45" s="3">
         <v>0</v>
@@ -3267,8 +3366,8 @@
       <c r="N45" s="3">
         <v>0</v>
       </c>
-      <c r="O45" s="3" t="s">
-        <v>3</v>
+      <c r="O45" s="3">
+        <v>0</v>
       </c>
       <c r="P45" s="3" t="s">
         <v>3</v>
@@ -3276,8 +3375,8 @@
       <c r="Q45" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="R45" s="3">
-        <v>0</v>
+      <c r="R45" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="S45" s="3">
         <v>0</v>
@@ -3288,8 +3387,8 @@
       <c r="U45" s="3">
         <v>0</v>
       </c>
-      <c r="V45" s="3" t="s">
-        <v>3</v>
+      <c r="V45" s="3">
+        <v>0</v>
       </c>
       <c r="W45" s="3" t="s">
         <v>3</v>
@@ -3306,8 +3405,11 @@
       <c r="AA45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -3339,7 +3441,7 @@
         <v>0</v>
       </c>
       <c r="M46" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N46" s="3">
         <v>100</v>
@@ -3348,7 +3450,7 @@
         <v>100</v>
       </c>
       <c r="P46" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q46" s="3">
         <v>0</v>
@@ -3365,8 +3467,8 @@
       <c r="U46" s="3">
         <v>0</v>
       </c>
-      <c r="V46" s="3" t="s">
-        <v>3</v>
+      <c r="V46" s="3">
+        <v>0</v>
       </c>
       <c r="W46" s="3" t="s">
         <v>3</v>
@@ -3383,8 +3485,11 @@
       <c r="AA46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3451,8 +3556,8 @@
       <c r="X47" s="3">
         <v>0</v>
       </c>
-      <c r="Y47" s="3" t="s">
-        <v>3</v>
+      <c r="Y47" s="3">
+        <v>0</v>
       </c>
       <c r="Z47" s="3" t="s">
         <v>3</v>
@@ -3460,8 +3565,11 @@
       <c r="AA47" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -3528,8 +3636,8 @@
       <c r="X48" s="3">
         <v>0</v>
       </c>
-      <c r="Y48" s="3" t="s">
-        <v>3</v>
+      <c r="Y48" s="3">
+        <v>0</v>
       </c>
       <c r="Z48" s="3" t="s">
         <v>3</v>
@@ -3537,8 +3645,11 @@
       <c r="AA48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3605,8 +3716,8 @@
       <c r="X49" s="3">
         <v>0</v>
       </c>
-      <c r="Y49" s="3" t="s">
-        <v>3</v>
+      <c r="Y49" s="3">
+        <v>0</v>
       </c>
       <c r="Z49" s="3" t="s">
         <v>3</v>
@@ -3614,8 +3725,11 @@
       <c r="AA49" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="50" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB49" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3691,8 +3805,11 @@
       <c r="AA50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3768,8 +3885,11 @@
       <c r="AA51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3845,8 +3965,11 @@
       <c r="AA52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3922,8 +4045,11 @@
       <c r="AA53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
@@ -3955,7 +4081,7 @@
         <v>0</v>
       </c>
       <c r="M54" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N54" s="3">
         <v>100</v>
@@ -3964,7 +4090,7 @@
         <v>100</v>
       </c>
       <c r="P54" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q54" s="3">
         <v>0</v>
@@ -3981,8 +4107,8 @@
       <c r="U54" s="3">
         <v>0</v>
       </c>
-      <c r="V54" s="3" t="s">
-        <v>3</v>
+      <c r="V54" s="3">
+        <v>0</v>
       </c>
       <c r="W54" s="3" t="s">
         <v>3</v>
@@ -3999,8 +4125,11 @@
       <c r="AA54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4028,8 +4157,9 @@
       <c r="Y55" s="3"/>
       <c r="Z55" s="3"/>
       <c r="AA55" s="3"/>
-    </row>
-    <row r="56" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB55" s="3"/>
+    </row>
+    <row r="56" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4057,8 +4187,9 @@
       <c r="Y56" s="3"/>
       <c r="Z56" s="3"/>
       <c r="AA56" s="3"/>
-    </row>
-    <row r="57" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB56" s="3"/>
+    </row>
+    <row r="57" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -4116,8 +4247,8 @@
       <c r="U57" s="3">
         <v>0</v>
       </c>
-      <c r="V57" s="3" t="s">
-        <v>3</v>
+      <c r="V57" s="3">
+        <v>0</v>
       </c>
       <c r="W57" s="3" t="s">
         <v>3</v>
@@ -4134,8 +4265,11 @@
       <c r="AA57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -4202,8 +4336,8 @@
       <c r="X58" s="3">
         <v>0</v>
       </c>
-      <c r="Y58" s="3" t="s">
-        <v>3</v>
+      <c r="Y58" s="3">
+        <v>0</v>
       </c>
       <c r="Z58" s="3" t="s">
         <v>3</v>
@@ -4211,46 +4345,49 @@
       <c r="AA58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>1200</v>
+      </c>
+      <c r="E59" s="3">
         <v>1100</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>1000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>900</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>800</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>700</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>500</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>400</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>300</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>200</v>
       </c>
-      <c r="M59" s="3">
-        <v>0</v>
-      </c>
       <c r="N59" s="3">
         <v>0</v>
       </c>
-      <c r="O59" s="3" t="s">
-        <v>3</v>
+      <c r="O59" s="3">
+        <v>0</v>
       </c>
       <c r="P59" s="3" t="s">
         <v>3</v>
@@ -4264,8 +4401,8 @@
       <c r="S59" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="T59" s="3">
-        <v>0</v>
+      <c r="T59" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="U59" s="3">
         <v>0</v>
@@ -4279,8 +4416,8 @@
       <c r="X59" s="3">
         <v>0</v>
       </c>
-      <c r="Y59" s="3" t="s">
-        <v>3</v>
+      <c r="Y59" s="3">
+        <v>0</v>
       </c>
       <c r="Z59" s="3" t="s">
         <v>3</v>
@@ -4288,41 +4425,44 @@
       <c r="AA59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>1200</v>
+      </c>
+      <c r="E60" s="3">
         <v>1100</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>1000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>900</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>800</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>700</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>500</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>400</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>300</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>200</v>
       </c>
-      <c r="M60" s="3">
-        <v>0</v>
-      </c>
       <c r="N60" s="3">
         <v>0</v>
       </c>
@@ -4347,8 +4487,8 @@
       <c r="U60" s="3">
         <v>0</v>
       </c>
-      <c r="V60" s="3" t="s">
-        <v>3</v>
+      <c r="V60" s="3">
+        <v>0</v>
       </c>
       <c r="W60" s="3" t="s">
         <v>3</v>
@@ -4365,8 +4505,11 @@
       <c r="AA60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -4442,8 +4585,11 @@
       <c r="AA61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -4519,8 +4665,11 @@
       <c r="AA62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4596,8 +4745,11 @@
       <c r="AA63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4673,8 +4825,11 @@
       <c r="AA64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4750,41 +4905,44 @@
       <c r="AA65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>1200</v>
+      </c>
+      <c r="E66" s="3">
         <v>1100</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>1000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>900</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>800</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>700</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>500</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>400</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>300</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>200</v>
       </c>
-      <c r="M66" s="3">
-        <v>0</v>
-      </c>
       <c r="N66" s="3">
         <v>0</v>
       </c>
@@ -4809,8 +4967,8 @@
       <c r="U66" s="3">
         <v>0</v>
       </c>
-      <c r="V66" s="3" t="s">
-        <v>3</v>
+      <c r="V66" s="3">
+        <v>0</v>
       </c>
       <c r="W66" s="3" t="s">
         <v>3</v>
@@ -4827,8 +4985,11 @@
       <c r="AA66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4856,8 +5017,9 @@
       <c r="Y67" s="3"/>
       <c r="Z67" s="3"/>
       <c r="AA67" s="3"/>
-    </row>
-    <row r="68" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB67" s="3"/>
+    </row>
+    <row r="68" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4933,8 +5095,11 @@
       <c r="AA68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5010,8 +5175,11 @@
       <c r="AA69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5087,8 +5255,11 @@
       <c r="AA70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5164,46 +5335,49 @@
       <c r="AA71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-160000</v>
+      </c>
+      <c r="E72" s="3">
         <v>-159900</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-159800</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-159700</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-159600</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-159400</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-159300</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-159200</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-159000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-158900</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-158800</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-800</v>
-      </c>
-      <c r="O72" s="3">
-        <v>-700</v>
       </c>
       <c r="P72" s="3">
         <v>-700</v>
@@ -5223,8 +5397,8 @@
       <c r="U72" s="3">
         <v>-700</v>
       </c>
-      <c r="V72" s="3" t="s">
-        <v>3</v>
+      <c r="V72" s="3">
+        <v>-700</v>
       </c>
       <c r="W72" s="3" t="s">
         <v>3</v>
@@ -5241,8 +5415,11 @@
       <c r="AA72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5318,8 +5495,11 @@
       <c r="AA73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5395,8 +5575,11 @@
       <c r="AA74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5472,41 +5655,44 @@
       <c r="AA75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="E76" s="3">
         <v>-1100</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>-1000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>-900</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>-700</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>-600</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>-500</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>-400</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>-200</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>-100</v>
       </c>
-      <c r="M76" s="3">
-        <v>0</v>
-      </c>
       <c r="N76" s="3">
         <v>0</v>
       </c>
@@ -5531,8 +5717,8 @@
       <c r="U76" s="3">
         <v>0</v>
       </c>
-      <c r="V76" s="3" t="s">
-        <v>3</v>
+      <c r="V76" s="3">
+        <v>0</v>
       </c>
       <c r="W76" s="3" t="s">
         <v>3</v>
@@ -5549,8 +5735,11 @@
       <c r="AA76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5626,95 +5815,101 @@
       <c r="AA77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E80" s="2">
         <v>44742</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44651</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44561</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44469</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44377</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44286</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44196</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44104</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44012</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43921</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43830</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43738</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43646</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43555</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43465</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43373</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43281</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43190</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43100</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43008</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42916</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>39629</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>39538</v>
       </c>
-      <c r="AA80" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="81" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3">
-        <v>-100</v>
+      <c r="D81" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E81" s="3">
         <v>-100</v>
@@ -5741,11 +5936,11 @@
         <v>-100</v>
       </c>
       <c r="M81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="N81" s="3">
         <v>-158000</v>
       </c>
-      <c r="N81" s="3">
-        <v>0</v>
-      </c>
       <c r="O81" s="3">
         <v>0</v>
       </c>
@@ -5777,16 +5972,19 @@
         <v>0</v>
       </c>
       <c r="Y81" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z81" s="3">
         <v>-900</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>-800</v>
       </c>
-      <c r="AA81" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="82" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5814,8 +6012,9 @@
       <c r="Y82" s="3"/>
       <c r="Z82" s="3"/>
       <c r="AA82" s="3"/>
-    </row>
-    <row r="83" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB82" s="3"/>
+    </row>
+    <row r="83" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5883,16 +6082,19 @@
         <v>0</v>
       </c>
       <c r="Y83" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Z83" s="3">
         <v>100</v>
       </c>
-      <c r="AA83" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="84" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AA83" s="3">
+        <v>100</v>
+      </c>
+      <c r="AB83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5968,8 +6170,11 @@
       <c r="AA84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6045,8 +6250,11 @@
       <c r="AA85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6122,8 +6330,11 @@
       <c r="AA86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6199,8 +6410,11 @@
       <c r="AA87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6276,8 +6490,11 @@
       <c r="AA88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -6345,16 +6562,19 @@
         <v>0</v>
       </c>
       <c r="Y89" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z89" s="3">
         <v>-100</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>-200</v>
       </c>
-      <c r="AA89" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="90" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6382,8 +6602,9 @@
       <c r="Y90" s="3"/>
       <c r="Z90" s="3"/>
       <c r="AA90" s="3"/>
-    </row>
-    <row r="91" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB90" s="3"/>
+    </row>
+    <row r="91" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -6454,13 +6675,16 @@
         <v>0</v>
       </c>
       <c r="Z91" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA91" s="3">
         <v>-100</v>
       </c>
-      <c r="AA91" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="92" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6536,8 +6760,11 @@
       <c r="AA92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6613,8 +6840,11 @@
       <c r="AA93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -6685,13 +6915,16 @@
         <v>0</v>
       </c>
       <c r="Z94" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA94" s="3">
         <v>-100</v>
       </c>
-      <c r="AA94" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="95" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6719,8 +6952,9 @@
       <c r="Y95" s="3"/>
       <c r="Z95" s="3"/>
       <c r="AA95" s="3"/>
-    </row>
-    <row r="96" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB95" s="3"/>
+    </row>
+    <row r="96" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6796,8 +7030,11 @@
       <c r="AA96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6873,8 +7110,11 @@
       <c r="AA97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6950,8 +7190,11 @@
       <c r="AA98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7027,8 +7270,11 @@
       <c r="AA99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -7096,16 +7342,19 @@
         <v>0</v>
       </c>
       <c r="Y100" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Z100" s="3">
         <v>100</v>
       </c>
-      <c r="AA100" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="101" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AA100" s="3">
+        <v>100</v>
+      </c>
+      <c r="AB100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -7181,8 +7430,11 @@
       <c r="AA101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -7253,9 +7505,12 @@
         <v>0</v>
       </c>
       <c r="Z102" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA102" s="3">
         <v>-200</v>
       </c>
-      <c r="AA102" s="3" t="s">
+      <c r="AB102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/BFNH_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/BFNH_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="92">
   <si>
     <t>BFNH</t>
   </si>
@@ -1398,8 +1398,8 @@
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="3" t="s">
-        <v>3</v>
+      <c r="D17" s="3">
+        <v>100</v>
       </c>
       <c r="E17" s="3">
         <v>100</v>
@@ -1828,8 +1828,8 @@
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D23" s="3" t="s">
-        <v>3</v>
+      <c r="D23" s="3">
+        <v>-100</v>
       </c>
       <c r="E23" s="3">
         <v>-100</v>
@@ -2068,8 +2068,8 @@
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3" t="s">
-        <v>3</v>
+      <c r="D26" s="3">
+        <v>-100</v>
       </c>
       <c r="E26" s="3">
         <v>-100</v>
@@ -2148,8 +2148,8 @@
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3" t="s">
-        <v>3</v>
+      <c r="D27" s="3">
+        <v>-100</v>
       </c>
       <c r="E27" s="3">
         <v>-100</v>
@@ -2628,8 +2628,8 @@
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3" t="s">
-        <v>3</v>
+      <c r="D33" s="3">
+        <v>-100</v>
       </c>
       <c r="E33" s="3">
         <v>-100</v>
@@ -2788,8 +2788,8 @@
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3" t="s">
-        <v>3</v>
+      <c r="D35" s="3">
+        <v>-100</v>
       </c>
       <c r="E35" s="3">
         <v>-100</v>
@@ -5908,8 +5908,8 @@
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3" t="s">
-        <v>3</v>
+      <c r="D81" s="3">
+        <v>-100</v>
       </c>
       <c r="E81" s="3">
         <v>-100</v>

--- a/AAII_Financials/Quarterly/BFNH_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/BFNH_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="92">
   <si>
     <t>BFNH</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AB102"/>
+  <dimension ref="A5:AD102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,119 +665,126 @@
     <col min="1" max="1" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="26" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="28" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44926</v>
+      </c>
+      <c r="F7" s="2">
         <v>44834</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44742</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44651</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44561</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44469</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>44377</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>44286</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>44196</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>44104</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>44012</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43921</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43830</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43738</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>43646</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>43555</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>43465</v>
       </c>
-      <c r="T7" s="2">
+      <c r="V7" s="2">
         <v>43373</v>
       </c>
-      <c r="U7" s="2">
+      <c r="W7" s="2">
         <v>43281</v>
       </c>
-      <c r="V7" s="2">
+      <c r="X7" s="2">
         <v>43190</v>
       </c>
-      <c r="W7" s="2">
+      <c r="Y7" s="2">
         <v>43100</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Z7" s="2">
         <v>43008</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="AA7" s="2">
         <v>42916</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AB7" s="2">
         <v>39629</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AC7" s="2">
         <v>39538</v>
       </c>
-      <c r="AB7" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AD7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
@@ -848,16 +855,22 @@
         <v>0</v>
       </c>
       <c r="Z8" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA8" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB8" s="3">
         <v>200</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AC8" s="3">
         <v>400</v>
       </c>
-      <c r="AB8" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AD8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -897,11 +910,11 @@
       <c r="O9" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="P9" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q9" s="3">
-        <v>0</v>
+      <c r="P9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q9" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="R9" s="3">
         <v>0</v>
@@ -915,8 +928,8 @@
       <c r="U9" s="3">
         <v>0</v>
       </c>
-      <c r="V9" s="3" t="s">
-        <v>3</v>
+      <c r="V9" s="3">
+        <v>0</v>
       </c>
       <c r="W9" s="3">
         <v>0</v>
@@ -924,20 +937,26 @@
       <c r="X9" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="Y9" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="Z9" s="3">
+      <c r="Y9" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AA9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AB9" s="3">
         <v>200</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AC9" s="3">
         <v>200</v>
       </c>
-      <c r="AB9" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AD9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -977,11 +996,11 @@
       <c r="O10" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="P10" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q10" s="3">
-        <v>0</v>
+      <c r="P10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q10" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="R10" s="3">
         <v>0</v>
@@ -995,8 +1014,8 @@
       <c r="U10" s="3">
         <v>0</v>
       </c>
-      <c r="V10" s="3" t="s">
-        <v>3</v>
+      <c r="V10" s="3">
+        <v>0</v>
       </c>
       <c r="W10" s="3">
         <v>0</v>
@@ -1004,20 +1023,26 @@
       <c r="X10" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="Y10" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="Z10" s="3">
-        <v>0</v>
-      </c>
-      <c r="AA10" s="3">
+      <c r="Y10" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AA10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AB10" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC10" s="3">
         <v>200</v>
       </c>
-      <c r="AB10" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AD10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1046,8 +1071,10 @@
       <c r="Z11" s="3"/>
       <c r="AA11" s="3"/>
       <c r="AB11" s="3"/>
-    </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC11" s="3"/>
+      <c r="AD11" s="3"/>
+    </row>
+    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1117,17 +1144,23 @@
       <c r="Y12" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="Z12" s="3">
+      <c r="Z12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AA12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AB12" s="3">
         <v>300</v>
       </c>
-      <c r="AA12" s="3">
+      <c r="AC12" s="3">
         <v>300</v>
       </c>
-      <c r="AB12" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AD12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1206,8 +1239,14 @@
       <c r="AB13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC13" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1286,8 +1325,14 @@
       <c r="AB14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC14" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1366,8 +1411,14 @@
       <c r="AB15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC15" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1393,8 +1444,10 @@
       <c r="Z16" s="3"/>
       <c r="AA16" s="3"/>
       <c r="AB16" s="3"/>
-    </row>
-    <row r="17" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC16" s="3"/>
+      <c r="AD16" s="3"/>
+    </row>
+    <row r="17" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
@@ -1429,14 +1482,14 @@
         <v>100</v>
       </c>
       <c r="N17" s="3">
+        <v>100</v>
+      </c>
+      <c r="O17" s="3">
+        <v>100</v>
+      </c>
+      <c r="P17" s="3">
         <v>158000</v>
       </c>
-      <c r="O17" s="3">
-        <v>0</v>
-      </c>
-      <c r="P17" s="3">
-        <v>0</v>
-      </c>
       <c r="Q17" s="3">
         <v>0</v>
       </c>
@@ -1465,16 +1518,22 @@
         <v>0</v>
       </c>
       <c r="Z17" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA17" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB17" s="3">
         <v>1100</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AC17" s="3">
         <v>1100</v>
       </c>
-      <c r="AB17" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AD17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1509,14 +1568,14 @@
         <v>-100</v>
       </c>
       <c r="N18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="O18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="P18" s="3">
         <v>-158000</v>
       </c>
-      <c r="O18" s="3">
-        <v>0</v>
-      </c>
-      <c r="P18" s="3">
-        <v>0</v>
-      </c>
       <c r="Q18" s="3">
         <v>0</v>
       </c>
@@ -1545,16 +1604,22 @@
         <v>0</v>
       </c>
       <c r="Z18" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA18" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB18" s="3">
         <v>-900</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AC18" s="3">
         <v>-700</v>
       </c>
-      <c r="AB18" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AD18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1583,8 +1648,10 @@
       <c r="Z19" s="3"/>
       <c r="AA19" s="3"/>
       <c r="AB19" s="3"/>
-    </row>
-    <row r="20" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC19" s="3"/>
+      <c r="AD19" s="3"/>
+    </row>
+    <row r="20" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1660,11 +1727,17 @@
       <c r="AA20" s="3">
         <v>0</v>
       </c>
-      <c r="AB20" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="21" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AB20" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC20" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1734,17 +1807,23 @@
       <c r="Y21" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="Z21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AA21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AB21" s="3">
         <v>-800</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AC21" s="3">
         <v>-700</v>
       </c>
-      <c r="AB21" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="22" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AD21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1799,11 +1878,11 @@
       <c r="T22" s="3">
         <v>0</v>
       </c>
-      <c r="U22" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="V22" s="3" t="s">
-        <v>3</v>
+      <c r="U22" s="3">
+        <v>0</v>
+      </c>
+      <c r="V22" s="3">
+        <v>0</v>
       </c>
       <c r="W22" s="3" t="s">
         <v>3</v>
@@ -1814,17 +1893,23 @@
       <c r="Y22" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="Z22" s="3">
+      <c r="Z22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AA22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AB22" s="3">
         <v>100</v>
       </c>
-      <c r="AA22" s="3">
-        <v>0</v>
-      </c>
-      <c r="AB22" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="23" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC22" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD22" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
@@ -1859,14 +1944,14 @@
         <v>-100</v>
       </c>
       <c r="N23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="O23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="P23" s="3">
         <v>-158000</v>
       </c>
-      <c r="O23" s="3">
-        <v>0</v>
-      </c>
-      <c r="P23" s="3">
-        <v>0</v>
-      </c>
       <c r="Q23" s="3">
         <v>0</v>
       </c>
@@ -1895,16 +1980,22 @@
         <v>0</v>
       </c>
       <c r="Z23" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA23" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB23" s="3">
         <v>-900</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AC23" s="3">
         <v>-700</v>
       </c>
-      <c r="AB23" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AD23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1983,8 +2074,14 @@
       <c r="AB24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC24" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2063,8 +2160,14 @@
       <c r="AB25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC25" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
@@ -2099,14 +2202,14 @@
         <v>-100</v>
       </c>
       <c r="N26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="O26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="P26" s="3">
         <v>-158000</v>
       </c>
-      <c r="O26" s="3">
-        <v>0</v>
-      </c>
-      <c r="P26" s="3">
-        <v>0</v>
-      </c>
       <c r="Q26" s="3">
         <v>0</v>
       </c>
@@ -2135,16 +2238,22 @@
         <v>0</v>
       </c>
       <c r="Z26" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA26" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB26" s="3">
         <v>-900</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AC26" s="3">
         <v>-700</v>
       </c>
-      <c r="AB26" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="27" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AD26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
@@ -2179,14 +2288,14 @@
         <v>-100</v>
       </c>
       <c r="N27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="O27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="P27" s="3">
         <v>-158000</v>
       </c>
-      <c r="O27" s="3">
-        <v>0</v>
-      </c>
-      <c r="P27" s="3">
-        <v>0</v>
-      </c>
       <c r="Q27" s="3">
         <v>0</v>
       </c>
@@ -2215,16 +2324,22 @@
         <v>0</v>
       </c>
       <c r="Z27" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA27" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB27" s="3">
         <v>-900</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AC27" s="3">
         <v>-800</v>
       </c>
-      <c r="AB27" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="28" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AD27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2303,8 +2418,14 @@
       <c r="AB28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC28" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2383,8 +2504,14 @@
       <c r="AB29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC29" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2463,8 +2590,14 @@
       <c r="AB30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC30" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2543,8 +2676,14 @@
       <c r="AB31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC31" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2620,11 +2759,17 @@
       <c r="AA32" s="3">
         <v>0</v>
       </c>
-      <c r="AB32" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="33" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AB32" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC32" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
@@ -2659,14 +2804,14 @@
         <v>-100</v>
       </c>
       <c r="N33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="O33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="P33" s="3">
         <v>-158000</v>
       </c>
-      <c r="O33" s="3">
-        <v>0</v>
-      </c>
-      <c r="P33" s="3">
-        <v>0</v>
-      </c>
       <c r="Q33" s="3">
         <v>0</v>
       </c>
@@ -2695,16 +2840,22 @@
         <v>0</v>
       </c>
       <c r="Z33" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA33" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB33" s="3">
         <v>-900</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AC33" s="3">
         <v>-800</v>
       </c>
-      <c r="AB33" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="34" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AD33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2783,8 +2934,14 @@
       <c r="AB34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC34" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
@@ -2819,14 +2976,14 @@
         <v>-100</v>
       </c>
       <c r="N35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="O35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="P35" s="3">
         <v>-158000</v>
       </c>
-      <c r="O35" s="3">
-        <v>0</v>
-      </c>
-      <c r="P35" s="3">
-        <v>0</v>
-      </c>
       <c r="Q35" s="3">
         <v>0</v>
       </c>
@@ -2855,101 +3012,113 @@
         <v>0</v>
       </c>
       <c r="Z35" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA35" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB35" s="3">
         <v>-900</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AC35" s="3">
         <v>-800</v>
       </c>
-      <c r="AB35" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="37" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AD35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44926</v>
+      </c>
+      <c r="F38" s="2">
         <v>44834</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44742</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44651</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44561</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44469</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>44377</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>44286</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>44196</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>44104</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>44012</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43921</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43830</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43738</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>43646</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>43555</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>43465</v>
       </c>
-      <c r="T38" s="2">
+      <c r="V38" s="2">
         <v>43373</v>
       </c>
-      <c r="U38" s="2">
+      <c r="W38" s="2">
         <v>43281</v>
       </c>
-      <c r="V38" s="2">
+      <c r="X38" s="2">
         <v>43190</v>
       </c>
-      <c r="W38" s="2">
+      <c r="Y38" s="2">
         <v>43100</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Z38" s="2">
         <v>43008</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="AA38" s="2">
         <v>42916</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AB38" s="2">
         <v>39629</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AC38" s="2">
         <v>39538</v>
       </c>
-      <c r="AB38" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="39" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AD38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2978,8 +3147,10 @@
       <c r="Z39" s="3"/>
       <c r="AA39" s="3"/>
       <c r="AB39" s="3"/>
-    </row>
-    <row r="40" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC39" s="3"/>
+      <c r="AD39" s="3"/>
+    </row>
+    <row r="40" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3008,8 +3179,10 @@
       <c r="Z40" s="3"/>
       <c r="AA40" s="3"/>
       <c r="AB40" s="3"/>
-    </row>
-    <row r="41" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC40" s="3"/>
+      <c r="AD40" s="3"/>
+    </row>
+    <row r="41" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -3047,14 +3220,14 @@
         <v>0</v>
       </c>
       <c r="O41" s="3">
+        <v>0</v>
+      </c>
+      <c r="P41" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q41" s="3">
         <v>100</v>
       </c>
-      <c r="P41" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q41" s="3">
-        <v>0</v>
-      </c>
       <c r="R41" s="3">
         <v>0</v>
       </c>
@@ -3070,11 +3243,11 @@
       <c r="V41" s="3">
         <v>0</v>
       </c>
-      <c r="W41" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="X41" s="3" t="s">
-        <v>3</v>
+      <c r="W41" s="3">
+        <v>0</v>
+      </c>
+      <c r="X41" s="3">
+        <v>0</v>
       </c>
       <c r="Y41" s="3" t="s">
         <v>3</v>
@@ -3088,8 +3261,14 @@
       <c r="AB41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC41" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AD41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3168,8 +3347,14 @@
       <c r="AB42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC42" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -3230,11 +3415,11 @@
       <c r="V43" s="3">
         <v>0</v>
       </c>
-      <c r="W43" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="X43" s="3" t="s">
-        <v>3</v>
+      <c r="W43" s="3">
+        <v>0</v>
+      </c>
+      <c r="X43" s="3">
+        <v>0</v>
       </c>
       <c r="Y43" s="3" t="s">
         <v>3</v>
@@ -3248,8 +3433,14 @@
       <c r="AB43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AD43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3319,22 +3510,28 @@
       <c r="Y44" s="3">
         <v>0</v>
       </c>
-      <c r="Z44" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="AA44" s="3" t="s">
-        <v>3</v>
+      <c r="Z44" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA44" s="3">
+        <v>0</v>
       </c>
       <c r="AB44" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="45" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC44" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AD44" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D45" s="3">
-        <v>0</v>
+      <c r="D45" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E45" s="3">
         <v>0</v>
@@ -3357,32 +3554,32 @@
       <c r="K45" s="3">
         <v>0</v>
       </c>
-      <c r="L45" s="3" t="s">
-        <v>3</v>
+      <c r="L45" s="3">
+        <v>0</v>
       </c>
       <c r="M45" s="3">
         <v>0</v>
       </c>
-      <c r="N45" s="3">
-        <v>0</v>
+      <c r="N45" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="O45" s="3">
         <v>0</v>
       </c>
-      <c r="P45" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q45" s="3" t="s">
-        <v>3</v>
+      <c r="P45" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q45" s="3">
+        <v>0</v>
       </c>
       <c r="R45" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="S45" s="3">
-        <v>0</v>
-      </c>
-      <c r="T45" s="3">
-        <v>0</v>
+      <c r="S45" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T45" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="U45" s="3">
         <v>0</v>
@@ -3390,11 +3587,11 @@
       <c r="V45" s="3">
         <v>0</v>
       </c>
-      <c r="W45" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="X45" s="3" t="s">
-        <v>3</v>
+      <c r="W45" s="3">
+        <v>0</v>
+      </c>
+      <c r="X45" s="3">
+        <v>0</v>
       </c>
       <c r="Y45" s="3" t="s">
         <v>3</v>
@@ -3408,8 +3605,14 @@
       <c r="AB45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC45" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AD45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -3444,19 +3647,19 @@
         <v>0</v>
       </c>
       <c r="N46" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O46" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P46" s="3">
         <v>100</v>
       </c>
       <c r="Q46" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R46" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="S46" s="3">
         <v>0</v>
@@ -3470,11 +3673,11 @@
       <c r="V46" s="3">
         <v>0</v>
       </c>
-      <c r="W46" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="X46" s="3" t="s">
-        <v>3</v>
+      <c r="W46" s="3">
+        <v>0</v>
+      </c>
+      <c r="X46" s="3">
+        <v>0</v>
       </c>
       <c r="Y46" s="3" t="s">
         <v>3</v>
@@ -3488,8 +3691,14 @@
       <c r="AB46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC46" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AD46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3559,17 +3768,23 @@
       <c r="Y47" s="3">
         <v>0</v>
       </c>
-      <c r="Z47" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="AA47" s="3" t="s">
-        <v>3</v>
+      <c r="Z47" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA47" s="3">
+        <v>0</v>
       </c>
       <c r="AB47" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AD47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -3639,17 +3854,23 @@
       <c r="Y48" s="3">
         <v>0</v>
       </c>
-      <c r="Z48" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="AA48" s="3" t="s">
-        <v>3</v>
+      <c r="Z48" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA48" s="3">
+        <v>0</v>
       </c>
       <c r="AB48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AD48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3719,17 +3940,23 @@
       <c r="Y49" s="3">
         <v>0</v>
       </c>
-      <c r="Z49" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="AA49" s="3" t="s">
-        <v>3</v>
+      <c r="Z49" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA49" s="3">
+        <v>0</v>
       </c>
       <c r="AB49" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="50" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC49" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AD49" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3808,8 +4035,14 @@
       <c r="AB50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC50" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3888,8 +4121,14 @@
       <c r="AB51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC51" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3968,8 +4207,14 @@
       <c r="AB52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC52" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4048,8 +4293,14 @@
       <c r="AB53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC53" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
@@ -4084,19 +4335,19 @@
         <v>0</v>
       </c>
       <c r="N54" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O54" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P54" s="3">
         <v>100</v>
       </c>
       <c r="Q54" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R54" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="S54" s="3">
         <v>0</v>
@@ -4110,11 +4361,11 @@
       <c r="V54" s="3">
         <v>0</v>
       </c>
-      <c r="W54" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="X54" s="3" t="s">
-        <v>3</v>
+      <c r="W54" s="3">
+        <v>0</v>
+      </c>
+      <c r="X54" s="3">
+        <v>0</v>
       </c>
       <c r="Y54" s="3" t="s">
         <v>3</v>
@@ -4128,8 +4379,14 @@
       <c r="AB54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC54" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AD54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4158,8 +4415,10 @@
       <c r="Z55" s="3"/>
       <c r="AA55" s="3"/>
       <c r="AB55" s="3"/>
-    </row>
-    <row r="56" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC55" s="3"/>
+      <c r="AD55" s="3"/>
+    </row>
+    <row r="56" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4188,8 +4447,10 @@
       <c r="Z56" s="3"/>
       <c r="AA56" s="3"/>
       <c r="AB56" s="3"/>
-    </row>
-    <row r="57" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC56" s="3"/>
+      <c r="AD56" s="3"/>
+    </row>
+    <row r="57" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -4250,11 +4511,11 @@
       <c r="V57" s="3">
         <v>0</v>
       </c>
-      <c r="W57" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="X57" s="3" t="s">
-        <v>3</v>
+      <c r="W57" s="3">
+        <v>0</v>
+      </c>
+      <c r="X57" s="3">
+        <v>0</v>
       </c>
       <c r="Y57" s="3" t="s">
         <v>3</v>
@@ -4268,8 +4529,14 @@
       <c r="AB57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AD57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -4339,61 +4606,67 @@
       <c r="Y58" s="3">
         <v>0</v>
       </c>
-      <c r="Z58" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="AA58" s="3" t="s">
-        <v>3</v>
+      <c r="Z58" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA58" s="3">
+        <v>0</v>
       </c>
       <c r="AB58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AD58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>1500</v>
+      </c>
+      <c r="E59" s="3">
+        <v>1300</v>
+      </c>
+      <c r="F59" s="3">
         <v>1200</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>1100</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>1000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>900</v>
       </c>
-      <c r="H59" s="3">
+      <c r="J59" s="3">
         <v>800</v>
       </c>
-      <c r="I59" s="3">
+      <c r="K59" s="3">
         <v>700</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>500</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>400</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>300</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>200</v>
       </c>
-      <c r="N59" s="3">
-        <v>0</v>
-      </c>
-      <c r="O59" s="3">
-        <v>0</v>
-      </c>
-      <c r="P59" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q59" s="3" t="s">
-        <v>3</v>
+      <c r="P59" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q59" s="3">
+        <v>0</v>
       </c>
       <c r="R59" s="3" t="s">
         <v>3</v>
@@ -4404,11 +4677,11 @@
       <c r="T59" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="U59" s="3">
-        <v>0</v>
-      </c>
-      <c r="V59" s="3">
-        <v>0</v>
+      <c r="U59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="V59" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="W59" s="3">
         <v>0</v>
@@ -4419,56 +4692,62 @@
       <c r="Y59" s="3">
         <v>0</v>
       </c>
-      <c r="Z59" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="AA59" s="3" t="s">
-        <v>3</v>
+      <c r="Z59" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA59" s="3">
+        <v>0</v>
       </c>
       <c r="AB59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AD59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>1500</v>
+      </c>
+      <c r="E60" s="3">
+        <v>1300</v>
+      </c>
+      <c r="F60" s="3">
         <v>1200</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>1100</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>1000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>900</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>800</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>700</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>500</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>400</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>300</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>200</v>
       </c>
-      <c r="N60" s="3">
-        <v>0</v>
-      </c>
-      <c r="O60" s="3">
-        <v>0</v>
-      </c>
       <c r="P60" s="3">
         <v>0</v>
       </c>
@@ -4490,11 +4769,11 @@
       <c r="V60" s="3">
         <v>0</v>
       </c>
-      <c r="W60" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="X60" s="3" t="s">
-        <v>3</v>
+      <c r="W60" s="3">
+        <v>0</v>
+      </c>
+      <c r="X60" s="3">
+        <v>0</v>
       </c>
       <c r="Y60" s="3" t="s">
         <v>3</v>
@@ -4508,8 +4787,14 @@
       <c r="AB60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC60" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AD60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -4588,8 +4873,14 @@
       <c r="AB61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC61" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -4668,8 +4959,14 @@
       <c r="AB62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC62" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4748,8 +5045,14 @@
       <c r="AB63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC63" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4828,8 +5131,14 @@
       <c r="AB64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC64" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4908,47 +5217,53 @@
       <c r="AB65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC65" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>1500</v>
+      </c>
+      <c r="E66" s="3">
+        <v>1300</v>
+      </c>
+      <c r="F66" s="3">
         <v>1200</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>1100</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>1000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>900</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>800</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>700</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>500</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>400</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>300</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>200</v>
       </c>
-      <c r="N66" s="3">
-        <v>0</v>
-      </c>
-      <c r="O66" s="3">
-        <v>0</v>
-      </c>
       <c r="P66" s="3">
         <v>0</v>
       </c>
@@ -4970,11 +5285,11 @@
       <c r="V66" s="3">
         <v>0</v>
       </c>
-      <c r="W66" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="X66" s="3" t="s">
-        <v>3</v>
+      <c r="W66" s="3">
+        <v>0</v>
+      </c>
+      <c r="X66" s="3">
+        <v>0</v>
       </c>
       <c r="Y66" s="3" t="s">
         <v>3</v>
@@ -4988,8 +5303,14 @@
       <c r="AB66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC66" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AD66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5018,8 +5339,10 @@
       <c r="Z67" s="3"/>
       <c r="AA67" s="3"/>
       <c r="AB67" s="3"/>
-    </row>
-    <row r="68" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC67" s="3"/>
+      <c r="AD67" s="3"/>
+    </row>
+    <row r="68" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5098,8 +5421,14 @@
       <c r="AB68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC68" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5178,8 +5507,14 @@
       <c r="AB69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC69" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5258,8 +5593,14 @@
       <c r="AB70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC70" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5338,52 +5679,58 @@
       <c r="AB71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC71" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-160300</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-160200</v>
+      </c>
+      <c r="F72" s="3">
         <v>-160000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>-159900</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>-159800</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>-159700</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>-159600</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>-159400</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>-159300</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>-159200</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>-159000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>-158900</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>-158800</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>-800</v>
-      </c>
-      <c r="P72" s="3">
-        <v>-700</v>
-      </c>
-      <c r="Q72" s="3">
-        <v>-700</v>
       </c>
       <c r="R72" s="3">
         <v>-700</v>
@@ -5400,11 +5747,11 @@
       <c r="V72" s="3">
         <v>-700</v>
       </c>
-      <c r="W72" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="X72" s="3" t="s">
-        <v>3</v>
+      <c r="W72" s="3">
+        <v>-700</v>
+      </c>
+      <c r="X72" s="3">
+        <v>-700</v>
       </c>
       <c r="Y72" s="3" t="s">
         <v>3</v>
@@ -5418,8 +5765,14 @@
       <c r="AB72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AD72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5498,8 +5851,14 @@
       <c r="AB73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC73" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5578,8 +5937,14 @@
       <c r="AB74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC74" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5658,46 +6023,52 @@
       <c r="AB75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC75" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="E76" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="F76" s="3">
         <v>-1200</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>-1100</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>-1000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>-900</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>-700</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>-600</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>-500</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>-400</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>-200</v>
       </c>
-      <c r="M76" s="3">
-        <v>-100</v>
-      </c>
-      <c r="N76" s="3">
-        <v>0</v>
-      </c>
       <c r="O76" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="P76" s="3">
         <v>0</v>
@@ -5720,11 +6091,11 @@
       <c r="V76" s="3">
         <v>0</v>
       </c>
-      <c r="W76" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="X76" s="3" t="s">
-        <v>3</v>
+      <c r="W76" s="3">
+        <v>0</v>
+      </c>
+      <c r="X76" s="3">
+        <v>0</v>
       </c>
       <c r="Y76" s="3" t="s">
         <v>3</v>
@@ -5738,8 +6109,14 @@
       <c r="AB76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC76" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AD76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5818,93 +6195,105 @@
       <c r="AB77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC77" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44926</v>
+      </c>
+      <c r="F80" s="2">
         <v>44834</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44742</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44651</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44561</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44469</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>44377</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>44286</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>44196</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>44104</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>44012</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43921</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43830</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43738</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>43646</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>43555</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>43465</v>
       </c>
-      <c r="T80" s="2">
+      <c r="V80" s="2">
         <v>43373</v>
       </c>
-      <c r="U80" s="2">
+      <c r="W80" s="2">
         <v>43281</v>
       </c>
-      <c r="V80" s="2">
+      <c r="X80" s="2">
         <v>43190</v>
       </c>
-      <c r="W80" s="2">
+      <c r="Y80" s="2">
         <v>43100</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Z80" s="2">
         <v>43008</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="AA80" s="2">
         <v>42916</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AB80" s="2">
         <v>39629</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AC80" s="2">
         <v>39538</v>
       </c>
-      <c r="AB80" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="81" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AD80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
@@ -5939,14 +6328,14 @@
         <v>-100</v>
       </c>
       <c r="N81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="O81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="P81" s="3">
         <v>-158000</v>
       </c>
-      <c r="O81" s="3">
-        <v>0</v>
-      </c>
-      <c r="P81" s="3">
-        <v>0</v>
-      </c>
       <c r="Q81" s="3">
         <v>0</v>
       </c>
@@ -5975,16 +6364,22 @@
         <v>0</v>
       </c>
       <c r="Z81" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA81" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB81" s="3">
         <v>-900</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AC81" s="3">
         <v>-800</v>
       </c>
-      <c r="AB81" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="82" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AD81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6013,8 +6408,10 @@
       <c r="Z82" s="3"/>
       <c r="AA82" s="3"/>
       <c r="AB82" s="3"/>
-    </row>
-    <row r="83" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC82" s="3"/>
+      <c r="AD82" s="3"/>
+    </row>
+    <row r="83" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -6085,16 +6482,22 @@
         <v>0</v>
       </c>
       <c r="Z83" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA83" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB83" s="3">
         <v>100</v>
       </c>
-      <c r="AA83" s="3">
+      <c r="AC83" s="3">
         <v>100</v>
       </c>
-      <c r="AB83" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="84" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AD83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6173,8 +6576,14 @@
       <c r="AB84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC84" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6253,8 +6662,14 @@
       <c r="AB85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC85" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6333,8 +6748,14 @@
       <c r="AB86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC86" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6413,8 +6834,14 @@
       <c r="AB87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC87" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6493,8 +6920,14 @@
       <c r="AB88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC88" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -6565,16 +6998,22 @@
         <v>0</v>
       </c>
       <c r="Z89" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="AA89" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB89" s="3">
+        <v>-100</v>
+      </c>
+      <c r="AC89" s="3">
         <v>-200</v>
       </c>
-      <c r="AB89" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="90" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AD89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6603,8 +7042,10 @@
       <c r="Z90" s="3"/>
       <c r="AA90" s="3"/>
       <c r="AB90" s="3"/>
-    </row>
-    <row r="91" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC90" s="3"/>
+      <c r="AD90" s="3"/>
+    </row>
+    <row r="91" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -6678,13 +7119,19 @@
         <v>0</v>
       </c>
       <c r="AA91" s="3">
-        <v>-100</v>
-      </c>
-      <c r="AB91" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="92" spans="3:28" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="AB91" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC91" s="3">
+        <v>-100</v>
+      </c>
+      <c r="AD91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6763,8 +7210,14 @@
       <c r="AB92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC92" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6843,8 +7296,14 @@
       <c r="AB93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC93" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -6918,13 +7377,19 @@
         <v>0</v>
       </c>
       <c r="AA94" s="3">
-        <v>-100</v>
-      </c>
-      <c r="AB94" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="95" spans="3:28" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="AB94" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC94" s="3">
+        <v>-100</v>
+      </c>
+      <c r="AD94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6953,8 +7418,10 @@
       <c r="Z95" s="3"/>
       <c r="AA95" s="3"/>
       <c r="AB95" s="3"/>
-    </row>
-    <row r="96" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC95" s="3"/>
+      <c r="AD95" s="3"/>
+    </row>
+    <row r="96" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -7033,8 +7500,14 @@
       <c r="AB96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC96" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7113,8 +7586,14 @@
       <c r="AB97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC97" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7193,8 +7672,14 @@
       <c r="AB98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC98" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7273,8 +7758,14 @@
       <c r="AB99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC99" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -7345,16 +7836,22 @@
         <v>0</v>
       </c>
       <c r="Z100" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA100" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB100" s="3">
         <v>100</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AC100" s="3">
         <v>100</v>
       </c>
-      <c r="AB100" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="101" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AD100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -7433,8 +7930,14 @@
       <c r="AB101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC101" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -7508,9 +8011,15 @@
         <v>0</v>
       </c>
       <c r="AA102" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB102" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC102" s="3">
         <v>-200</v>
       </c>
-      <c r="AB102" s="3" t="s">
+      <c r="AD102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/BFNH_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/BFNH_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="92">
   <si>
     <t>BFNH</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AD102"/>
+  <dimension ref="A5:AE102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,126 +665,130 @@
     <col min="1" max="1" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="28" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="31" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="29" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="32" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:31" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E7" s="2">
         <v>45016</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44926</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44834</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44742</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44651</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44561</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44469</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44377</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44286</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44196</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44104</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>44012</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43921</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43830</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43738</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43646</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43555</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43465</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43373</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43281</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43190</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>43100</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>43008</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42916</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>39629</v>
       </c>
-      <c r="AC7" s="2">
+      <c r="AD7" s="2">
         <v>39538</v>
       </c>
-      <c r="AD7" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
@@ -861,16 +865,19 @@
         <v>0</v>
       </c>
       <c r="AB8" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC8" s="3">
         <v>200</v>
       </c>
-      <c r="AC8" s="3">
+      <c r="AD8" s="3">
         <v>400</v>
       </c>
-      <c r="AD8" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -916,8 +923,8 @@
       <c r="Q9" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="R9" s="3">
-        <v>0</v>
+      <c r="R9" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="S9" s="3">
         <v>0</v>
@@ -934,29 +941,32 @@
       <c r="W9" s="3">
         <v>0</v>
       </c>
-      <c r="X9" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="Y9" s="3">
-        <v>0</v>
-      </c>
-      <c r="Z9" s="3" t="s">
-        <v>3</v>
+      <c r="X9" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z9" s="3">
+        <v>0</v>
       </c>
       <c r="AA9" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="AB9" s="3">
-        <v>200</v>
+      <c r="AB9" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="AC9" s="3">
         <v>200</v>
       </c>
-      <c r="AD9" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AD9" s="3">
+        <v>200</v>
+      </c>
+      <c r="AE9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -1002,8 +1012,8 @@
       <c r="Q10" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="R10" s="3">
-        <v>0</v>
+      <c r="R10" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="S10" s="3">
         <v>0</v>
@@ -1020,29 +1030,32 @@
       <c r="W10" s="3">
         <v>0</v>
       </c>
-      <c r="X10" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="Y10" s="3">
-        <v>0</v>
-      </c>
-      <c r="Z10" s="3" t="s">
-        <v>3</v>
+      <c r="X10" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z10" s="3">
+        <v>0</v>
       </c>
       <c r="AA10" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="AB10" s="3">
-        <v>0</v>
+      <c r="AB10" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="AC10" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD10" s="3">
         <v>200</v>
       </c>
-      <c r="AD10" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1073,8 +1086,9 @@
       <c r="AB11" s="3"/>
       <c r="AC11" s="3"/>
       <c r="AD11" s="3"/>
-    </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE11" s="3"/>
+    </row>
+    <row r="12" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1150,17 +1164,20 @@
       <c r="AA12" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="AB12" s="3">
-        <v>300</v>
+      <c r="AB12" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="AC12" s="3">
         <v>300</v>
       </c>
-      <c r="AD12" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AD12" s="3">
+        <v>300</v>
+      </c>
+      <c r="AE12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1245,8 +1262,11 @@
       <c r="AD13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1331,8 +1351,11 @@
       <c r="AD14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1417,8 +1440,11 @@
       <c r="AD15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:31" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1446,8 +1472,9 @@
       <c r="AB16" s="3"/>
       <c r="AC16" s="3"/>
       <c r="AD16" s="3"/>
-    </row>
-    <row r="17" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE16" s="3"/>
+    </row>
+    <row r="17" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
@@ -1488,11 +1515,11 @@
         <v>100</v>
       </c>
       <c r="P17" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q17" s="3">
         <v>158000</v>
       </c>
-      <c r="Q17" s="3">
-        <v>0</v>
-      </c>
       <c r="R17" s="3">
         <v>0</v>
       </c>
@@ -1524,16 +1551,19 @@
         <v>0</v>
       </c>
       <c r="AB17" s="3">
-        <v>1100</v>
+        <v>0</v>
       </c>
       <c r="AC17" s="3">
         <v>1100</v>
       </c>
-      <c r="AD17" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AD17" s="3">
+        <v>1100</v>
+      </c>
+      <c r="AE17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1574,11 +1604,11 @@
         <v>-100</v>
       </c>
       <c r="P18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Q18" s="3">
         <v>-158000</v>
       </c>
-      <c r="Q18" s="3">
-        <v>0</v>
-      </c>
       <c r="R18" s="3">
         <v>0</v>
       </c>
@@ -1610,16 +1640,19 @@
         <v>0</v>
       </c>
       <c r="AB18" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC18" s="3">
         <v>-900</v>
       </c>
-      <c r="AC18" s="3">
+      <c r="AD18" s="3">
         <v>-700</v>
       </c>
-      <c r="AD18" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1650,8 +1683,9 @@
       <c r="AB19" s="3"/>
       <c r="AC19" s="3"/>
       <c r="AD19" s="3"/>
-    </row>
-    <row r="20" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE19" s="3"/>
+    </row>
+    <row r="20" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1733,11 +1767,14 @@
       <c r="AC20" s="3">
         <v>0</v>
       </c>
-      <c r="AD20" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="21" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AD20" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1813,17 +1850,20 @@
       <c r="AA21" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="AB21" s="3">
+      <c r="AB21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AC21" s="3">
         <v>-800</v>
       </c>
-      <c r="AC21" s="3">
+      <c r="AD21" s="3">
         <v>-700</v>
       </c>
-      <c r="AD21" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="22" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1884,8 +1924,8 @@
       <c r="V22" s="3">
         <v>0</v>
       </c>
-      <c r="W22" s="3" t="s">
-        <v>3</v>
+      <c r="W22" s="3">
+        <v>0</v>
       </c>
       <c r="X22" s="3" t="s">
         <v>3</v>
@@ -1899,17 +1939,20 @@
       <c r="AA22" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="AB22" s="3">
+      <c r="AB22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AC22" s="3">
         <v>100</v>
       </c>
-      <c r="AC22" s="3">
-        <v>0</v>
-      </c>
-      <c r="AD22" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="23" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AD22" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE22" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
@@ -1950,11 +1993,11 @@
         <v>-100</v>
       </c>
       <c r="P23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Q23" s="3">
         <v>-158000</v>
       </c>
-      <c r="Q23" s="3">
-        <v>0</v>
-      </c>
       <c r="R23" s="3">
         <v>0</v>
       </c>
@@ -1986,16 +2029,19 @@
         <v>0</v>
       </c>
       <c r="AB23" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC23" s="3">
         <v>-900</v>
       </c>
-      <c r="AC23" s="3">
+      <c r="AD23" s="3">
         <v>-700</v>
       </c>
-      <c r="AD23" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -2080,8 +2126,11 @@
       <c r="AD24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2166,8 +2215,11 @@
       <c r="AD25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
@@ -2208,11 +2260,11 @@
         <v>-100</v>
       </c>
       <c r="P26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Q26" s="3">
         <v>-158000</v>
       </c>
-      <c r="Q26" s="3">
-        <v>0</v>
-      </c>
       <c r="R26" s="3">
         <v>0</v>
       </c>
@@ -2244,16 +2296,19 @@
         <v>0</v>
       </c>
       <c r="AB26" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC26" s="3">
         <v>-900</v>
       </c>
-      <c r="AC26" s="3">
+      <c r="AD26" s="3">
         <v>-700</v>
       </c>
-      <c r="AD26" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="27" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
@@ -2294,11 +2349,11 @@
         <v>-100</v>
       </c>
       <c r="P27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Q27" s="3">
         <v>-158000</v>
       </c>
-      <c r="Q27" s="3">
-        <v>0</v>
-      </c>
       <c r="R27" s="3">
         <v>0</v>
       </c>
@@ -2330,16 +2385,19 @@
         <v>0</v>
       </c>
       <c r="AB27" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC27" s="3">
         <v>-900</v>
       </c>
-      <c r="AC27" s="3">
+      <c r="AD27" s="3">
         <v>-800</v>
       </c>
-      <c r="AD27" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="28" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2424,8 +2482,11 @@
       <c r="AD28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2510,8 +2571,11 @@
       <c r="AD29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2596,8 +2660,11 @@
       <c r="AD30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2682,8 +2749,11 @@
       <c r="AD31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2765,11 +2835,14 @@
       <c r="AC32" s="3">
         <v>0</v>
       </c>
-      <c r="AD32" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="33" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AD32" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
@@ -2810,11 +2883,11 @@
         <v>-100</v>
       </c>
       <c r="P33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Q33" s="3">
         <v>-158000</v>
       </c>
-      <c r="Q33" s="3">
-        <v>0</v>
-      </c>
       <c r="R33" s="3">
         <v>0</v>
       </c>
@@ -2846,16 +2919,19 @@
         <v>0</v>
       </c>
       <c r="AB33" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC33" s="3">
         <v>-900</v>
       </c>
-      <c r="AC33" s="3">
+      <c r="AD33" s="3">
         <v>-800</v>
       </c>
-      <c r="AD33" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="34" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2940,8 +3016,11 @@
       <c r="AD34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
@@ -2982,11 +3061,11 @@
         <v>-100</v>
       </c>
       <c r="P35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Q35" s="3">
         <v>-158000</v>
       </c>
-      <c r="Q35" s="3">
-        <v>0</v>
-      </c>
       <c r="R35" s="3">
         <v>0</v>
       </c>
@@ -3018,107 +3097,113 @@
         <v>0</v>
       </c>
       <c r="AB35" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC35" s="3">
         <v>-900</v>
       </c>
-      <c r="AC35" s="3">
+      <c r="AD35" s="3">
         <v>-800</v>
       </c>
-      <c r="AD35" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="37" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E38" s="2">
         <v>45016</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44926</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44834</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44742</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44651</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44561</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44469</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44377</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44286</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44196</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44104</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>44012</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43921</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43830</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43738</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43646</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43555</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43465</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43373</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43281</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43190</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>43100</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>43008</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42916</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>39629</v>
       </c>
-      <c r="AC38" s="2">
+      <c r="AD38" s="2">
         <v>39538</v>
       </c>
-      <c r="AD38" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="39" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -3149,8 +3234,9 @@
       <c r="AB39" s="3"/>
       <c r="AC39" s="3"/>
       <c r="AD39" s="3"/>
-    </row>
-    <row r="40" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE39" s="3"/>
+    </row>
+    <row r="40" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3181,8 +3267,9 @@
       <c r="AB40" s="3"/>
       <c r="AC40" s="3"/>
       <c r="AD40" s="3"/>
-    </row>
-    <row r="41" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE40" s="3"/>
+    </row>
+    <row r="41" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -3226,11 +3313,11 @@
         <v>0</v>
       </c>
       <c r="Q41" s="3">
+        <v>0</v>
+      </c>
+      <c r="R41" s="3">
         <v>100</v>
       </c>
-      <c r="R41" s="3">
-        <v>0</v>
-      </c>
       <c r="S41" s="3">
         <v>0</v>
       </c>
@@ -3249,8 +3336,8 @@
       <c r="X41" s="3">
         <v>0</v>
       </c>
-      <c r="Y41" s="3" t="s">
-        <v>3</v>
+      <c r="Y41" s="3">
+        <v>0</v>
       </c>
       <c r="Z41" s="3" t="s">
         <v>3</v>
@@ -3267,8 +3354,11 @@
       <c r="AD41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3353,8 +3443,11 @@
       <c r="AD42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -3421,8 +3514,8 @@
       <c r="X43" s="3">
         <v>0</v>
       </c>
-      <c r="Y43" s="3" t="s">
-        <v>3</v>
+      <c r="Y43" s="3">
+        <v>0</v>
       </c>
       <c r="Z43" s="3" t="s">
         <v>3</v>
@@ -3439,8 +3532,11 @@
       <c r="AD43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3516,8 +3612,8 @@
       <c r="AA44" s="3">
         <v>0</v>
       </c>
-      <c r="AB44" s="3" t="s">
-        <v>3</v>
+      <c r="AB44" s="3">
+        <v>0</v>
       </c>
       <c r="AC44" s="3" t="s">
         <v>3</v>
@@ -3525,16 +3621,19 @@
       <c r="AD44" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="45" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE44" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E45" s="3">
-        <v>0</v>
+      <c r="E45" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="F45" s="3">
         <v>0</v>
@@ -3560,11 +3659,11 @@
       <c r="M45" s="3">
         <v>0</v>
       </c>
-      <c r="N45" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O45" s="3">
-        <v>0</v>
+      <c r="N45" s="3">
+        <v>0</v>
+      </c>
+      <c r="O45" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="P45" s="3">
         <v>0</v>
@@ -3572,8 +3671,8 @@
       <c r="Q45" s="3">
         <v>0</v>
       </c>
-      <c r="R45" s="3" t="s">
-        <v>3</v>
+      <c r="R45" s="3">
+        <v>0</v>
       </c>
       <c r="S45" s="3" t="s">
         <v>3</v>
@@ -3581,8 +3680,8 @@
       <c r="T45" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="U45" s="3">
-        <v>0</v>
+      <c r="U45" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="V45" s="3">
         <v>0</v>
@@ -3593,8 +3692,8 @@
       <c r="X45" s="3">
         <v>0</v>
       </c>
-      <c r="Y45" s="3" t="s">
-        <v>3</v>
+      <c r="Y45" s="3">
+        <v>0</v>
       </c>
       <c r="Z45" s="3" t="s">
         <v>3</v>
@@ -3611,8 +3710,11 @@
       <c r="AD45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -3653,7 +3755,7 @@
         <v>0</v>
       </c>
       <c r="P46" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q46" s="3">
         <v>100</v>
@@ -3662,7 +3764,7 @@
         <v>100</v>
       </c>
       <c r="S46" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="T46" s="3">
         <v>0</v>
@@ -3679,8 +3781,8 @@
       <c r="X46" s="3">
         <v>0</v>
       </c>
-      <c r="Y46" s="3" t="s">
-        <v>3</v>
+      <c r="Y46" s="3">
+        <v>0</v>
       </c>
       <c r="Z46" s="3" t="s">
         <v>3</v>
@@ -3697,8 +3799,11 @@
       <c r="AD46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3774,8 +3879,8 @@
       <c r="AA47" s="3">
         <v>0</v>
       </c>
-      <c r="AB47" s="3" t="s">
-        <v>3</v>
+      <c r="AB47" s="3">
+        <v>0</v>
       </c>
       <c r="AC47" s="3" t="s">
         <v>3</v>
@@ -3783,8 +3888,11 @@
       <c r="AD47" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -3860,8 +3968,8 @@
       <c r="AA48" s="3">
         <v>0</v>
       </c>
-      <c r="AB48" s="3" t="s">
-        <v>3</v>
+      <c r="AB48" s="3">
+        <v>0</v>
       </c>
       <c r="AC48" s="3" t="s">
         <v>3</v>
@@ -3869,8 +3977,11 @@
       <c r="AD48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3946,8 +4057,8 @@
       <c r="AA49" s="3">
         <v>0</v>
       </c>
-      <c r="AB49" s="3" t="s">
-        <v>3</v>
+      <c r="AB49" s="3">
+        <v>0</v>
       </c>
       <c r="AC49" s="3" t="s">
         <v>3</v>
@@ -3955,8 +4066,11 @@
       <c r="AD49" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="50" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE49" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -4041,8 +4155,11 @@
       <c r="AD50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -4127,8 +4244,11 @@
       <c r="AD51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -4213,8 +4333,11 @@
       <c r="AD52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4299,8 +4422,11 @@
       <c r="AD53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
@@ -4341,7 +4467,7 @@
         <v>0</v>
       </c>
       <c r="P54" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q54" s="3">
         <v>100</v>
@@ -4350,7 +4476,7 @@
         <v>100</v>
       </c>
       <c r="S54" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="T54" s="3">
         <v>0</v>
@@ -4367,8 +4493,8 @@
       <c r="X54" s="3">
         <v>0</v>
       </c>
-      <c r="Y54" s="3" t="s">
-        <v>3</v>
+      <c r="Y54" s="3">
+        <v>0</v>
       </c>
       <c r="Z54" s="3" t="s">
         <v>3</v>
@@ -4385,8 +4511,11 @@
       <c r="AD54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4417,8 +4546,9 @@
       <c r="AB55" s="3"/>
       <c r="AC55" s="3"/>
       <c r="AD55" s="3"/>
-    </row>
-    <row r="56" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE55" s="3"/>
+    </row>
+    <row r="56" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4449,8 +4579,9 @@
       <c r="AB56" s="3"/>
       <c r="AC56" s="3"/>
       <c r="AD56" s="3"/>
-    </row>
-    <row r="57" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE56" s="3"/>
+    </row>
+    <row r="57" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -4517,8 +4648,8 @@
       <c r="X57" s="3">
         <v>0</v>
       </c>
-      <c r="Y57" s="3" t="s">
-        <v>3</v>
+      <c r="Y57" s="3">
+        <v>0</v>
       </c>
       <c r="Z57" s="3" t="s">
         <v>3</v>
@@ -4535,8 +4666,11 @@
       <c r="AD57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -4612,8 +4746,8 @@
       <c r="AA58" s="3">
         <v>0</v>
       </c>
-      <c r="AB58" s="3" t="s">
-        <v>3</v>
+      <c r="AB58" s="3">
+        <v>0</v>
       </c>
       <c r="AC58" s="3" t="s">
         <v>3</v>
@@ -4621,55 +4755,58 @@
       <c r="AD58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>1600</v>
+      </c>
+      <c r="E59" s="3">
         <v>1500</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>1300</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>1200</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>1100</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>1000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>900</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>800</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>700</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>500</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>400</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>300</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>200</v>
       </c>
-      <c r="P59" s="3">
-        <v>0</v>
-      </c>
       <c r="Q59" s="3">
         <v>0</v>
       </c>
-      <c r="R59" s="3" t="s">
-        <v>3</v>
+      <c r="R59" s="3">
+        <v>0</v>
       </c>
       <c r="S59" s="3" t="s">
         <v>3</v>
@@ -4683,8 +4820,8 @@
       <c r="V59" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="W59" s="3">
-        <v>0</v>
+      <c r="W59" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="X59" s="3">
         <v>0</v>
@@ -4698,8 +4835,8 @@
       <c r="AA59" s="3">
         <v>0</v>
       </c>
-      <c r="AB59" s="3" t="s">
-        <v>3</v>
+      <c r="AB59" s="3">
+        <v>0</v>
       </c>
       <c r="AC59" s="3" t="s">
         <v>3</v>
@@ -4707,50 +4844,53 @@
       <c r="AD59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>1600</v>
+      </c>
+      <c r="E60" s="3">
         <v>1500</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>1300</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>1200</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>1100</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>1000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>900</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>800</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>700</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>500</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>400</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>300</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>200</v>
       </c>
-      <c r="P60" s="3">
-        <v>0</v>
-      </c>
       <c r="Q60" s="3">
         <v>0</v>
       </c>
@@ -4775,8 +4915,8 @@
       <c r="X60" s="3">
         <v>0</v>
       </c>
-      <c r="Y60" s="3" t="s">
-        <v>3</v>
+      <c r="Y60" s="3">
+        <v>0</v>
       </c>
       <c r="Z60" s="3" t="s">
         <v>3</v>
@@ -4793,8 +4933,11 @@
       <c r="AD60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -4879,8 +5022,11 @@
       <c r="AD61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -4965,8 +5111,11 @@
       <c r="AD62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -5051,8 +5200,11 @@
       <c r="AD63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -5137,8 +5289,11 @@
       <c r="AD64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -5223,50 +5378,53 @@
       <c r="AD65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>1600</v>
+      </c>
+      <c r="E66" s="3">
         <v>1500</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>1300</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>1200</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>1100</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>1000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>900</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>800</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>700</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>500</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>400</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>300</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>200</v>
       </c>
-      <c r="P66" s="3">
-        <v>0</v>
-      </c>
       <c r="Q66" s="3">
         <v>0</v>
       </c>
@@ -5291,8 +5449,8 @@
       <c r="X66" s="3">
         <v>0</v>
       </c>
-      <c r="Y66" s="3" t="s">
-        <v>3</v>
+      <c r="Y66" s="3">
+        <v>0</v>
       </c>
       <c r="Z66" s="3" t="s">
         <v>3</v>
@@ -5309,8 +5467,11 @@
       <c r="AD66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5341,8 +5502,9 @@
       <c r="AB67" s="3"/>
       <c r="AC67" s="3"/>
       <c r="AD67" s="3"/>
-    </row>
-    <row r="68" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE67" s="3"/>
+    </row>
+    <row r="68" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5427,8 +5589,11 @@
       <c r="AD68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5513,8 +5678,11 @@
       <c r="AD69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5599,8 +5767,11 @@
       <c r="AD70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5685,55 +5856,58 @@
       <c r="AD71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-160400</v>
+      </c>
+      <c r="E72" s="3">
         <v>-160300</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-160200</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-160000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-159900</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-159800</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-159700</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-159600</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-159400</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-159300</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-159200</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-159000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-158900</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-158800</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-800</v>
-      </c>
-      <c r="R72" s="3">
-        <v>-700</v>
       </c>
       <c r="S72" s="3">
         <v>-700</v>
@@ -5753,8 +5927,8 @@
       <c r="X72" s="3">
         <v>-700</v>
       </c>
-      <c r="Y72" s="3" t="s">
-        <v>3</v>
+      <c r="Y72" s="3">
+        <v>-700</v>
       </c>
       <c r="Z72" s="3" t="s">
         <v>3</v>
@@ -5771,8 +5945,11 @@
       <c r="AD72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5857,8 +6034,11 @@
       <c r="AD73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5943,8 +6123,11 @@
       <c r="AD74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -6029,49 +6212,52 @@
       <c r="AD75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="E76" s="3">
         <v>-1500</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>-1300</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>-1200</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>-1100</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>-1000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>-900</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>-700</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>-600</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>-500</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>-400</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>-200</v>
       </c>
-      <c r="O76" s="3">
-        <v>-100</v>
-      </c>
       <c r="P76" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="Q76" s="3">
         <v>0</v>
@@ -6097,8 +6283,8 @@
       <c r="X76" s="3">
         <v>0</v>
       </c>
-      <c r="Y76" s="3" t="s">
-        <v>3</v>
+      <c r="Y76" s="3">
+        <v>0</v>
       </c>
       <c r="Z76" s="3" t="s">
         <v>3</v>
@@ -6115,8 +6301,11 @@
       <c r="AD76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -6201,99 +6390,105 @@
       <c r="AD77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E80" s="2">
         <v>45016</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44926</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44834</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44742</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44651</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44561</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44469</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44377</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44286</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44196</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44104</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>44012</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43921</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43830</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43738</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43646</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43555</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43465</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43373</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43281</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43190</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>43100</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>43008</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42916</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>39629</v>
       </c>
-      <c r="AC80" s="2">
+      <c r="AD80" s="2">
         <v>39538</v>
       </c>
-      <c r="AD80" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="81" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
@@ -6334,11 +6529,11 @@
         <v>-100</v>
       </c>
       <c r="P81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Q81" s="3">
         <v>-158000</v>
       </c>
-      <c r="Q81" s="3">
-        <v>0</v>
-      </c>
       <c r="R81" s="3">
         <v>0</v>
       </c>
@@ -6370,16 +6565,19 @@
         <v>0</v>
       </c>
       <c r="AB81" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC81" s="3">
         <v>-900</v>
       </c>
-      <c r="AC81" s="3">
+      <c r="AD81" s="3">
         <v>-800</v>
       </c>
-      <c r="AD81" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="82" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6410,8 +6608,9 @@
       <c r="AB82" s="3"/>
       <c r="AC82" s="3"/>
       <c r="AD82" s="3"/>
-    </row>
-    <row r="83" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE82" s="3"/>
+    </row>
+    <row r="83" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -6488,16 +6687,19 @@
         <v>0</v>
       </c>
       <c r="AB83" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="AC83" s="3">
         <v>100</v>
       </c>
-      <c r="AD83" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="84" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AD83" s="3">
+        <v>100</v>
+      </c>
+      <c r="AE83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6582,8 +6784,11 @@
       <c r="AD84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6668,8 +6873,11 @@
       <c r="AD85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6754,8 +6962,11 @@
       <c r="AD86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6840,8 +7051,11 @@
       <c r="AD87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6926,8 +7140,11 @@
       <c r="AD88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -7004,16 +7221,19 @@
         <v>0</v>
       </c>
       <c r="AB89" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="AC89" s="3">
+        <v>-100</v>
+      </c>
+      <c r="AD89" s="3">
         <v>-200</v>
       </c>
-      <c r="AD89" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="90" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -7044,8 +7264,9 @@
       <c r="AB90" s="3"/>
       <c r="AC90" s="3"/>
       <c r="AD90" s="3"/>
-    </row>
-    <row r="91" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE90" s="3"/>
+    </row>
+    <row r="91" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -7125,13 +7346,16 @@
         <v>0</v>
       </c>
       <c r="AC91" s="3">
-        <v>-100</v>
-      </c>
-      <c r="AD91" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="92" spans="3:30" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="AD91" s="3">
+        <v>-100</v>
+      </c>
+      <c r="AE91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -7216,8 +7440,11 @@
       <c r="AD92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -7302,8 +7529,11 @@
       <c r="AD93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -7383,13 +7613,16 @@
         <v>0</v>
       </c>
       <c r="AC94" s="3">
-        <v>-100</v>
-      </c>
-      <c r="AD94" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="95" spans="3:30" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="AD94" s="3">
+        <v>-100</v>
+      </c>
+      <c r="AE94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -7420,8 +7653,9 @@
       <c r="AB95" s="3"/>
       <c r="AC95" s="3"/>
       <c r="AD95" s="3"/>
-    </row>
-    <row r="96" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE95" s="3"/>
+    </row>
+    <row r="96" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -7506,8 +7740,11 @@
       <c r="AD96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7592,8 +7829,11 @@
       <c r="AD97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7678,8 +7918,11 @@
       <c r="AD98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7764,8 +8007,11 @@
       <c r="AD99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -7842,16 +8088,19 @@
         <v>0</v>
       </c>
       <c r="AB100" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="AC100" s="3">
         <v>100</v>
       </c>
-      <c r="AD100" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="101" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AD100" s="3">
+        <v>100</v>
+      </c>
+      <c r="AE100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -7936,8 +8185,11 @@
       <c r="AD101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -8017,9 +8269,12 @@
         <v>0</v>
       </c>
       <c r="AC102" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD102" s="3">
         <v>-200</v>
       </c>
-      <c r="AD102" s="3" t="s">
+      <c r="AE102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/BFNH_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/BFNH_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="309" uniqueCount="92">
   <si>
     <t>BFNH</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AE102"/>
+  <dimension ref="A5:AF102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,130 +665,134 @@
     <col min="1" max="1" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="29" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="32" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="28" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="30" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="33" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:32" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E7" s="2">
         <v>45107</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>45016</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44926</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44834</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44742</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44651</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44561</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44469</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44377</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44286</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44196</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>44104</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>44012</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43921</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43830</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43738</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43646</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43555</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43465</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43373</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43281</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>43190</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>43100</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>43008</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42916</v>
       </c>
-      <c r="AC7" s="2">
+      <c r="AD7" s="2">
         <v>39629</v>
       </c>
-      <c r="AD7" s="2">
+      <c r="AE7" s="2">
         <v>39538</v>
       </c>
-      <c r="AE7" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
@@ -868,16 +872,19 @@
         <v>0</v>
       </c>
       <c r="AC8" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD8" s="3">
         <v>200</v>
       </c>
-      <c r="AD8" s="3">
+      <c r="AE8" s="3">
         <v>400</v>
       </c>
-      <c r="AE8" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -926,8 +933,8 @@
       <c r="R9" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="S9" s="3">
-        <v>0</v>
+      <c r="S9" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="T9" s="3">
         <v>0</v>
@@ -944,29 +951,32 @@
       <c r="X9" s="3">
         <v>0</v>
       </c>
-      <c r="Y9" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="Z9" s="3">
-        <v>0</v>
-      </c>
-      <c r="AA9" s="3" t="s">
-        <v>3</v>
+      <c r="Y9" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AA9" s="3">
+        <v>0</v>
       </c>
       <c r="AB9" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="AC9" s="3">
-        <v>200</v>
+      <c r="AC9" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="AD9" s="3">
         <v>200</v>
       </c>
-      <c r="AE9" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AE9" s="3">
+        <v>200</v>
+      </c>
+      <c r="AF9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -1015,8 +1025,8 @@
       <c r="R10" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="S10" s="3">
-        <v>0</v>
+      <c r="S10" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="T10" s="3">
         <v>0</v>
@@ -1033,29 +1043,32 @@
       <c r="X10" s="3">
         <v>0</v>
       </c>
-      <c r="Y10" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="Z10" s="3">
-        <v>0</v>
-      </c>
-      <c r="AA10" s="3" t="s">
-        <v>3</v>
+      <c r="Y10" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AA10" s="3">
+        <v>0</v>
       </c>
       <c r="AB10" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="AC10" s="3">
-        <v>0</v>
+      <c r="AC10" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="AD10" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE10" s="3">
         <v>200</v>
       </c>
-      <c r="AE10" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1087,8 +1100,9 @@
       <c r="AC11" s="3"/>
       <c r="AD11" s="3"/>
       <c r="AE11" s="3"/>
-    </row>
-    <row r="12" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF11" s="3"/>
+    </row>
+    <row r="12" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1167,17 +1181,20 @@
       <c r="AB12" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="AC12" s="3">
-        <v>300</v>
+      <c r="AC12" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="AD12" s="3">
         <v>300</v>
       </c>
-      <c r="AE12" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AE12" s="3">
+        <v>300</v>
+      </c>
+      <c r="AF12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1265,8 +1282,11 @@
       <c r="AE13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1354,8 +1374,11 @@
       <c r="AE14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1443,8 +1466,11 @@
       <c r="AE15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:32" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1473,8 +1499,9 @@
       <c r="AC16" s="3"/>
       <c r="AD16" s="3"/>
       <c r="AE16" s="3"/>
-    </row>
-    <row r="17" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF16" s="3"/>
+    </row>
+    <row r="17" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
@@ -1518,11 +1545,11 @@
         <v>100</v>
       </c>
       <c r="Q17" s="3">
+        <v>100</v>
+      </c>
+      <c r="R17" s="3">
         <v>158000</v>
       </c>
-      <c r="R17" s="3">
-        <v>0</v>
-      </c>
       <c r="S17" s="3">
         <v>0</v>
       </c>
@@ -1554,16 +1581,19 @@
         <v>0</v>
       </c>
       <c r="AC17" s="3">
-        <v>1100</v>
+        <v>0</v>
       </c>
       <c r="AD17" s="3">
         <v>1100</v>
       </c>
-      <c r="AE17" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AE17" s="3">
+        <v>1100</v>
+      </c>
+      <c r="AF17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1607,11 +1637,11 @@
         <v>-100</v>
       </c>
       <c r="Q18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="R18" s="3">
         <v>-158000</v>
       </c>
-      <c r="R18" s="3">
-        <v>0</v>
-      </c>
       <c r="S18" s="3">
         <v>0</v>
       </c>
@@ -1643,16 +1673,19 @@
         <v>0</v>
       </c>
       <c r="AC18" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD18" s="3">
         <v>-900</v>
       </c>
-      <c r="AD18" s="3">
+      <c r="AE18" s="3">
         <v>-700</v>
       </c>
-      <c r="AE18" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1684,8 +1717,9 @@
       <c r="AC19" s="3"/>
       <c r="AD19" s="3"/>
       <c r="AE19" s="3"/>
-    </row>
-    <row r="20" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF19" s="3"/>
+    </row>
+    <row r="20" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1770,11 +1804,14 @@
       <c r="AD20" s="3">
         <v>0</v>
       </c>
-      <c r="AE20" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="21" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AE20" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1853,17 +1890,20 @@
       <c r="AB21" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="AC21" s="3">
+      <c r="AC21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AD21" s="3">
         <v>-800</v>
       </c>
-      <c r="AD21" s="3">
+      <c r="AE21" s="3">
         <v>-700</v>
       </c>
-      <c r="AE21" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="22" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1927,8 +1967,8 @@
       <c r="W22" s="3">
         <v>0</v>
       </c>
-      <c r="X22" s="3" t="s">
-        <v>3</v>
+      <c r="X22" s="3">
+        <v>0</v>
       </c>
       <c r="Y22" s="3" t="s">
         <v>3</v>
@@ -1942,17 +1982,20 @@
       <c r="AB22" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="AC22" s="3">
+      <c r="AC22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AD22" s="3">
         <v>100</v>
       </c>
-      <c r="AD22" s="3">
-        <v>0</v>
-      </c>
-      <c r="AE22" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="23" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AE22" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF22" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
@@ -1996,11 +2039,11 @@
         <v>-100</v>
       </c>
       <c r="Q23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="R23" s="3">
         <v>-158000</v>
       </c>
-      <c r="R23" s="3">
-        <v>0</v>
-      </c>
       <c r="S23" s="3">
         <v>0</v>
       </c>
@@ -2032,16 +2075,19 @@
         <v>0</v>
       </c>
       <c r="AC23" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD23" s="3">
         <v>-900</v>
       </c>
-      <c r="AD23" s="3">
+      <c r="AE23" s="3">
         <v>-700</v>
       </c>
-      <c r="AE23" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -2129,8 +2175,11 @@
       <c r="AE24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2218,8 +2267,11 @@
       <c r="AE25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
@@ -2263,11 +2315,11 @@
         <v>-100</v>
       </c>
       <c r="Q26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="R26" s="3">
         <v>-158000</v>
       </c>
-      <c r="R26" s="3">
-        <v>0</v>
-      </c>
       <c r="S26" s="3">
         <v>0</v>
       </c>
@@ -2299,16 +2351,19 @@
         <v>0</v>
       </c>
       <c r="AC26" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD26" s="3">
         <v>-900</v>
       </c>
-      <c r="AD26" s="3">
+      <c r="AE26" s="3">
         <v>-700</v>
       </c>
-      <c r="AE26" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="27" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
@@ -2352,11 +2407,11 @@
         <v>-100</v>
       </c>
       <c r="Q27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="R27" s="3">
         <v>-158000</v>
       </c>
-      <c r="R27" s="3">
-        <v>0</v>
-      </c>
       <c r="S27" s="3">
         <v>0</v>
       </c>
@@ -2388,16 +2443,19 @@
         <v>0</v>
       </c>
       <c r="AC27" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD27" s="3">
         <v>-900</v>
       </c>
-      <c r="AD27" s="3">
+      <c r="AE27" s="3">
         <v>-800</v>
       </c>
-      <c r="AE27" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="28" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2485,8 +2543,11 @@
       <c r="AE28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2574,8 +2635,11 @@
       <c r="AE29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2663,8 +2727,11 @@
       <c r="AE30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2752,8 +2819,11 @@
       <c r="AE31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2838,11 +2908,14 @@
       <c r="AD32" s="3">
         <v>0</v>
       </c>
-      <c r="AE32" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="33" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AE32" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
@@ -2886,11 +2959,11 @@
         <v>-100</v>
       </c>
       <c r="Q33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="R33" s="3">
         <v>-158000</v>
       </c>
-      <c r="R33" s="3">
-        <v>0</v>
-      </c>
       <c r="S33" s="3">
         <v>0</v>
       </c>
@@ -2922,16 +2995,19 @@
         <v>0</v>
       </c>
       <c r="AC33" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD33" s="3">
         <v>-900</v>
       </c>
-      <c r="AD33" s="3">
+      <c r="AE33" s="3">
         <v>-800</v>
       </c>
-      <c r="AE33" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="34" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -3019,8 +3095,11 @@
       <c r="AE34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
@@ -3064,11 +3143,11 @@
         <v>-100</v>
       </c>
       <c r="Q35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="R35" s="3">
         <v>-158000</v>
       </c>
-      <c r="R35" s="3">
-        <v>0</v>
-      </c>
       <c r="S35" s="3">
         <v>0</v>
       </c>
@@ -3100,110 +3179,116 @@
         <v>0</v>
       </c>
       <c r="AC35" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD35" s="3">
         <v>-900</v>
       </c>
-      <c r="AD35" s="3">
+      <c r="AE35" s="3">
         <v>-800</v>
       </c>
-      <c r="AE35" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="37" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E38" s="2">
         <v>45107</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>45016</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44926</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44834</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44742</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44651</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44561</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44469</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44377</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44286</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44196</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>44104</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>44012</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43921</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43830</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43738</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43646</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43555</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43465</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43373</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43281</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>43190</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>43100</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>43008</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42916</v>
       </c>
-      <c r="AC38" s="2">
+      <c r="AD38" s="2">
         <v>39629</v>
       </c>
-      <c r="AD38" s="2">
+      <c r="AE38" s="2">
         <v>39538</v>
       </c>
-      <c r="AE38" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="39" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -3235,8 +3320,9 @@
       <c r="AC39" s="3"/>
       <c r="AD39" s="3"/>
       <c r="AE39" s="3"/>
-    </row>
-    <row r="40" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF39" s="3"/>
+    </row>
+    <row r="40" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3268,8 +3354,9 @@
       <c r="AC40" s="3"/>
       <c r="AD40" s="3"/>
       <c r="AE40" s="3"/>
-    </row>
-    <row r="41" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF40" s="3"/>
+    </row>
+    <row r="41" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -3316,11 +3403,11 @@
         <v>0</v>
       </c>
       <c r="R41" s="3">
+        <v>0</v>
+      </c>
+      <c r="S41" s="3">
         <v>100</v>
       </c>
-      <c r="S41" s="3">
-        <v>0</v>
-      </c>
       <c r="T41" s="3">
         <v>0</v>
       </c>
@@ -3339,8 +3426,8 @@
       <c r="Y41" s="3">
         <v>0</v>
       </c>
-      <c r="Z41" s="3" t="s">
-        <v>3</v>
+      <c r="Z41" s="3">
+        <v>0</v>
       </c>
       <c r="AA41" s="3" t="s">
         <v>3</v>
@@ -3357,8 +3444,11 @@
       <c r="AE41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3446,8 +3536,11 @@
       <c r="AE42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -3517,8 +3610,8 @@
       <c r="Y43" s="3">
         <v>0</v>
       </c>
-      <c r="Z43" s="3" t="s">
-        <v>3</v>
+      <c r="Z43" s="3">
+        <v>0</v>
       </c>
       <c r="AA43" s="3" t="s">
         <v>3</v>
@@ -3535,8 +3628,11 @@
       <c r="AE43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3615,8 +3711,8 @@
       <c r="AB44" s="3">
         <v>0</v>
       </c>
-      <c r="AC44" s="3" t="s">
-        <v>3</v>
+      <c r="AC44" s="3">
+        <v>0</v>
       </c>
       <c r="AD44" s="3" t="s">
         <v>3</v>
@@ -3624,8 +3720,11 @@
       <c r="AE44" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="45" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF44" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -3635,8 +3734,8 @@
       <c r="E45" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F45" s="3">
-        <v>0</v>
+      <c r="F45" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="G45" s="3">
         <v>0</v>
@@ -3662,11 +3761,11 @@
       <c r="N45" s="3">
         <v>0</v>
       </c>
-      <c r="O45" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P45" s="3">
-        <v>0</v>
+      <c r="O45" s="3">
+        <v>0</v>
+      </c>
+      <c r="P45" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="Q45" s="3">
         <v>0</v>
@@ -3674,8 +3773,8 @@
       <c r="R45" s="3">
         <v>0</v>
       </c>
-      <c r="S45" s="3" t="s">
-        <v>3</v>
+      <c r="S45" s="3">
+        <v>0</v>
       </c>
       <c r="T45" s="3" t="s">
         <v>3</v>
@@ -3683,8 +3782,8 @@
       <c r="U45" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="V45" s="3">
-        <v>0</v>
+      <c r="V45" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="W45" s="3">
         <v>0</v>
@@ -3695,8 +3794,8 @@
       <c r="Y45" s="3">
         <v>0</v>
       </c>
-      <c r="Z45" s="3" t="s">
-        <v>3</v>
+      <c r="Z45" s="3">
+        <v>0</v>
       </c>
       <c r="AA45" s="3" t="s">
         <v>3</v>
@@ -3713,8 +3812,11 @@
       <c r="AE45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -3758,7 +3860,7 @@
         <v>0</v>
       </c>
       <c r="Q46" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="R46" s="3">
         <v>100</v>
@@ -3767,7 +3869,7 @@
         <v>100</v>
       </c>
       <c r="T46" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="U46" s="3">
         <v>0</v>
@@ -3784,8 +3886,8 @@
       <c r="Y46" s="3">
         <v>0</v>
       </c>
-      <c r="Z46" s="3" t="s">
-        <v>3</v>
+      <c r="Z46" s="3">
+        <v>0</v>
       </c>
       <c r="AA46" s="3" t="s">
         <v>3</v>
@@ -3802,8 +3904,11 @@
       <c r="AE46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3882,8 +3987,8 @@
       <c r="AB47" s="3">
         <v>0</v>
       </c>
-      <c r="AC47" s="3" t="s">
-        <v>3</v>
+      <c r="AC47" s="3">
+        <v>0</v>
       </c>
       <c r="AD47" s="3" t="s">
         <v>3</v>
@@ -3891,8 +3996,11 @@
       <c r="AE47" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -3971,8 +4079,8 @@
       <c r="AB48" s="3">
         <v>0</v>
       </c>
-      <c r="AC48" s="3" t="s">
-        <v>3</v>
+      <c r="AC48" s="3">
+        <v>0</v>
       </c>
       <c r="AD48" s="3" t="s">
         <v>3</v>
@@ -3980,8 +4088,11 @@
       <c r="AE48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -4060,8 +4171,8 @@
       <c r="AB49" s="3">
         <v>0</v>
       </c>
-      <c r="AC49" s="3" t="s">
-        <v>3</v>
+      <c r="AC49" s="3">
+        <v>0</v>
       </c>
       <c r="AD49" s="3" t="s">
         <v>3</v>
@@ -4069,8 +4180,11 @@
       <c r="AE49" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="50" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF49" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -4158,8 +4272,11 @@
       <c r="AE50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -4247,8 +4364,11 @@
       <c r="AE51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -4336,8 +4456,11 @@
       <c r="AE52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4425,8 +4548,11 @@
       <c r="AE53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
@@ -4470,7 +4596,7 @@
         <v>0</v>
       </c>
       <c r="Q54" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="R54" s="3">
         <v>100</v>
@@ -4479,7 +4605,7 @@
         <v>100</v>
       </c>
       <c r="T54" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="U54" s="3">
         <v>0</v>
@@ -4496,8 +4622,8 @@
       <c r="Y54" s="3">
         <v>0</v>
       </c>
-      <c r="Z54" s="3" t="s">
-        <v>3</v>
+      <c r="Z54" s="3">
+        <v>0</v>
       </c>
       <c r="AA54" s="3" t="s">
         <v>3</v>
@@ -4514,8 +4640,11 @@
       <c r="AE54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4547,8 +4676,9 @@
       <c r="AC55" s="3"/>
       <c r="AD55" s="3"/>
       <c r="AE55" s="3"/>
-    </row>
-    <row r="56" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF55" s="3"/>
+    </row>
+    <row r="56" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4580,8 +4710,9 @@
       <c r="AC56" s="3"/>
       <c r="AD56" s="3"/>
       <c r="AE56" s="3"/>
-    </row>
-    <row r="57" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF56" s="3"/>
+    </row>
+    <row r="57" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -4651,8 +4782,8 @@
       <c r="Y57" s="3">
         <v>0</v>
       </c>
-      <c r="Z57" s="3" t="s">
-        <v>3</v>
+      <c r="Z57" s="3">
+        <v>0</v>
       </c>
       <c r="AA57" s="3" t="s">
         <v>3</v>
@@ -4669,8 +4800,11 @@
       <c r="AE57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -4749,8 +4883,8 @@
       <c r="AB58" s="3">
         <v>0</v>
       </c>
-      <c r="AC58" s="3" t="s">
-        <v>3</v>
+      <c r="AC58" s="3">
+        <v>0</v>
       </c>
       <c r="AD58" s="3" t="s">
         <v>3</v>
@@ -4758,58 +4892,61 @@
       <c r="AE58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>1700</v>
+      </c>
+      <c r="E59" s="3">
         <v>1600</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>1500</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>1300</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>1200</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>1100</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>1000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>900</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>800</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>700</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>500</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>400</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>300</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>200</v>
       </c>
-      <c r="Q59" s="3">
-        <v>0</v>
-      </c>
       <c r="R59" s="3">
         <v>0</v>
       </c>
-      <c r="S59" s="3" t="s">
-        <v>3</v>
+      <c r="S59" s="3">
+        <v>0</v>
       </c>
       <c r="T59" s="3" t="s">
         <v>3</v>
@@ -4823,8 +4960,8 @@
       <c r="W59" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="X59" s="3">
-        <v>0</v>
+      <c r="X59" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="Y59" s="3">
         <v>0</v>
@@ -4838,8 +4975,8 @@
       <c r="AB59" s="3">
         <v>0</v>
       </c>
-      <c r="AC59" s="3" t="s">
-        <v>3</v>
+      <c r="AC59" s="3">
+        <v>0</v>
       </c>
       <c r="AD59" s="3" t="s">
         <v>3</v>
@@ -4847,53 +4984,56 @@
       <c r="AE59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>1700</v>
+      </c>
+      <c r="E60" s="3">
         <v>1600</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>1500</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>1300</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>1200</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>1100</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>1000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>900</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>800</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>700</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>500</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>400</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>300</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>200</v>
       </c>
-      <c r="Q60" s="3">
-        <v>0</v>
-      </c>
       <c r="R60" s="3">
         <v>0</v>
       </c>
@@ -4918,8 +5058,8 @@
       <c r="Y60" s="3">
         <v>0</v>
       </c>
-      <c r="Z60" s="3" t="s">
-        <v>3</v>
+      <c r="Z60" s="3">
+        <v>0</v>
       </c>
       <c r="AA60" s="3" t="s">
         <v>3</v>
@@ -4936,8 +5076,11 @@
       <c r="AE60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -5025,8 +5168,11 @@
       <c r="AE61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -5114,8 +5260,11 @@
       <c r="AE62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -5203,8 +5352,11 @@
       <c r="AE63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -5292,8 +5444,11 @@
       <c r="AE64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -5381,53 +5536,56 @@
       <c r="AE65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>1700</v>
+      </c>
+      <c r="E66" s="3">
         <v>1600</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>1500</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>1300</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>1200</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>1100</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>1000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>900</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>800</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>700</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>500</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>400</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>300</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>200</v>
       </c>
-      <c r="Q66" s="3">
-        <v>0</v>
-      </c>
       <c r="R66" s="3">
         <v>0</v>
       </c>
@@ -5452,8 +5610,8 @@
       <c r="Y66" s="3">
         <v>0</v>
       </c>
-      <c r="Z66" s="3" t="s">
-        <v>3</v>
+      <c r="Z66" s="3">
+        <v>0</v>
       </c>
       <c r="AA66" s="3" t="s">
         <v>3</v>
@@ -5470,8 +5628,11 @@
       <c r="AE66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5503,8 +5664,9 @@
       <c r="AC67" s="3"/>
       <c r="AD67" s="3"/>
       <c r="AE67" s="3"/>
-    </row>
-    <row r="68" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF67" s="3"/>
+    </row>
+    <row r="68" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5592,8 +5754,11 @@
       <c r="AE68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5681,8 +5846,11 @@
       <c r="AE69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5770,8 +5938,11 @@
       <c r="AE70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5859,58 +6030,61 @@
       <c r="AE71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-160500</v>
+      </c>
+      <c r="E72" s="3">
         <v>-160400</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-160300</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-160200</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-160000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-159900</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-159800</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-159700</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-159600</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-159400</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-159300</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-159200</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-159000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-158900</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-158800</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-800</v>
-      </c>
-      <c r="S72" s="3">
-        <v>-700</v>
       </c>
       <c r="T72" s="3">
         <v>-700</v>
@@ -5930,8 +6104,8 @@
       <c r="Y72" s="3">
         <v>-700</v>
       </c>
-      <c r="Z72" s="3" t="s">
-        <v>3</v>
+      <c r="Z72" s="3">
+        <v>-700</v>
       </c>
       <c r="AA72" s="3" t="s">
         <v>3</v>
@@ -5948,8 +6122,11 @@
       <c r="AE72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -6037,8 +6214,11 @@
       <c r="AE73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -6126,8 +6306,11 @@
       <c r="AE74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -6215,52 +6398,55 @@
       <c r="AE75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="E76" s="3">
         <v>-1600</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>-1500</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>-1300</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>-1200</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>-1100</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>-1000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>-900</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>-700</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>-600</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>-500</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>-400</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>-200</v>
       </c>
-      <c r="P76" s="3">
-        <v>-100</v>
-      </c>
       <c r="Q76" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="R76" s="3">
         <v>0</v>
@@ -6286,8 +6472,8 @@
       <c r="Y76" s="3">
         <v>0</v>
       </c>
-      <c r="Z76" s="3" t="s">
-        <v>3</v>
+      <c r="Z76" s="3">
+        <v>0</v>
       </c>
       <c r="AA76" s="3" t="s">
         <v>3</v>
@@ -6304,8 +6490,11 @@
       <c r="AE76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -6393,102 +6582,108 @@
       <c r="AE77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E80" s="2">
         <v>45107</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>45016</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44926</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44834</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44742</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44651</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44561</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44469</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44377</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44286</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44196</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>44104</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>44012</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43921</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43830</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43738</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43646</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43555</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43465</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43373</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43281</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>43190</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>43100</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>43008</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42916</v>
       </c>
-      <c r="AC80" s="2">
+      <c r="AD80" s="2">
         <v>39629</v>
       </c>
-      <c r="AD80" s="2">
+      <c r="AE80" s="2">
         <v>39538</v>
       </c>
-      <c r="AE80" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="81" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
@@ -6532,11 +6727,11 @@
         <v>-100</v>
       </c>
       <c r="Q81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="R81" s="3">
         <v>-158000</v>
       </c>
-      <c r="R81" s="3">
-        <v>0</v>
-      </c>
       <c r="S81" s="3">
         <v>0</v>
       </c>
@@ -6568,16 +6763,19 @@
         <v>0</v>
       </c>
       <c r="AC81" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD81" s="3">
         <v>-900</v>
       </c>
-      <c r="AD81" s="3">
+      <c r="AE81" s="3">
         <v>-800</v>
       </c>
-      <c r="AE81" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="82" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6609,8 +6807,9 @@
       <c r="AC82" s="3"/>
       <c r="AD82" s="3"/>
       <c r="AE82" s="3"/>
-    </row>
-    <row r="83" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF82" s="3"/>
+    </row>
+    <row r="83" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -6690,16 +6889,19 @@
         <v>0</v>
       </c>
       <c r="AC83" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="AD83" s="3">
         <v>100</v>
       </c>
-      <c r="AE83" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="84" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AE83" s="3">
+        <v>100</v>
+      </c>
+      <c r="AF83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6787,8 +6989,11 @@
       <c r="AE84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6876,8 +7081,11 @@
       <c r="AE85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6965,8 +7173,11 @@
       <c r="AE86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -7054,8 +7265,11 @@
       <c r="AE87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -7143,8 +7357,11 @@
       <c r="AE88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -7224,16 +7441,19 @@
         <v>0</v>
       </c>
       <c r="AC89" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="AD89" s="3">
+        <v>-100</v>
+      </c>
+      <c r="AE89" s="3">
         <v>-200</v>
       </c>
-      <c r="AE89" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="90" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -7265,8 +7485,9 @@
       <c r="AC90" s="3"/>
       <c r="AD90" s="3"/>
       <c r="AE90" s="3"/>
-    </row>
-    <row r="91" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF90" s="3"/>
+    </row>
+    <row r="91" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -7349,13 +7570,16 @@
         <v>0</v>
       </c>
       <c r="AD91" s="3">
-        <v>-100</v>
-      </c>
-      <c r="AE91" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="92" spans="3:31" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="AE91" s="3">
+        <v>-100</v>
+      </c>
+      <c r="AF91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -7443,8 +7667,11 @@
       <c r="AE92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -7532,8 +7759,11 @@
       <c r="AE93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -7616,13 +7846,16 @@
         <v>0</v>
       </c>
       <c r="AD94" s="3">
-        <v>-100</v>
-      </c>
-      <c r="AE94" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="95" spans="3:31" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="AE94" s="3">
+        <v>-100</v>
+      </c>
+      <c r="AF94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -7654,8 +7887,9 @@
       <c r="AC95" s="3"/>
       <c r="AD95" s="3"/>
       <c r="AE95" s="3"/>
-    </row>
-    <row r="96" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF95" s="3"/>
+    </row>
+    <row r="96" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -7743,8 +7977,11 @@
       <c r="AE96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7832,8 +8069,11 @@
       <c r="AE97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7921,8 +8161,11 @@
       <c r="AE98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -8010,8 +8253,11 @@
       <c r="AE99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -8091,16 +8337,19 @@
         <v>0</v>
       </c>
       <c r="AC100" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="AD100" s="3">
         <v>100</v>
       </c>
-      <c r="AE100" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="101" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AE100" s="3">
+        <v>100</v>
+      </c>
+      <c r="AF100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -8188,8 +8437,11 @@
       <c r="AE101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -8272,9 +8524,12 @@
         <v>0</v>
       </c>
       <c r="AD102" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE102" s="3">
         <v>-200</v>
       </c>
-      <c r="AE102" s="3" t="s">
+      <c r="AF102" s="3" t="s">
         <v>3</v>
       </c>
     </row>
